--- a/media/uploads/U_find_31_12_24.xlsx
+++ b/media/uploads/U_find_31_12_24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atique.hossain\Desktop\website\test\python\excel_mapper\media\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Code/excel_to_app/excel_to_app_web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F021850-1B2E-4F24-B0F7-BAA9CB518790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61FCFDB-7665-D440-BF99-83DF69B10651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="603" firstSheet="1" activeTab="3" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" tabRatio="603" firstSheet="1" activeTab="8" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions - Idea Log" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="2642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="2643">
   <si>
     <t>MvP Version - iv ( 15 Jan 25)- Comments and Suggestion</t>
   </si>
@@ -15751,12 +15751,15 @@
   <si>
     <t>Question no.</t>
   </si>
+  <si>
+    <t>Radio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="204">
+  <fonts count="205">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16986,6 +16989,11 @@
       <color theme="1"/>
       <name val="Lato (Body)"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -17623,7 +17631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="748">
+  <cellXfs count="749">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19810,6 +19818,7 @@
     <xf numFmtId="0" fontId="176" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20215,28 +20224,28 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.3046875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.3046875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="18.84375" style="236" customWidth="1"/>
-    <col min="4" max="4" width="28.69140625" style="236" customWidth="1"/>
-    <col min="5" max="5" width="25.4609375" style="26" customWidth="1"/>
-    <col min="6" max="6" width="43.84375" style="29" customWidth="1"/>
-    <col min="7" max="7" width="22.69140625" style="237" customWidth="1"/>
-    <col min="8" max="8" width="50.69140625" style="237" customWidth="1"/>
-    <col min="9" max="9" width="46.3046875" style="143" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="236" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="236" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="43.83203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="237" customWidth="1"/>
+    <col min="8" max="8" width="50.6640625" style="237" customWidth="1"/>
+    <col min="9" max="9" width="46.33203125" style="143" customWidth="1"/>
     <col min="10" max="10" width="42" style="143" customWidth="1"/>
-    <col min="11" max="12" width="35.4609375" style="26" customWidth="1"/>
+    <col min="11" max="12" width="35.5" style="26" customWidth="1"/>
     <col min="13" max="13" width="25" style="26" customWidth="1"/>
-    <col min="14" max="14" width="30.4609375" style="26" customWidth="1"/>
-    <col min="15" max="15" width="34.4609375" style="26" customWidth="1"/>
-    <col min="16" max="16" width="23.84375" style="26" customWidth="1"/>
+    <col min="14" max="14" width="30.5" style="26" customWidth="1"/>
+    <col min="15" max="15" width="34.5" style="26" customWidth="1"/>
+    <col min="16" max="16" width="23.83203125" style="26" customWidth="1"/>
     <col min="17" max="17" width="34" style="29" customWidth="1"/>
-    <col min="18" max="19" width="21.4609375" style="26" customWidth="1"/>
-    <col min="20" max="20" width="24.69140625" style="26" customWidth="1"/>
-    <col min="21" max="21" width="21.4609375" style="26" customWidth="1"/>
-    <col min="22" max="16384" width="8.84375" style="26"/>
+    <col min="18" max="19" width="21.5" style="26" customWidth="1"/>
+    <col min="20" max="20" width="24.6640625" style="26" customWidth="1"/>
+    <col min="21" max="21" width="21.5" style="26" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15">
@@ -20267,7 +20276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="28">
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="32">
       <c r="A2" s="114" t="s">
         <v>3</v>
       </c>
@@ -20332,7 +20341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="62.5">
+    <row r="3" spans="1:21" ht="75">
       <c r="A3" s="122" t="s">
         <v>19</v>
       </c>
@@ -20379,7 +20388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="117">
+    <row r="4" spans="1:21" ht="143">
       <c r="A4" s="122" t="s">
         <v>31</v>
       </c>
@@ -20422,7 +20431,7 @@
       <c r="T4" s="48"/>
       <c r="U4" s="48"/>
     </row>
-    <row r="5" spans="1:21" ht="156">
+    <row r="5" spans="1:21" ht="195">
       <c r="A5" s="122" t="s">
         <v>41</v>
       </c>
@@ -20465,7 +20474,7 @@
       <c r="T5" s="48"/>
       <c r="U5" s="48"/>
     </row>
-    <row r="6" spans="1:21" ht="156">
+    <row r="6" spans="1:21" ht="255">
       <c r="A6" s="122" t="s">
         <v>51</v>
       </c>
@@ -20508,7 +20517,7 @@
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
     </row>
-    <row r="7" spans="1:21" ht="260">
+    <row r="7" spans="1:21" ht="342">
       <c r="A7" s="122" t="s">
         <v>61</v>
       </c>
@@ -20547,7 +20556,7 @@
       <c r="T7" s="48"/>
       <c r="U7" s="48"/>
     </row>
-    <row r="8" spans="1:21" ht="175">
+    <row r="8" spans="1:21" ht="169">
       <c r="A8" s="122" t="s">
         <v>69</v>
       </c>
@@ -20588,7 +20597,7 @@
       <c r="T8" s="48"/>
       <c r="U8" s="48"/>
     </row>
-    <row r="9" spans="1:21" ht="250">
+    <row r="9" spans="1:21" ht="255">
       <c r="A9" s="122" t="s">
         <v>78</v>
       </c>
@@ -20635,7 +20644,7 @@
       <c r="T9" s="48"/>
       <c r="U9" s="48"/>
     </row>
-    <row r="10" spans="1:21" ht="100">
+    <row r="10" spans="1:21" ht="84">
       <c r="A10" s="122" t="s">
         <v>90</v>
       </c>
@@ -20678,7 +20687,7 @@
       <c r="T10" s="48"/>
       <c r="U10" s="48"/>
     </row>
-    <row r="11" spans="1:21" ht="184">
+    <row r="11" spans="1:21" ht="284">
       <c r="A11" s="122" t="s">
         <v>100</v>
       </c>
@@ -20723,7 +20732,7 @@
       <c r="T11" s="48"/>
       <c r="U11" s="48"/>
     </row>
-    <row r="12" spans="1:21" ht="169">
+    <row r="12" spans="1:21" ht="210">
       <c r="A12" s="122" t="s">
         <v>111</v>
       </c>
@@ -20764,7 +20773,7 @@
       <c r="T12" s="48"/>
       <c r="U12" s="48"/>
     </row>
-    <row r="13" spans="1:21" ht="87.5">
+    <row r="13" spans="1:21" ht="105">
       <c r="A13" s="122" t="s">
         <v>120</v>
       </c>
@@ -20801,7 +20810,7 @@
       <c r="T13" s="48"/>
       <c r="U13" s="48"/>
     </row>
-    <row r="14" spans="1:21" ht="100">
+    <row r="14" spans="1:21" ht="105">
       <c r="A14" s="122" t="s">
         <v>127</v>
       </c>
@@ -20838,7 +20847,7 @@
       <c r="T14" s="48"/>
       <c r="U14" s="48"/>
     </row>
-    <row r="15" spans="1:21" ht="91">
+    <row r="15" spans="1:21" ht="117">
       <c r="A15" s="122" t="s">
         <v>134</v>
       </c>
@@ -20879,7 +20888,7 @@
       <c r="T15" s="48"/>
       <c r="U15" s="48"/>
     </row>
-    <row r="16" spans="1:21" ht="62.5">
+    <row r="16" spans="1:21" ht="72">
       <c r="A16" s="122" t="s">
         <v>143</v>
       </c>
@@ -20918,7 +20927,7 @@
       <c r="T16" s="48"/>
       <c r="U16" s="48"/>
     </row>
-    <row r="17" spans="1:21" ht="87.5">
+    <row r="17" spans="1:21" ht="90">
       <c r="A17" s="122" t="s">
         <v>151</v>
       </c>
@@ -21000,7 +21009,7 @@
       <c r="T18" s="48"/>
       <c r="U18" s="48"/>
     </row>
-    <row r="19" spans="1:21" ht="112.5">
+    <row r="19" spans="1:21" ht="120">
       <c r="A19" s="122" t="s">
         <v>167</v>
       </c>
@@ -21047,7 +21056,7 @@
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
     </row>
-    <row r="20" spans="1:21" ht="175">
+    <row r="20" spans="1:21" ht="182">
       <c r="A20" s="122" t="s">
         <v>178</v>
       </c>
@@ -21092,7 +21101,7 @@
       <c r="T20" s="48"/>
       <c r="U20" s="48"/>
     </row>
-    <row r="21" spans="1:21" ht="104">
+    <row r="21" spans="1:21" ht="135">
       <c r="A21" s="122" t="s">
         <v>188</v>
       </c>
@@ -21133,7 +21142,7 @@
       <c r="T21" s="48"/>
       <c r="U21" s="48"/>
     </row>
-    <row r="22" spans="1:21" ht="56">
+    <row r="22" spans="1:21" ht="65">
       <c r="A22" s="122" t="s">
         <v>196</v>
       </c>
@@ -21174,7 +21183,7 @@
       <c r="T22" s="48"/>
       <c r="U22" s="48"/>
     </row>
-    <row r="23" spans="1:21" ht="221">
+    <row r="23" spans="1:21" ht="285">
       <c r="A23" s="122" t="s">
         <v>204</v>
       </c>
@@ -21215,7 +21224,7 @@
       <c r="T23" s="48"/>
       <c r="U23" s="48"/>
     </row>
-    <row r="24" spans="1:21" ht="117">
+    <row r="24" spans="1:21" ht="150">
       <c r="A24" s="122" t="s">
         <v>212</v>
       </c>
@@ -21256,7 +21265,7 @@
       <c r="T24" s="48"/>
       <c r="U24" s="48"/>
     </row>
-    <row r="25" spans="1:21" ht="65">
+    <row r="25" spans="1:21" ht="75">
       <c r="A25" s="122" t="s">
         <v>220</v>
       </c>
@@ -21295,7 +21304,7 @@
       <c r="T25" s="48"/>
       <c r="U25" s="48"/>
     </row>
-    <row r="26" spans="1:21" ht="137.5">
+    <row r="26" spans="1:21" ht="150">
       <c r="A26" s="122" t="s">
         <v>227</v>
       </c>
@@ -21336,7 +21345,7 @@
       <c r="T26" s="48"/>
       <c r="U26" s="48"/>
     </row>
-    <row r="27" spans="1:21" ht="65">
+    <row r="27" spans="1:21" ht="90">
       <c r="A27" s="122" t="s">
         <v>235</v>
       </c>
@@ -21377,7 +21386,7 @@
       <c r="T27" s="48"/>
       <c r="U27" s="48"/>
     </row>
-    <row r="28" spans="1:21" ht="65">
+    <row r="28" spans="1:21" ht="75">
       <c r="A28" s="122" t="s">
         <v>243</v>
       </c>
@@ -21416,7 +21425,7 @@
       <c r="T28" s="48"/>
       <c r="U28" s="48"/>
     </row>
-    <row r="29" spans="1:21" ht="112.5">
+    <row r="29" spans="1:21" ht="135">
       <c r="A29" s="122" t="s">
         <v>250</v>
       </c>
@@ -21457,7 +21466,7 @@
       <c r="T29" s="48"/>
       <c r="U29" s="48"/>
     </row>
-    <row r="30" spans="1:21" ht="382.5">
+    <row r="30" spans="1:21" ht="409.6">
       <c r="A30" s="122" t="s">
         <v>258</v>
       </c>
@@ -21498,7 +21507,7 @@
       <c r="T30" s="48"/>
       <c r="U30" s="48"/>
     </row>
-    <row r="31" spans="1:21" ht="351">
+    <row r="31" spans="1:21" ht="409.6">
       <c r="A31" s="122" t="s">
         <v>267</v>
       </c>
@@ -21539,7 +21548,7 @@
       <c r="T31" s="48"/>
       <c r="U31" s="48"/>
     </row>
-    <row r="32" spans="1:21" ht="112.5">
+    <row r="32" spans="1:21" ht="105">
       <c r="A32" s="122" t="s">
         <v>275</v>
       </c>
@@ -21580,7 +21589,7 @@
       <c r="T32" s="48"/>
       <c r="U32" s="48"/>
     </row>
-    <row r="33" spans="1:21" ht="262.5">
+    <row r="33" spans="1:21" ht="308">
       <c r="A33" s="122" t="s">
         <v>284</v>
       </c>
@@ -21623,7 +21632,7 @@
       <c r="T33" s="48"/>
       <c r="U33" s="48"/>
     </row>
-    <row r="34" spans="1:21" ht="287.5">
+    <row r="34" spans="1:21" ht="320">
       <c r="A34" s="122" t="s">
         <v>293</v>
       </c>
@@ -21703,7 +21712,7 @@
       <c r="T35" s="48"/>
       <c r="U35" s="48"/>
     </row>
-    <row r="36" spans="1:21" ht="225">
+    <row r="36" spans="1:21" ht="234">
       <c r="A36" s="122" t="s">
         <v>308</v>
       </c>
@@ -21744,7 +21753,7 @@
       <c r="T36" s="48"/>
       <c r="U36" s="48"/>
     </row>
-    <row r="37" spans="1:21" ht="195">
+    <row r="37" spans="1:21" ht="240">
       <c r="A37" s="122" t="s">
         <v>316</v>
       </c>
@@ -21785,7 +21794,7 @@
       <c r="T37" s="48"/>
       <c r="U37" s="48"/>
     </row>
-    <row r="38" spans="1:21" ht="56">
+    <row r="38" spans="1:21" ht="60">
       <c r="A38" s="122" t="s">
         <v>325</v>
       </c>
@@ -21828,7 +21837,7 @@
       <c r="T38" s="48"/>
       <c r="U38" s="48"/>
     </row>
-    <row r="39" spans="1:21" ht="350">
+    <row r="39" spans="1:21" ht="398">
       <c r="A39" s="122" t="s">
         <v>334</v>
       </c>
@@ -21875,7 +21884,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="56">
+    <row r="40" spans="1:21" ht="60">
       <c r="A40" s="122" t="s">
         <v>345</v>
       </c>
@@ -21918,7 +21927,7 @@
       <c r="T40" s="48"/>
       <c r="U40" s="48"/>
     </row>
-    <row r="41" spans="1:21" ht="112">
+    <row r="41" spans="1:21" ht="126">
       <c r="A41" s="122" t="s">
         <v>354</v>
       </c>
@@ -21959,7 +21968,7 @@
       <c r="T41" s="47"/>
       <c r="U41" s="98"/>
     </row>
-    <row r="42" spans="1:21" ht="262.5">
+    <row r="42" spans="1:21" ht="255">
       <c r="A42" s="122" t="s">
         <v>362</v>
       </c>
@@ -22043,7 +22052,7 @@
       <c r="T43" s="48"/>
       <c r="U43" s="48"/>
     </row>
-    <row r="44" spans="1:21" ht="70">
+    <row r="44" spans="1:21" ht="75">
       <c r="A44" s="122" t="s">
         <v>378</v>
       </c>
@@ -22121,7 +22130,7 @@
       <c r="T45" s="48"/>
       <c r="U45" s="48"/>
     </row>
-    <row r="46" spans="1:21" ht="56">
+    <row r="46" spans="1:21" ht="60">
       <c r="A46" s="122" t="s">
         <v>392</v>
       </c>
@@ -22201,7 +22210,7 @@
       <c r="T47" s="48"/>
       <c r="U47" s="48"/>
     </row>
-    <row r="48" spans="1:21" ht="100">
+    <row r="48" spans="1:21" ht="130">
       <c r="A48" s="122" t="s">
         <v>408</v>
       </c>
@@ -22324,7 +22333,7 @@
       <c r="T50" s="48"/>
       <c r="U50" s="48"/>
     </row>
-    <row r="51" spans="1:21" ht="125">
+    <row r="51" spans="1:21" ht="130">
       <c r="A51" s="122" t="s">
         <v>432</v>
       </c>
@@ -22367,7 +22376,7 @@
       <c r="T51" s="48"/>
       <c r="U51" s="48"/>
     </row>
-    <row r="52" spans="1:21" ht="126">
+    <row r="52" spans="1:21" ht="135">
       <c r="A52" s="122" t="s">
         <v>442</v>
       </c>
@@ -22408,7 +22417,7 @@
       <c r="T52" s="48"/>
       <c r="U52" s="48"/>
     </row>
-    <row r="53" spans="1:21" ht="87.5">
+    <row r="53" spans="1:21" ht="91">
       <c r="A53" s="122" t="s">
         <v>450</v>
       </c>
@@ -22451,7 +22460,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="84">
+    <row r="54" spans="1:21" ht="105">
       <c r="A54" s="122" t="s">
         <v>459</v>
       </c>
@@ -22492,7 +22501,7 @@
       <c r="T54" s="48"/>
       <c r="U54" s="48"/>
     </row>
-    <row r="55" spans="1:21" ht="112">
+    <row r="55" spans="1:21" ht="120">
       <c r="A55" s="122" t="s">
         <v>467</v>
       </c>
@@ -22660,7 +22669,7 @@
       <c r="T58" s="48"/>
       <c r="U58" s="48"/>
     </row>
-    <row r="59" spans="1:21" ht="300">
+    <row r="59" spans="1:21" ht="285">
       <c r="A59" s="122" t="s">
         <v>500</v>
       </c>
@@ -22742,7 +22751,7 @@
       <c r="T60" s="48"/>
       <c r="U60" s="48"/>
     </row>
-    <row r="61" spans="1:21" ht="154">
+    <row r="61" spans="1:21" ht="165">
       <c r="A61" s="122" t="s">
         <v>515</v>
       </c>
@@ -22783,7 +22792,7 @@
       <c r="T61" s="48"/>
       <c r="U61" s="48"/>
     </row>
-    <row r="62" spans="1:21" ht="337.5">
+    <row r="62" spans="1:21" ht="370">
       <c r="A62" s="122" t="s">
         <v>523</v>
       </c>
@@ -22824,7 +22833,7 @@
       <c r="T62" s="48"/>
       <c r="U62" s="48"/>
     </row>
-    <row r="63" spans="1:21" ht="322">
+    <row r="63" spans="1:21" ht="356">
       <c r="A63" s="122" t="s">
         <v>531</v>
       </c>
@@ -22865,7 +22874,7 @@
       <c r="T63" s="48"/>
       <c r="U63" s="48"/>
     </row>
-    <row r="64" spans="1:21" ht="261">
+    <row r="64" spans="1:21" ht="288">
       <c r="A64" s="122" t="s">
         <v>539</v>
       </c>
@@ -22908,7 +22917,7 @@
       <c r="T64" s="48"/>
       <c r="U64" s="48"/>
     </row>
-    <row r="65" spans="1:21" ht="112">
+    <row r="65" spans="1:21" ht="126">
       <c r="A65" s="122" t="s">
         <v>548</v>
       </c>
@@ -22992,7 +23001,7 @@
       <c r="T66" s="48"/>
       <c r="U66" s="48"/>
     </row>
-    <row r="67" spans="1:21" ht="150">
+    <row r="67" spans="1:21" ht="169">
       <c r="A67" s="122" t="s">
         <v>565</v>
       </c>
@@ -23033,7 +23042,7 @@
       <c r="T67" s="48"/>
       <c r="U67" s="48"/>
     </row>
-    <row r="68" spans="1:21" ht="140">
+    <row r="68" spans="1:21" ht="195">
       <c r="A68" s="122" t="s">
         <v>573</v>
       </c>
@@ -23074,7 +23083,7 @@
       <c r="T68" s="48"/>
       <c r="U68" s="48"/>
     </row>
-    <row r="69" spans="1:21" ht="116">
+    <row r="69" spans="1:21" ht="144">
       <c r="A69" s="122" t="s">
         <v>581</v>
       </c>
@@ -23115,7 +23124,7 @@
       <c r="T69" s="48"/>
       <c r="U69" s="48"/>
     </row>
-    <row r="70" spans="1:21" ht="112.5">
+    <row r="70" spans="1:21" ht="117">
       <c r="A70" s="122" t="s">
         <v>589</v>
       </c>
@@ -23156,7 +23165,7 @@
       <c r="T70" s="48"/>
       <c r="U70" s="48"/>
     </row>
-    <row r="71" spans="1:21" ht="137.5">
+    <row r="71" spans="1:21" ht="140">
       <c r="A71" s="122" t="s">
         <v>597</v>
       </c>
@@ -23197,7 +23206,7 @@
       <c r="T71" s="48"/>
       <c r="U71" s="48"/>
     </row>
-    <row r="72" spans="1:21" ht="200">
+    <row r="72" spans="1:21" ht="196">
       <c r="A72" s="122" t="s">
         <v>605</v>
       </c>
@@ -23238,7 +23247,7 @@
       <c r="T72" s="48"/>
       <c r="U72" s="48"/>
     </row>
-    <row r="73" spans="1:21" ht="250">
+    <row r="73" spans="1:21" ht="284">
       <c r="A73" s="122" t="s">
         <v>613</v>
       </c>
@@ -23279,7 +23288,7 @@
       <c r="T73" s="48"/>
       <c r="U73" s="48"/>
     </row>
-    <row r="74" spans="1:21" ht="350">
+    <row r="74" spans="1:21" ht="356">
       <c r="A74" s="122" t="s">
         <v>621</v>
       </c>
@@ -23402,7 +23411,7 @@
       <c r="T76" s="48"/>
       <c r="U76" s="48"/>
     </row>
-    <row r="77" spans="1:21" ht="200">
+    <row r="77" spans="1:21" ht="234">
       <c r="A77" s="122" t="s">
         <v>645</v>
       </c>
@@ -23445,7 +23454,7 @@
       <c r="T77" s="48"/>
       <c r="U77" s="48"/>
     </row>
-    <row r="78" spans="1:21" ht="75">
+    <row r="78" spans="1:21" ht="91">
       <c r="A78" s="122" t="s">
         <v>654</v>
       </c>
@@ -23488,7 +23497,7 @@
       <c r="T78" s="48"/>
       <c r="U78" s="48"/>
     </row>
-    <row r="79" spans="1:21" ht="150">
+    <row r="79" spans="1:21" ht="169">
       <c r="A79" s="122" t="s">
         <v>663</v>
       </c>
@@ -23529,7 +23538,7 @@
       <c r="T79" s="48"/>
       <c r="U79" s="48"/>
     </row>
-    <row r="80" spans="1:21" ht="150">
+    <row r="80" spans="1:21" ht="156">
       <c r="A80" s="122" t="s">
         <v>671</v>
       </c>
@@ -23578,7 +23587,7 @@
       </c>
       <c r="U80" s="48"/>
     </row>
-    <row r="81" spans="1:21" ht="250">
+    <row r="81" spans="1:21" ht="272">
       <c r="A81" s="122" t="s">
         <v>683</v>
       </c>
@@ -23619,7 +23628,7 @@
       <c r="T81" s="48"/>
       <c r="U81" s="48"/>
     </row>
-    <row r="82" spans="1:21" ht="50">
+    <row r="82" spans="1:21" ht="65">
       <c r="A82" s="122" t="s">
         <v>691</v>
       </c>
@@ -23701,7 +23710,7 @@
       <c r="T83" s="48"/>
       <c r="U83" s="48"/>
     </row>
-    <row r="84" spans="1:21" ht="187.5">
+    <row r="84" spans="1:21" ht="208">
       <c r="A84" s="122" t="s">
         <v>707</v>
       </c>
@@ -23746,7 +23755,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="273">
+    <row r="85" spans="1:21" ht="328">
       <c r="A85" s="122" t="s">
         <v>717</v>
       </c>
@@ -23789,7 +23798,7 @@
       <c r="T85" s="48"/>
       <c r="U85" s="48"/>
     </row>
-    <row r="86" spans="1:21" ht="91">
+    <row r="86" spans="1:21" ht="105">
       <c r="A86" s="122" t="s">
         <v>727</v>
       </c>
@@ -23828,7 +23837,7 @@
       <c r="T86" s="48"/>
       <c r="U86" s="48"/>
     </row>
-    <row r="87" spans="1:21" ht="196">
+    <row r="87" spans="1:21" ht="210">
       <c r="A87" s="122" t="s">
         <v>734</v>
       </c>
@@ -23869,7 +23878,7 @@
       <c r="T87" s="48"/>
       <c r="U87" s="48"/>
     </row>
-    <row r="88" spans="1:21" ht="117">
+    <row r="88" spans="1:21" ht="135">
       <c r="A88" s="122" t="s">
         <v>742</v>
       </c>
@@ -23908,7 +23917,7 @@
       <c r="T88" s="48"/>
       <c r="U88" s="48"/>
     </row>
-    <row r="89" spans="1:21" ht="182">
+    <row r="89" spans="1:21" ht="210">
       <c r="A89" s="122" t="s">
         <v>750</v>
       </c>
@@ -23945,7 +23954,7 @@
       <c r="T89" s="48"/>
       <c r="U89" s="48"/>
     </row>
-    <row r="90" spans="1:21" ht="156">
+    <row r="90" spans="1:21" ht="195">
       <c r="A90" s="122" t="s">
         <v>757</v>
       </c>
@@ -23982,7 +23991,7 @@
       <c r="T90" s="48"/>
       <c r="U90" s="48"/>
     </row>
-    <row r="91" spans="1:21" ht="117">
+    <row r="91" spans="1:21" ht="135">
       <c r="A91" s="122" t="s">
         <v>764</v>
       </c>
@@ -24019,7 +24028,7 @@
       <c r="T91" s="48"/>
       <c r="U91" s="48"/>
     </row>
-    <row r="92" spans="1:21" ht="187.5">
+    <row r="92" spans="1:21" ht="182">
       <c r="A92" s="122" t="s">
         <v>771</v>
       </c>
@@ -24056,7 +24065,7 @@
       <c r="T92" s="48"/>
       <c r="U92" s="48"/>
     </row>
-    <row r="93" spans="1:21" ht="162.5">
+    <row r="93" spans="1:21" ht="154">
       <c r="A93" s="122" t="s">
         <v>778</v>
       </c>
@@ -24095,7 +24104,7 @@
       <c r="T93" s="48"/>
       <c r="U93" s="48"/>
     </row>
-    <row r="94" spans="1:21" ht="112.5">
+    <row r="94" spans="1:21" ht="120">
       <c r="A94" s="122" t="s">
         <v>785</v>
       </c>
@@ -24216,19 +24225,19 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="52" style="29" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="44.69140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="29" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
@@ -24250,7 +24259,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="128">
+    <row r="4" spans="1:3" ht="152">
       <c r="A4" s="68" t="s">
         <v>798</v>
       </c>
@@ -24261,7 +24270,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="85">
+    <row r="5" spans="1:3" ht="95">
       <c r="A5" s="67" t="s">
         <v>801</v>
       </c>
@@ -24284,31 +24293,31 @@
   </sheetPr>
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView topLeftCell="L5" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="D1" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="21.4609375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="33.69140625" style="26" customWidth="1"/>
+    <col min="1" max="4" width="21.5" style="26" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="26" customWidth="1"/>
     <col min="6" max="6" width="28" style="26" customWidth="1"/>
     <col min="7" max="7" width="24" style="26" customWidth="1"/>
-    <col min="8" max="8" width="43.3046875" style="26" customWidth="1"/>
-    <col min="9" max="9" width="34.4609375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="37.3046875" style="637" customWidth="1"/>
+    <col min="8" max="8" width="43.33203125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="34.5" style="26" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" style="637" customWidth="1"/>
     <col min="11" max="11" width="42" style="408" customWidth="1"/>
-    <col min="12" max="12" width="14.4609375" style="258" customWidth="1"/>
-    <col min="13" max="13" width="22.15234375" style="26" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="258" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" style="26" customWidth="1"/>
     <col min="14" max="14" width="14" style="26" customWidth="1"/>
     <col min="15" max="15" width="54" style="637" customWidth="1"/>
-    <col min="16" max="16" width="26.4609375" style="637" customWidth="1"/>
-    <col min="17" max="17" width="26.4609375" style="422" customWidth="1"/>
-    <col min="18" max="18" width="36.84375" style="26" customWidth="1"/>
-    <col min="19" max="16384" width="8.84375" style="26"/>
+    <col min="16" max="16" width="26.5" style="637" customWidth="1"/>
+    <col min="17" max="17" width="26.5" style="422" customWidth="1"/>
+    <col min="18" max="18" width="36.83203125" style="26" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30">
+    <row r="1" spans="1:17" ht="32">
       <c r="A1" s="250" t="s">
         <v>804</v>
       </c>
@@ -24361,7 +24370,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="124">
+    <row r="2" spans="1:17" ht="170">
       <c r="A2" s="687" t="s">
         <v>820</v>
       </c>
@@ -24410,7 +24419,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="28">
+    <row r="3" spans="1:17" ht="30">
       <c r="A3" s="687"/>
       <c r="B3" s="687"/>
       <c r="C3" s="687"/>
@@ -24447,7 +24456,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.5">
+    <row r="4" spans="1:17" ht="18">
       <c r="A4" s="687"/>
       <c r="B4" s="687"/>
       <c r="C4" s="687"/>
@@ -24577,7 +24586,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.5">
+    <row r="8" spans="1:17" ht="18">
       <c r="A8" s="687"/>
       <c r="B8" s="687"/>
       <c r="C8" s="687"/>
@@ -24723,7 +24732,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="62">
+    <row r="12" spans="1:17" ht="72">
       <c r="A12" s="687"/>
       <c r="B12" s="687"/>
       <c r="C12" s="687"/>
@@ -24748,7 +24757,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="77.5">
+    <row r="13" spans="1:17" ht="90">
       <c r="A13" s="687"/>
       <c r="B13" s="687"/>
       <c r="C13" s="687"/>
@@ -24773,7 +24782,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="93">
+    <row r="14" spans="1:17" ht="108">
       <c r="A14" s="687"/>
       <c r="B14" s="687"/>
       <c r="C14" s="687"/>
@@ -24823,7 +24832,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.5">
+    <row r="16" spans="1:17" ht="18">
       <c r="A16" s="687"/>
       <c r="B16" s="687"/>
       <c r="C16" s="687"/>
@@ -24848,7 +24857,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.5">
+    <row r="17" spans="1:17" ht="18">
       <c r="A17" s="687"/>
       <c r="B17" s="687"/>
       <c r="C17" s="687"/>
@@ -24873,106 +24882,106 @@
         <v>893</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.5">
+    <row r="18" spans="1:17" ht="17">
       <c r="L18" s="599"/>
     </row>
-    <row r="19" spans="1:17" ht="15.5">
+    <row r="19" spans="1:17" ht="17">
       <c r="L19" s="599"/>
     </row>
-    <row r="20" spans="1:17" ht="15.5">
+    <row r="20" spans="1:17" ht="17">
       <c r="L20" s="599"/>
     </row>
-    <row r="21" spans="1:17" ht="15.5">
+    <row r="21" spans="1:17" ht="17">
       <c r="L21" s="599"/>
     </row>
-    <row r="22" spans="1:17" ht="15.5">
+    <row r="22" spans="1:17" ht="17">
       <c r="L22" s="599"/>
     </row>
-    <row r="23" spans="1:17" ht="15.5">
+    <row r="23" spans="1:17" ht="17">
       <c r="L23" s="599"/>
     </row>
-    <row r="24" spans="1:17" ht="15.5">
+    <row r="24" spans="1:17" ht="17">
       <c r="L24" s="599"/>
     </row>
-    <row r="25" spans="1:17" ht="15.5">
+    <row r="25" spans="1:17" ht="17">
       <c r="L25" s="599"/>
     </row>
-    <row r="26" spans="1:17" ht="15.5">
+    <row r="26" spans="1:17" ht="17">
       <c r="L26" s="599"/>
     </row>
-    <row r="27" spans="1:17" ht="15.5">
+    <row r="27" spans="1:17" ht="17">
       <c r="L27" s="599"/>
     </row>
-    <row r="28" spans="1:17" ht="15.5">
+    <row r="28" spans="1:17" ht="17">
       <c r="L28" s="599"/>
     </row>
-    <row r="29" spans="1:17" ht="15.5">
+    <row r="29" spans="1:17" ht="17">
       <c r="L29" s="599"/>
     </row>
-    <row r="30" spans="1:17" ht="15.5">
+    <row r="30" spans="1:17" ht="17">
       <c r="L30" s="599"/>
     </row>
-    <row r="31" spans="1:17" ht="15.5">
+    <row r="31" spans="1:17" ht="17">
       <c r="L31" s="599"/>
     </row>
-    <row r="32" spans="1:17" ht="15.5">
+    <row r="32" spans="1:17" ht="17">
       <c r="L32" s="599"/>
     </row>
-    <row r="33" spans="12:12" ht="15.5">
+    <row r="33" spans="12:12" ht="17">
       <c r="L33" s="599"/>
     </row>
-    <row r="34" spans="12:12" ht="15.5">
+    <row r="34" spans="12:12" ht="17">
       <c r="L34" s="599"/>
     </row>
-    <row r="35" spans="12:12" ht="15.5">
+    <row r="35" spans="12:12" ht="17">
       <c r="L35" s="599"/>
     </row>
-    <row r="36" spans="12:12" ht="15.5">
+    <row r="36" spans="12:12" ht="17">
       <c r="L36" s="599"/>
     </row>
-    <row r="37" spans="12:12" ht="15.5">
+    <row r="37" spans="12:12" ht="17">
       <c r="L37" s="599"/>
     </row>
-    <row r="38" spans="12:12" ht="15.5">
+    <row r="38" spans="12:12" ht="17">
       <c r="L38" s="599"/>
     </row>
-    <row r="39" spans="12:12" ht="15.5">
+    <row r="39" spans="12:12" ht="17">
       <c r="L39" s="599"/>
     </row>
-    <row r="40" spans="12:12" ht="15.5">
+    <row r="40" spans="12:12" ht="17">
       <c r="L40" s="599"/>
     </row>
-    <row r="41" spans="12:12" ht="15.5">
+    <row r="41" spans="12:12" ht="17">
       <c r="L41" s="599"/>
     </row>
-    <row r="42" spans="12:12" ht="15.5">
+    <row r="42" spans="12:12" ht="17">
       <c r="L42" s="599"/>
     </row>
-    <row r="43" spans="12:12" ht="15.5">
+    <row r="43" spans="12:12" ht="17">
       <c r="L43" s="599"/>
     </row>
-    <row r="44" spans="12:12" ht="15.5">
+    <row r="44" spans="12:12" ht="17">
       <c r="L44" s="599"/>
     </row>
-    <row r="45" spans="12:12" ht="15.5">
+    <row r="45" spans="12:12" ht="17">
       <c r="L45" s="599"/>
     </row>
-    <row r="46" spans="12:12" ht="15.5">
+    <row r="46" spans="12:12" ht="17">
       <c r="L46" s="599"/>
     </row>
-    <row r="47" spans="12:12" ht="15.5">
+    <row r="47" spans="12:12" ht="17">
       <c r="L47" s="599"/>
     </row>
-    <row r="48" spans="12:12" ht="15.5">
+    <row r="48" spans="12:12" ht="17">
       <c r="L48" s="599"/>
     </row>
-    <row r="49" spans="12:12" ht="15.5">
+    <row r="49" spans="12:12" ht="17">
       <c r="L49" s="599"/>
     </row>
-    <row r="50" spans="12:12" ht="15.5">
+    <row r="50" spans="12:12" ht="17">
       <c r="L50" s="599"/>
     </row>
-    <row r="51" spans="12:12" ht="15.5">
+    <row r="51" spans="12:12" ht="17">
       <c r="L51" s="599"/>
     </row>
   </sheetData>
@@ -24993,35 +25002,35 @@
   </sheetPr>
   <dimension ref="A1:R185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F55" sqref="F55"/>
+      <selection pane="topRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="26" customWidth="1"/>
-    <col min="2" max="2" width="16.84375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="26" customWidth="1"/>
     <col min="3" max="3" width="17" style="408" customWidth="1"/>
-    <col min="4" max="4" width="46.4609375" style="48" customWidth="1"/>
-    <col min="5" max="5" width="26.4609375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="46.5" style="48" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="26" customWidth="1"/>
     <col min="6" max="6" width="28" style="26" customWidth="1"/>
     <col min="7" max="7" width="24" style="26" customWidth="1"/>
     <col min="8" max="8" width="36" style="427" customWidth="1"/>
-    <col min="9" max="9" width="23.4609375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="25.69140625" style="26" customWidth="1"/>
-    <col min="11" max="11" width="38.3046875" style="422" customWidth="1"/>
-    <col min="12" max="12" width="14.4609375" style="258" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="26" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="38.33203125" style="422" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="258" customWidth="1"/>
     <col min="13" max="13" width="31" style="26" customWidth="1"/>
-    <col min="14" max="14" width="29.84375" style="26" customWidth="1"/>
-    <col min="15" max="15" width="26.3046875" style="26" customWidth="1"/>
-    <col min="16" max="16" width="29.4609375" style="26" customWidth="1"/>
-    <col min="17" max="17" width="30.69140625" style="408" customWidth="1"/>
-    <col min="18" max="18" width="36.84375" style="26" customWidth="1"/>
-    <col min="19" max="16384" width="8.84375" style="26"/>
+    <col min="14" max="14" width="29.83203125" style="26" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" style="26" customWidth="1"/>
+    <col min="16" max="16" width="29.5" style="26" customWidth="1"/>
+    <col min="17" max="17" width="30.6640625" style="408" customWidth="1"/>
+    <col min="18" max="18" width="36.83203125" style="26" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30">
+    <row r="1" spans="1:17" ht="32">
       <c r="A1" s="250" t="s">
         <v>804</v>
       </c>
@@ -25074,7 +25083,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.5">
+    <row r="2" spans="1:17" ht="30">
       <c r="A2" s="703" t="s">
         <v>895</v>
       </c>
@@ -25118,7 +25127,7 @@
       <c r="P2" s="234"/>
       <c r="Q2" s="404"/>
     </row>
-    <row r="3" spans="1:17" ht="15.5">
+    <row r="3" spans="1:17" ht="30">
       <c r="A3" s="704"/>
       <c r="B3" s="704"/>
       <c r="C3" s="707"/>
@@ -25202,7 +25211,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.5">
+    <row r="5" spans="1:17" ht="17">
       <c r="A5" s="704"/>
       <c r="B5" s="704"/>
       <c r="C5" s="707"/>
@@ -25227,7 +25236,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.5">
+    <row r="6" spans="1:17" ht="17">
       <c r="A6" s="704"/>
       <c r="B6" s="704"/>
       <c r="C6" s="707"/>
@@ -25442,7 +25451,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.5">
+    <row r="13" spans="1:17" ht="17">
       <c r="A13" s="704"/>
       <c r="B13" s="704"/>
       <c r="C13" s="707"/>
@@ -25709,7 +25718,7 @@
       <c r="P19" s="234"/>
       <c r="Q19" s="404"/>
     </row>
-    <row r="20" spans="1:17" ht="84">
+    <row r="20" spans="1:17" ht="90">
       <c r="A20" s="688" t="s">
         <v>996</v>
       </c>
@@ -25760,7 +25769,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.5">
+    <row r="21" spans="1:17" ht="17">
       <c r="A21" s="689"/>
       <c r="B21" s="692"/>
       <c r="C21" s="695"/>
@@ -25785,7 +25794,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="16">
+    <row r="22" spans="1:17" ht="17">
       <c r="A22" s="689"/>
       <c r="B22" s="692"/>
       <c r="C22" s="695"/>
@@ -25810,7 +25819,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="31">
+    <row r="23" spans="1:17" ht="36">
       <c r="A23" s="689"/>
       <c r="B23" s="692"/>
       <c r="C23" s="695"/>
@@ -25835,7 +25844,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="31.5">
+    <row r="24" spans="1:17" ht="32">
       <c r="A24" s="689"/>
       <c r="B24" s="692"/>
       <c r="C24" s="695"/>
@@ -25860,7 +25869,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16">
+    <row r="25" spans="1:17" ht="17">
       <c r="A25" s="689"/>
       <c r="B25" s="692"/>
       <c r="C25" s="695"/>
@@ -25885,7 +25894,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16">
+    <row r="26" spans="1:17" ht="17">
       <c r="A26" s="689"/>
       <c r="B26" s="692"/>
       <c r="C26" s="695"/>
@@ -25910,7 +25919,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="16">
+    <row r="27" spans="1:17" ht="17">
       <c r="A27" s="689"/>
       <c r="B27" s="692"/>
       <c r="C27" s="695"/>
@@ -25935,7 +25944,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="70">
+    <row r="28" spans="1:17" ht="90">
       <c r="A28" s="689"/>
       <c r="B28" s="692"/>
       <c r="C28" s="695"/>
@@ -25980,7 +25989,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="16">
+    <row r="29" spans="1:17" ht="17">
       <c r="A29" s="689"/>
       <c r="B29" s="692"/>
       <c r="C29" s="695"/>
@@ -26005,7 +26014,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16">
+    <row r="30" spans="1:17" ht="17">
       <c r="A30" s="689"/>
       <c r="B30" s="692"/>
       <c r="C30" s="695"/>
@@ -26030,7 +26039,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16">
+    <row r="31" spans="1:17" ht="17">
       <c r="A31" s="689"/>
       <c r="B31" s="692"/>
       <c r="C31" s="695"/>
@@ -26055,7 +26064,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="16">
+    <row r="32" spans="1:17" ht="17">
       <c r="A32" s="689"/>
       <c r="B32" s="692"/>
       <c r="C32" s="695"/>
@@ -26080,7 +26089,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="16">
+    <row r="33" spans="1:18" ht="17">
       <c r="A33" s="689"/>
       <c r="B33" s="692"/>
       <c r="C33" s="695"/>
@@ -26105,7 +26114,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="16">
+    <row r="34" spans="1:18" ht="17">
       <c r="A34" s="689"/>
       <c r="B34" s="692"/>
       <c r="C34" s="695"/>
@@ -26130,7 +26139,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="16">
+    <row r="35" spans="1:18" ht="17">
       <c r="A35" s="689"/>
       <c r="B35" s="692"/>
       <c r="C35" s="695"/>
@@ -26155,7 +26164,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="16">
+    <row r="36" spans="1:18" ht="17">
       <c r="A36" s="689"/>
       <c r="B36" s="692"/>
       <c r="C36" s="695"/>
@@ -26181,7 +26190,7 @@
       </c>
       <c r="R36" s="663"/>
     </row>
-    <row r="37" spans="1:18" ht="62">
+    <row r="37" spans="1:18" ht="90">
       <c r="A37" s="690"/>
       <c r="B37" s="693"/>
       <c r="C37" s="696"/>
@@ -26249,7 +26258,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="28">
+    <row r="39" spans="1:18" ht="30">
       <c r="A39" s="367"/>
       <c r="B39" s="366"/>
       <c r="C39" s="429"/>
@@ -26273,7 +26282,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="28">
+    <row r="40" spans="1:18" ht="30">
       <c r="A40" s="367"/>
       <c r="B40" s="366"/>
       <c r="C40" s="429"/>
@@ -26297,7 +26306,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15.5">
+    <row r="41" spans="1:18" ht="17">
       <c r="A41" s="367"/>
       <c r="B41" s="366"/>
       <c r="C41" s="429"/>
@@ -26321,7 +26330,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15.5">
+    <row r="42" spans="1:18" ht="17">
       <c r="A42" s="367"/>
       <c r="B42" s="366"/>
       <c r="C42" s="429"/>
@@ -26345,7 +26354,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15.5">
+    <row r="43" spans="1:18" ht="17">
       <c r="A43" s="367"/>
       <c r="B43" s="366"/>
       <c r="C43" s="429"/>
@@ -26370,7 +26379,7 @@
       </c>
       <c r="R43" s="663"/>
     </row>
-    <row r="44" spans="1:18" ht="42">
+    <row r="44" spans="1:18" ht="45">
       <c r="A44" s="688" t="s">
         <v>1088</v>
       </c>
@@ -26421,7 +26430,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="16">
+    <row r="45" spans="1:18" ht="17">
       <c r="A45" s="689"/>
       <c r="B45" s="692"/>
       <c r="C45" s="695"/>
@@ -26446,7 +26455,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="28">
+    <row r="46" spans="1:18" ht="34">
       <c r="A46" s="689"/>
       <c r="B46" s="692"/>
       <c r="C46" s="695"/>
@@ -26471,7 +26480,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="16">
+    <row r="47" spans="1:18" ht="17">
       <c r="A47" s="689"/>
       <c r="B47" s="692"/>
       <c r="C47" s="695"/>
@@ -26496,7 +26505,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="32">
+    <row r="48" spans="1:18" ht="34">
       <c r="A48" s="689"/>
       <c r="B48" s="692"/>
       <c r="C48" s="695"/>
@@ -26521,7 +26530,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="16">
+    <row r="49" spans="1:17" ht="17">
       <c r="A49" s="689"/>
       <c r="B49" s="692"/>
       <c r="C49" s="695"/>
@@ -26546,7 +26555,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="32">
+    <row r="50" spans="1:17" ht="34">
       <c r="A50" s="689"/>
       <c r="B50" s="692"/>
       <c r="C50" s="695"/>
@@ -26571,7 +26580,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="16">
+    <row r="51" spans="1:17" ht="17">
       <c r="A51" s="689"/>
       <c r="B51" s="692"/>
       <c r="C51" s="695"/>
@@ -26596,7 +26605,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="16">
+    <row r="52" spans="1:17" ht="17">
       <c r="A52" s="689"/>
       <c r="B52" s="692"/>
       <c r="C52" s="695"/>
@@ -26646,7 +26655,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="16">
+    <row r="54" spans="1:17" ht="17">
       <c r="A54" s="689"/>
       <c r="B54" s="692"/>
       <c r="C54" s="695"/>
@@ -26671,7 +26680,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="56">
+    <row r="55" spans="1:17" ht="75">
       <c r="A55" s="689"/>
       <c r="B55" s="692"/>
       <c r="C55" s="695"/>
@@ -26714,7 +26723,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="16">
+    <row r="56" spans="1:17" ht="17">
       <c r="A56" s="689"/>
       <c r="B56" s="692"/>
       <c r="C56" s="695"/>
@@ -26739,7 +26748,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="16">
+    <row r="57" spans="1:17" ht="17">
       <c r="A57" s="689"/>
       <c r="B57" s="692"/>
       <c r="C57" s="695"/>
@@ -26764,7 +26773,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="16">
+    <row r="58" spans="1:17" ht="17">
       <c r="A58" s="689"/>
       <c r="B58" s="692"/>
       <c r="C58" s="695"/>
@@ -26789,7 +26798,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="16">
+    <row r="59" spans="1:17" ht="17">
       <c r="A59" s="689"/>
       <c r="B59" s="692"/>
       <c r="C59" s="695"/>
@@ -26814,7 +26823,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="16">
+    <row r="60" spans="1:17" ht="17">
       <c r="A60" s="689"/>
       <c r="B60" s="692"/>
       <c r="C60" s="695"/>
@@ -26839,7 +26848,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="16">
+    <row r="61" spans="1:17" ht="17">
       <c r="A61" s="689"/>
       <c r="B61" s="692"/>
       <c r="C61" s="695"/>
@@ -26864,7 +26873,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="16">
+    <row r="62" spans="1:17" ht="17">
       <c r="A62" s="689"/>
       <c r="B62" s="692"/>
       <c r="C62" s="695"/>
@@ -26889,7 +26898,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="16">
+    <row r="63" spans="1:17" ht="17">
       <c r="A63" s="689"/>
       <c r="B63" s="692"/>
       <c r="C63" s="695"/>
@@ -26914,7 +26923,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="16">
+    <row r="64" spans="1:17" ht="17">
       <c r="A64" s="689"/>
       <c r="B64" s="692"/>
       <c r="C64" s="695"/>
@@ -26939,7 +26948,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="16">
+    <row r="65" spans="1:17" ht="17">
       <c r="A65" s="689"/>
       <c r="B65" s="692"/>
       <c r="C65" s="695"/>
@@ -26964,7 +26973,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="16">
+    <row r="66" spans="1:17" ht="17">
       <c r="A66" s="689"/>
       <c r="B66" s="692"/>
       <c r="C66" s="695"/>
@@ -26989,7 +26998,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="16">
+    <row r="67" spans="1:17" ht="17">
       <c r="A67" s="689"/>
       <c r="B67" s="692"/>
       <c r="C67" s="695"/>
@@ -27014,7 +27023,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="16">
+    <row r="68" spans="1:17" ht="17">
       <c r="A68" s="689"/>
       <c r="B68" s="692"/>
       <c r="C68" s="695"/>
@@ -27039,7 +27048,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="16">
+    <row r="69" spans="1:17" ht="17">
       <c r="A69" s="689"/>
       <c r="B69" s="692"/>
       <c r="C69" s="695"/>
@@ -27064,7 +27073,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="16">
+    <row r="70" spans="1:17" ht="17">
       <c r="A70" s="689"/>
       <c r="B70" s="692"/>
       <c r="C70" s="695"/>
@@ -27089,7 +27098,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="16">
+    <row r="71" spans="1:17" ht="17">
       <c r="A71" s="689"/>
       <c r="B71" s="692"/>
       <c r="C71" s="695"/>
@@ -27114,7 +27123,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="16">
+    <row r="72" spans="1:17" ht="17">
       <c r="A72" s="689"/>
       <c r="B72" s="692"/>
       <c r="C72" s="695"/>
@@ -27139,7 +27148,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="16">
+    <row r="73" spans="1:17" ht="17">
       <c r="A73" s="690"/>
       <c r="B73" s="693"/>
       <c r="C73" s="696"/>
@@ -27164,7 +27173,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="42">
+    <row r="74" spans="1:17" ht="54">
       <c r="A74" s="688" t="s">
         <v>1190</v>
       </c>
@@ -27215,7 +27224,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15.5">
+    <row r="75" spans="1:17" ht="17">
       <c r="A75" s="689"/>
       <c r="B75" s="692"/>
       <c r="C75" s="695"/>
@@ -27240,7 +27249,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="56">
+    <row r="76" spans="1:17" ht="60">
       <c r="A76" s="689"/>
       <c r="B76" s="692"/>
       <c r="C76" s="695"/>
@@ -27285,7 +27294,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="16">
+    <row r="77" spans="1:17" ht="17">
       <c r="A77" s="689"/>
       <c r="B77" s="692"/>
       <c r="C77" s="695"/>
@@ -27310,7 +27319,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="16">
+    <row r="78" spans="1:17" ht="17">
       <c r="A78" s="689"/>
       <c r="B78" s="692"/>
       <c r="C78" s="695"/>
@@ -27335,7 +27344,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="28">
+    <row r="79" spans="1:17" ht="34">
       <c r="A79" s="689"/>
       <c r="B79" s="692"/>
       <c r="C79" s="695"/>
@@ -27360,7 +27369,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="32">
+    <row r="80" spans="1:17" ht="34">
       <c r="A80" s="689"/>
       <c r="B80" s="692"/>
       <c r="C80" s="695"/>
@@ -27385,7 +27394,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="28">
+    <row r="81" spans="1:17" ht="34">
       <c r="A81" s="689"/>
       <c r="B81" s="692"/>
       <c r="C81" s="695"/>
@@ -27410,7 +27419,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="16">
+    <row r="82" spans="1:17" ht="17">
       <c r="A82" s="689"/>
       <c r="B82" s="692"/>
       <c r="C82" s="695"/>
@@ -27435,7 +27444,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="16">
+    <row r="83" spans="1:17" ht="17">
       <c r="A83" s="689"/>
       <c r="B83" s="692"/>
       <c r="C83" s="695"/>
@@ -27460,7 +27469,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="16">
+    <row r="84" spans="1:17" ht="17">
       <c r="A84" s="689"/>
       <c r="B84" s="692"/>
       <c r="C84" s="695"/>
@@ -27485,7 +27494,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="16">
+    <row r="85" spans="1:17" ht="17">
       <c r="A85" s="689"/>
       <c r="B85" s="692"/>
       <c r="C85" s="695"/>
@@ -27510,7 +27519,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="16">
+    <row r="86" spans="1:17" ht="17">
       <c r="A86" s="689"/>
       <c r="B86" s="692"/>
       <c r="C86" s="695"/>
@@ -27535,7 +27544,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="16">
+    <row r="87" spans="1:17" ht="34">
       <c r="A87" s="690"/>
       <c r="B87" s="693"/>
       <c r="C87" s="696"/>
@@ -27560,7 +27569,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="108">
+    <row r="88" spans="1:17" ht="119">
       <c r="A88" s="688" t="s">
         <v>1241</v>
       </c>
@@ -27613,7 +27622,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="31">
+    <row r="89" spans="1:17" ht="54">
       <c r="A89" s="689"/>
       <c r="B89" s="692"/>
       <c r="C89" s="695"/>
@@ -27638,7 +27647,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="31">
+    <row r="90" spans="1:17" ht="36">
       <c r="A90" s="689"/>
       <c r="B90" s="692"/>
       <c r="C90" s="695"/>
@@ -27663,7 +27672,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="31">
+    <row r="91" spans="1:17" ht="54">
       <c r="A91" s="689"/>
       <c r="B91" s="692"/>
       <c r="C91" s="695"/>
@@ -27688,7 +27697,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="31">
+    <row r="92" spans="1:17" ht="36">
       <c r="A92" s="689"/>
       <c r="B92" s="692"/>
       <c r="C92" s="695"/>
@@ -27713,7 +27722,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="46.5">
+    <row r="93" spans="1:17" ht="54">
       <c r="A93" s="689"/>
       <c r="B93" s="692"/>
       <c r="C93" s="695"/>
@@ -27763,7 +27772,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="108">
+    <row r="95" spans="1:17" ht="119">
       <c r="A95" s="689"/>
       <c r="B95" s="692"/>
       <c r="C95" s="695"/>
@@ -27849,7 +27858,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="90">
+    <row r="98" spans="1:17" ht="85">
       <c r="A98" s="689"/>
       <c r="B98" s="692"/>
       <c r="C98" s="695"/>
@@ -27919,7 +27928,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="144">
+    <row r="100" spans="1:17" ht="136">
       <c r="A100" s="689"/>
       <c r="B100" s="692"/>
       <c r="C100" s="695"/>
@@ -27989,7 +27998,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="15.5">
+    <row r="102" spans="1:17" ht="17">
       <c r="A102" s="689"/>
       <c r="B102" s="692"/>
       <c r="C102" s="695"/>
@@ -28039,7 +28048,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="15.5">
+    <row r="104" spans="1:17" ht="17">
       <c r="A104" s="689"/>
       <c r="B104" s="692"/>
       <c r="C104" s="695"/>
@@ -28064,7 +28073,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="15.5">
+    <row r="105" spans="1:17" ht="17">
       <c r="A105" s="689"/>
       <c r="B105" s="692"/>
       <c r="C105" s="695"/>
@@ -28089,7 +28098,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="28">
+    <row r="106" spans="1:17" ht="51">
       <c r="A106" s="689"/>
       <c r="B106" s="692"/>
       <c r="C106" s="695"/>
@@ -28114,7 +28123,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="28">
+    <row r="107" spans="1:17" ht="51">
       <c r="A107" s="689"/>
       <c r="B107" s="692"/>
       <c r="C107" s="695"/>
@@ -28139,7 +28148,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="28">
+    <row r="108" spans="1:17" ht="34">
       <c r="A108" s="689"/>
       <c r="B108" s="692"/>
       <c r="C108" s="695"/>
@@ -28164,7 +28173,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="15.5">
+    <row r="109" spans="1:17" ht="17">
       <c r="A109" s="689"/>
       <c r="B109" s="692"/>
       <c r="C109" s="695"/>
@@ -28189,7 +28198,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="15.5">
+    <row r="110" spans="1:17" ht="17">
       <c r="A110" s="689"/>
       <c r="B110" s="692"/>
       <c r="C110" s="695"/>
@@ -28214,7 +28223,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="31">
+    <row r="111" spans="1:17" ht="36">
       <c r="A111" s="689"/>
       <c r="B111" s="692"/>
       <c r="C111" s="695"/>
@@ -28251,7 +28260,7 @@
       <c r="P111" s="92"/>
       <c r="Q111" s="407"/>
     </row>
-    <row r="112" spans="1:17" ht="46.5">
+    <row r="112" spans="1:17" ht="54">
       <c r="A112" s="689"/>
       <c r="B112" s="692"/>
       <c r="C112" s="695"/>
@@ -28296,7 +28305,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="15.5">
+    <row r="113" spans="1:18" ht="18">
       <c r="A113" s="689"/>
       <c r="B113" s="692"/>
       <c r="C113" s="695"/>
@@ -28321,7 +28330,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="15.5">
+    <row r="114" spans="1:18" ht="18">
       <c r="A114" s="689"/>
       <c r="B114" s="692"/>
       <c r="C114" s="695"/>
@@ -28346,7 +28355,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="15.5">
+    <row r="115" spans="1:18" ht="18">
       <c r="A115" s="689"/>
       <c r="B115" s="692"/>
       <c r="C115" s="695"/>
@@ -28371,7 +28380,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="15.5">
+    <row r="116" spans="1:18" ht="18">
       <c r="A116" s="689"/>
       <c r="B116" s="692"/>
       <c r="C116" s="695"/>
@@ -28396,7 +28405,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="15.5">
+    <row r="117" spans="1:18" ht="18">
       <c r="A117" s="689"/>
       <c r="B117" s="692"/>
       <c r="C117" s="695"/>
@@ -28421,7 +28430,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="15.5">
+    <row r="118" spans="1:18" ht="18">
       <c r="A118" s="689"/>
       <c r="B118" s="692"/>
       <c r="C118" s="695"/>
@@ -28446,7 +28455,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="56">
+    <row r="119" spans="1:18" ht="75">
       <c r="A119" s="689"/>
       <c r="B119" s="692"/>
       <c r="C119" s="695"/>
@@ -28483,7 +28492,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="15.5">
+    <row r="120" spans="1:18" ht="17">
       <c r="A120" s="689"/>
       <c r="B120" s="692"/>
       <c r="C120" s="695"/>
@@ -28508,7 +28517,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="62">
+    <row r="121" spans="1:18" ht="90">
       <c r="A121" s="689"/>
       <c r="B121" s="692"/>
       <c r="C121" s="695"/>
@@ -28553,7 +28562,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="15.5">
+    <row r="122" spans="1:18" ht="17">
       <c r="A122" s="689"/>
       <c r="B122" s="692"/>
       <c r="C122" s="695"/>
@@ -28578,7 +28587,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="56">
+    <row r="123" spans="1:18" ht="75">
       <c r="A123" s="689"/>
       <c r="B123" s="692"/>
       <c r="C123" s="695"/>
@@ -28615,7 +28624,7 @@
       <c r="P123" s="5"/>
       <c r="Q123" s="406"/>
     </row>
-    <row r="124" spans="1:18" ht="77.5">
+    <row r="124" spans="1:18" ht="108">
       <c r="A124" s="689"/>
       <c r="B124" s="692"/>
       <c r="C124" s="695"/>
@@ -28658,7 +28667,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="15.5">
+    <row r="125" spans="1:18" ht="17">
       <c r="A125" s="689"/>
       <c r="B125" s="692"/>
       <c r="C125" s="695"/>
@@ -28683,7 +28692,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="62">
+    <row r="126" spans="1:18" ht="72">
       <c r="A126" s="690"/>
       <c r="B126" s="693"/>
       <c r="C126" s="696"/>
@@ -28714,7 +28723,7 @@
       <c r="P126" s="5"/>
       <c r="Q126" s="406"/>
     </row>
-    <row r="127" spans="1:18" ht="42">
+    <row r="127" spans="1:18" ht="51">
       <c r="A127" s="122" t="s">
         <v>1388</v>
       </c>
@@ -28786,7 +28795,7 @@
       <c r="Q128" s="445"/>
       <c r="R128" s="358"/>
     </row>
-    <row r="129" spans="1:18" customFormat="1" ht="16">
+    <row r="129" spans="1:18" customFormat="1" ht="18">
       <c r="A129" s="698"/>
       <c r="B129" s="698"/>
       <c r="C129" s="701"/>
@@ -28818,7 +28827,7 @@
       <c r="Q129" s="411"/>
       <c r="R129" s="3"/>
     </row>
-    <row r="130" spans="1:18" customFormat="1" ht="16">
+    <row r="130" spans="1:18" customFormat="1" ht="18">
       <c r="A130" s="698"/>
       <c r="B130" s="698"/>
       <c r="C130" s="701"/>
@@ -28850,7 +28859,7 @@
       <c r="Q130" s="411"/>
       <c r="R130" s="3"/>
     </row>
-    <row r="131" spans="1:18" customFormat="1" ht="16">
+    <row r="131" spans="1:18" customFormat="1" ht="18">
       <c r="A131" s="698"/>
       <c r="B131" s="698"/>
       <c r="C131" s="701"/>
@@ -28888,7 +28897,7 @@
       </c>
       <c r="R131" s="26"/>
     </row>
-    <row r="132" spans="1:18" customFormat="1" ht="16">
+    <row r="132" spans="1:18" customFormat="1" ht="18">
       <c r="A132" s="698"/>
       <c r="B132" s="698"/>
       <c r="C132" s="701"/>
@@ -28914,7 +28923,7 @@
       </c>
       <c r="R132" s="26"/>
     </row>
-    <row r="133" spans="1:18" customFormat="1" ht="16">
+    <row r="133" spans="1:18" customFormat="1" ht="18">
       <c r="A133" s="698"/>
       <c r="B133" s="698"/>
       <c r="C133" s="701"/>
@@ -28940,7 +28949,7 @@
       </c>
       <c r="R133" s="26"/>
     </row>
-    <row r="134" spans="1:18" customFormat="1" ht="16">
+    <row r="134" spans="1:18" customFormat="1" ht="18">
       <c r="A134" s="698"/>
       <c r="B134" s="698"/>
       <c r="C134" s="701"/>
@@ -28966,7 +28975,7 @@
       </c>
       <c r="R134" s="26"/>
     </row>
-    <row r="135" spans="1:18" customFormat="1" ht="16">
+    <row r="135" spans="1:18" customFormat="1" ht="18">
       <c r="A135" s="698"/>
       <c r="B135" s="698"/>
       <c r="C135" s="701"/>
@@ -28992,7 +29001,7 @@
       </c>
       <c r="R135" s="26"/>
     </row>
-    <row r="136" spans="1:18" customFormat="1" ht="16">
+    <row r="136" spans="1:18" customFormat="1" ht="18">
       <c r="A136" s="698"/>
       <c r="B136" s="698"/>
       <c r="C136" s="701"/>
@@ -29018,7 +29027,7 @@
       </c>
       <c r="R136" s="26"/>
     </row>
-    <row r="137" spans="1:18" customFormat="1" ht="16">
+    <row r="137" spans="1:18" customFormat="1" ht="18">
       <c r="A137" s="698"/>
       <c r="B137" s="698"/>
       <c r="C137" s="701"/>
@@ -29044,7 +29053,7 @@
       </c>
       <c r="R137" s="26"/>
     </row>
-    <row r="138" spans="1:18" customFormat="1" ht="16">
+    <row r="138" spans="1:18" customFormat="1" ht="18">
       <c r="A138" s="698"/>
       <c r="B138" s="698"/>
       <c r="C138" s="701"/>
@@ -29070,7 +29079,7 @@
       </c>
       <c r="R138" s="26"/>
     </row>
-    <row r="139" spans="1:18" customFormat="1" ht="16">
+    <row r="139" spans="1:18" customFormat="1" ht="18">
       <c r="A139" s="698"/>
       <c r="B139" s="698"/>
       <c r="C139" s="701"/>
@@ -29096,7 +29105,7 @@
       </c>
       <c r="R139" s="26"/>
     </row>
-    <row r="140" spans="1:18" customFormat="1" ht="16">
+    <row r="140" spans="1:18" customFormat="1" ht="18">
       <c r="A140" s="698"/>
       <c r="B140" s="698"/>
       <c r="C140" s="701"/>
@@ -29122,7 +29131,7 @@
       </c>
       <c r="R140" s="26"/>
     </row>
-    <row r="141" spans="1:18" customFormat="1" ht="16">
+    <row r="141" spans="1:18" customFormat="1" ht="18">
       <c r="A141" s="698"/>
       <c r="B141" s="698"/>
       <c r="C141" s="701"/>
@@ -29148,7 +29157,7 @@
       </c>
       <c r="R141" s="26"/>
     </row>
-    <row r="142" spans="1:18" customFormat="1" ht="16">
+    <row r="142" spans="1:18" customFormat="1" ht="18">
       <c r="A142" s="698"/>
       <c r="B142" s="698"/>
       <c r="C142" s="701"/>
@@ -29174,7 +29183,7 @@
       </c>
       <c r="R142" s="26"/>
     </row>
-    <row r="143" spans="1:18" customFormat="1" ht="16">
+    <row r="143" spans="1:18" customFormat="1" ht="18">
       <c r="A143" s="698"/>
       <c r="B143" s="698"/>
       <c r="C143" s="701"/>
@@ -29200,7 +29209,7 @@
       </c>
       <c r="R143" s="26"/>
     </row>
-    <row r="144" spans="1:18" customFormat="1" ht="16">
+    <row r="144" spans="1:18" customFormat="1" ht="18">
       <c r="A144" s="698"/>
       <c r="B144" s="698"/>
       <c r="C144" s="701"/>
@@ -29226,7 +29235,7 @@
       </c>
       <c r="R144" s="26"/>
     </row>
-    <row r="145" spans="1:18" customFormat="1" ht="16">
+    <row r="145" spans="1:18" customFormat="1" ht="18">
       <c r="A145" s="698"/>
       <c r="B145" s="698"/>
       <c r="C145" s="701"/>
@@ -29252,7 +29261,7 @@
       </c>
       <c r="R145" s="26"/>
     </row>
-    <row r="146" spans="1:18" customFormat="1" ht="16">
+    <row r="146" spans="1:18" customFormat="1" ht="18">
       <c r="A146" s="698"/>
       <c r="B146" s="698"/>
       <c r="C146" s="701"/>
@@ -29284,7 +29293,7 @@
       <c r="Q146" s="411"/>
       <c r="R146" s="26"/>
     </row>
-    <row r="147" spans="1:18" s="361" customFormat="1" ht="47">
+    <row r="147" spans="1:18" s="361" customFormat="1" ht="54">
       <c r="A147" s="698"/>
       <c r="B147" s="698"/>
       <c r="C147" s="701"/>
@@ -29314,7 +29323,7 @@
       <c r="P147" s="16"/>
       <c r="Q147" s="447"/>
     </row>
-    <row r="148" spans="1:18" customFormat="1" ht="16">
+    <row r="148" spans="1:18" customFormat="1" ht="18">
       <c r="A148" s="698"/>
       <c r="B148" s="698"/>
       <c r="C148" s="701"/>
@@ -29346,7 +29355,7 @@
       <c r="Q148" s="411"/>
       <c r="R148" s="26"/>
     </row>
-    <row r="149" spans="1:18" customFormat="1" ht="16">
+    <row r="149" spans="1:18" customFormat="1" ht="18">
       <c r="A149" s="698"/>
       <c r="B149" s="698"/>
       <c r="C149" s="701"/>
@@ -29384,7 +29393,7 @@
       </c>
       <c r="R149" s="26"/>
     </row>
-    <row r="150" spans="1:18" customFormat="1" ht="16">
+    <row r="150" spans="1:18" customFormat="1" ht="17">
       <c r="A150" s="698"/>
       <c r="B150" s="698"/>
       <c r="C150" s="701"/>
@@ -29410,7 +29419,7 @@
       </c>
       <c r="R150" s="26"/>
     </row>
-    <row r="151" spans="1:18" customFormat="1" ht="16">
+    <row r="151" spans="1:18" customFormat="1" ht="18">
       <c r="A151" s="699"/>
       <c r="B151" s="699"/>
       <c r="C151" s="702"/>
@@ -29442,106 +29451,106 @@
       <c r="Q151" s="411"/>
       <c r="R151" s="26"/>
     </row>
-    <row r="152" spans="1:18" ht="15.5">
+    <row r="152" spans="1:18" ht="17">
       <c r="L152" s="599"/>
     </row>
-    <row r="153" spans="1:18" ht="15.5">
+    <row r="153" spans="1:18" ht="17">
       <c r="L153" s="599"/>
     </row>
-    <row r="154" spans="1:18" ht="15.5">
+    <row r="154" spans="1:18" ht="17">
       <c r="L154" s="599"/>
     </row>
-    <row r="155" spans="1:18" ht="15.5">
+    <row r="155" spans="1:18" ht="17">
       <c r="L155" s="599"/>
     </row>
-    <row r="156" spans="1:18" ht="15.5">
+    <row r="156" spans="1:18" ht="17">
       <c r="L156" s="599"/>
     </row>
-    <row r="157" spans="1:18" ht="15.5">
+    <row r="157" spans="1:18" ht="17">
       <c r="L157" s="599"/>
     </row>
-    <row r="158" spans="1:18" ht="15.5">
+    <row r="158" spans="1:18" ht="17">
       <c r="L158" s="599"/>
     </row>
-    <row r="159" spans="1:18" ht="15.5">
+    <row r="159" spans="1:18" ht="17">
       <c r="L159" s="599"/>
     </row>
-    <row r="160" spans="1:18" ht="15.5">
+    <row r="160" spans="1:18" ht="17">
       <c r="L160" s="599"/>
     </row>
-    <row r="161" spans="12:12" ht="15.5">
+    <row r="161" spans="12:12" ht="17">
       <c r="L161" s="599"/>
     </row>
-    <row r="162" spans="12:12" ht="15.5">
+    <row r="162" spans="12:12" ht="17">
       <c r="L162" s="599"/>
     </row>
-    <row r="163" spans="12:12" ht="15.5">
+    <row r="163" spans="12:12" ht="17">
       <c r="L163" s="599"/>
     </row>
-    <row r="164" spans="12:12" ht="15.5">
+    <row r="164" spans="12:12" ht="17">
       <c r="L164" s="599"/>
     </row>
-    <row r="165" spans="12:12" ht="15.5">
+    <row r="165" spans="12:12" ht="17">
       <c r="L165" s="599"/>
     </row>
-    <row r="166" spans="12:12" ht="15.5">
+    <row r="166" spans="12:12" ht="17">
       <c r="L166" s="599"/>
     </row>
-    <row r="167" spans="12:12" ht="15.5">
+    <row r="167" spans="12:12" ht="17">
       <c r="L167" s="599"/>
     </row>
-    <row r="168" spans="12:12" ht="15.5">
+    <row r="168" spans="12:12" ht="17">
       <c r="L168" s="599"/>
     </row>
-    <row r="169" spans="12:12" ht="15.5">
+    <row r="169" spans="12:12" ht="17">
       <c r="L169" s="599"/>
     </row>
-    <row r="170" spans="12:12" ht="15.5">
+    <row r="170" spans="12:12" ht="17">
       <c r="L170" s="599"/>
     </row>
-    <row r="171" spans="12:12" ht="15.5">
+    <row r="171" spans="12:12" ht="17">
       <c r="L171" s="599"/>
     </row>
-    <row r="172" spans="12:12" ht="15.5">
+    <row r="172" spans="12:12" ht="17">
       <c r="L172" s="599"/>
     </row>
-    <row r="173" spans="12:12" ht="15.5">
+    <row r="173" spans="12:12" ht="17">
       <c r="L173" s="599"/>
     </row>
-    <row r="174" spans="12:12" ht="15.5">
+    <row r="174" spans="12:12" ht="17">
       <c r="L174" s="599"/>
     </row>
-    <row r="175" spans="12:12" ht="15.5">
+    <row r="175" spans="12:12" ht="17">
       <c r="L175" s="599"/>
     </row>
-    <row r="176" spans="12:12" ht="15.5">
+    <row r="176" spans="12:12" ht="17">
       <c r="L176" s="599"/>
     </row>
-    <row r="177" spans="12:12" ht="15.5">
+    <row r="177" spans="12:12" ht="17">
       <c r="L177" s="599"/>
     </row>
-    <row r="178" spans="12:12" ht="15.5">
+    <row r="178" spans="12:12" ht="17">
       <c r="L178" s="599"/>
     </row>
-    <row r="179" spans="12:12" ht="15.5">
+    <row r="179" spans="12:12" ht="17">
       <c r="L179" s="599"/>
     </row>
-    <row r="180" spans="12:12" ht="15.5">
+    <row r="180" spans="12:12" ht="17">
       <c r="L180" s="599"/>
     </row>
-    <row r="181" spans="12:12" ht="15.5">
+    <row r="181" spans="12:12" ht="17">
       <c r="L181" s="599"/>
     </row>
-    <row r="182" spans="12:12" ht="15.5">
+    <row r="182" spans="12:12" ht="17">
       <c r="L182" s="599"/>
     </row>
-    <row r="183" spans="12:12" ht="15.5">
+    <row r="183" spans="12:12" ht="17">
       <c r="L183" s="599"/>
     </row>
-    <row r="184" spans="12:12" ht="15.5">
+    <row r="184" spans="12:12" ht="17">
       <c r="L184" s="599"/>
     </row>
-    <row r="185" spans="12:12" ht="15.5">
+    <row r="185" spans="12:12" ht="17">
       <c r="L185" s="599"/>
     </row>
   </sheetData>
@@ -29578,30 +29587,30 @@
   </sheetPr>
   <dimension ref="A1:S188"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="2" width="22" style="29" customWidth="1"/>
-    <col min="3" max="3" width="20.3046875" style="417" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="417" customWidth="1"/>
     <col min="4" max="4" width="14" style="29" customWidth="1"/>
-    <col min="5" max="5" width="24.3046875" style="71" customWidth="1"/>
-    <col min="6" max="6" width="26.84375" style="29" customWidth="1"/>
-    <col min="7" max="7" width="24.69140625" style="71" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="71" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="71" customWidth="1"/>
     <col min="8" max="8" width="27" style="417" customWidth="1"/>
     <col min="9" max="10" width="42" style="29" customWidth="1"/>
     <col min="11" max="11" width="42" style="417" customWidth="1"/>
     <col min="12" max="12" width="14" style="82" customWidth="1"/>
-    <col min="13" max="13" width="26.84375" style="29" customWidth="1"/>
+    <col min="13" max="13" width="26.83203125" style="29" customWidth="1"/>
     <col min="14" max="14" width="16" style="29" customWidth="1"/>
-    <col min="15" max="16" width="40.4609375" style="599" customWidth="1"/>
-    <col min="17" max="17" width="40.4609375" style="417" customWidth="1"/>
-    <col min="18" max="16384" width="8.84375" style="29"/>
+    <col min="15" max="16" width="40.5" style="599" customWidth="1"/>
+    <col min="17" max="17" width="40.5" style="417" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="70" customFormat="1" ht="30">
+    <row r="1" spans="1:17" s="70" customFormat="1" ht="32">
       <c r="A1" s="70" t="s">
         <v>804</v>
       </c>
@@ -29654,7 +29663,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="31">
+    <row r="2" spans="1:17" ht="54">
       <c r="A2" s="714" t="s">
         <v>1498</v>
       </c>
@@ -29705,7 +29714,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16">
+    <row r="3" spans="1:17" ht="18">
       <c r="A3" s="714"/>
       <c r="B3" s="714"/>
       <c r="C3" s="728"/>
@@ -29730,7 +29739,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="62">
+    <row r="4" spans="1:17" ht="72">
       <c r="A4" s="714"/>
       <c r="B4" s="714"/>
       <c r="C4" s="728"/>
@@ -29852,7 +29861,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" ht="36">
       <c r="A8" s="714"/>
       <c r="B8" s="714"/>
       <c r="C8" s="728"/>
@@ -29883,7 +29892,7 @@
       <c r="P8" s="579"/>
       <c r="Q8" s="536"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="18">
       <c r="A9" s="714"/>
       <c r="B9" s="714"/>
       <c r="C9" s="728"/>
@@ -29914,7 +29923,7 @@
       <c r="P9" s="579"/>
       <c r="Q9" s="536"/>
     </row>
-    <row r="10" spans="1:17" s="26" customFormat="1" ht="31">
+    <row r="10" spans="1:17" s="26" customFormat="1" ht="45">
       <c r="A10" s="714" t="s">
         <v>1525</v>
       </c>
@@ -29967,7 +29976,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="11" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A11" s="714"/>
       <c r="B11" s="711"/>
       <c r="C11" s="713"/>
@@ -29992,7 +30001,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="26" customFormat="1" ht="31">
+    <row r="12" spans="1:17" s="26" customFormat="1" ht="36">
       <c r="A12" s="714"/>
       <c r="B12" s="711"/>
       <c r="C12" s="713"/>
@@ -30017,7 +30026,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="26" customFormat="1" ht="32">
+    <row r="13" spans="1:17" s="26" customFormat="1" ht="54">
       <c r="A13" s="714"/>
       <c r="B13" s="711"/>
       <c r="C13" s="713"/>
@@ -30042,7 +30051,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="26" customFormat="1" ht="46.5">
+    <row r="14" spans="1:17" s="26" customFormat="1" ht="72">
       <c r="A14" s="714"/>
       <c r="B14" s="711"/>
       <c r="C14" s="713"/>
@@ -30079,7 +30088,7 @@
       <c r="P14" s="583"/>
       <c r="Q14" s="416"/>
     </row>
-    <row r="15" spans="1:17" s="26" customFormat="1" ht="46.5">
+    <row r="15" spans="1:17" s="26" customFormat="1" ht="54">
       <c r="A15" s="714"/>
       <c r="B15" s="711"/>
       <c r="C15" s="729"/>
@@ -30122,7 +30131,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="16" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A16" s="714"/>
       <c r="B16" s="711"/>
       <c r="C16" s="729"/>
@@ -30147,7 +30156,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="17" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A17" s="714"/>
       <c r="B17" s="711"/>
       <c r="C17" s="729"/>
@@ -30172,7 +30181,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="18" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A18" s="714"/>
       <c r="B18" s="711"/>
       <c r="C18" s="729"/>
@@ -30197,7 +30206,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="19" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A19" s="714"/>
       <c r="B19" s="711"/>
       <c r="C19" s="729"/>
@@ -30222,7 +30231,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="20" spans="1:17" s="26" customFormat="1" ht="36">
       <c r="A20" s="714"/>
       <c r="B20" s="711"/>
       <c r="C20" s="729"/>
@@ -30247,7 +30256,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="21" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A21" s="714"/>
       <c r="B21" s="711"/>
       <c r="C21" s="729"/>
@@ -30272,7 +30281,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="26" customFormat="1" ht="62">
+    <row r="22" spans="1:17" s="26" customFormat="1" ht="90">
       <c r="A22" s="714"/>
       <c r="B22" s="711"/>
       <c r="C22" s="729"/>
@@ -30317,7 +30326,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="23" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A23" s="714"/>
       <c r="B23" s="711"/>
       <c r="C23" s="729"/>
@@ -30342,7 +30351,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="26" customFormat="1" ht="31">
+    <row r="24" spans="1:17" s="26" customFormat="1" ht="36">
       <c r="A24" s="714"/>
       <c r="B24" s="711"/>
       <c r="C24" s="729"/>
@@ -30367,7 +30376,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="26" customFormat="1" ht="31">
+    <row r="25" spans="1:17" s="26" customFormat="1" ht="36">
       <c r="A25" s="714"/>
       <c r="B25" s="711"/>
       <c r="C25" s="729"/>
@@ -30392,7 +30401,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="26" customFormat="1" ht="31">
+    <row r="26" spans="1:17" s="26" customFormat="1" ht="54">
       <c r="A26" s="714"/>
       <c r="B26" s="711"/>
       <c r="C26" s="729"/>
@@ -30423,7 +30432,7 @@
       <c r="P26" s="583"/>
       <c r="Q26" s="416"/>
     </row>
-    <row r="27" spans="1:17" s="26" customFormat="1" ht="46.5">
+    <row r="27" spans="1:17" s="26" customFormat="1" ht="72">
       <c r="A27" s="717" t="s">
         <v>1591</v>
       </c>
@@ -30476,7 +30485,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="28" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A28" s="717"/>
       <c r="B28" s="731"/>
       <c r="C28" s="732"/>
@@ -30501,7 +30510,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="26" customFormat="1" ht="46.5">
+    <row r="29" spans="1:17" s="26" customFormat="1" ht="72">
       <c r="A29" s="717"/>
       <c r="B29" s="731"/>
       <c r="C29" s="719"/>
@@ -30546,7 +30555,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="26" customFormat="1" ht="18.5">
+    <row r="30" spans="1:17" s="26" customFormat="1" ht="19">
       <c r="A30" s="717"/>
       <c r="B30" s="731"/>
       <c r="C30" s="719"/>
@@ -30571,7 +30580,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="26" customFormat="1" ht="18.5">
+    <row r="31" spans="1:17" s="26" customFormat="1" ht="19">
       <c r="A31" s="717"/>
       <c r="B31" s="731"/>
       <c r="C31" s="719"/>
@@ -30596,7 +30605,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="26" customFormat="1" ht="18.5">
+    <row r="32" spans="1:17" s="26" customFormat="1" ht="19">
       <c r="A32" s="717"/>
       <c r="B32" s="731"/>
       <c r="C32" s="719"/>
@@ -30621,7 +30630,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="26" customFormat="1" ht="18.5">
+    <row r="33" spans="1:19" s="26" customFormat="1" ht="19">
       <c r="A33" s="717"/>
       <c r="B33" s="731"/>
       <c r="C33" s="719"/>
@@ -30646,7 +30655,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="26" customFormat="1" ht="18.5">
+    <row r="34" spans="1:19" s="26" customFormat="1" ht="19">
       <c r="A34" s="717"/>
       <c r="B34" s="731"/>
       <c r="C34" s="719"/>
@@ -30671,7 +30680,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="26" customFormat="1" ht="18.5">
+    <row r="35" spans="1:19" s="26" customFormat="1" ht="19">
       <c r="A35" s="717"/>
       <c r="B35" s="731"/>
       <c r="C35" s="719"/>
@@ -30694,7 +30703,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="26" customFormat="1" ht="18.5">
+    <row r="36" spans="1:19" s="26" customFormat="1" ht="19">
       <c r="A36" s="717"/>
       <c r="B36" s="731"/>
       <c r="C36" s="719"/>
@@ -30717,7 +30726,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="26" customFormat="1" ht="18.5">
+    <row r="37" spans="1:19" s="26" customFormat="1" ht="19">
       <c r="A37" s="717"/>
       <c r="B37" s="731"/>
       <c r="C37" s="719"/>
@@ -30740,7 +30749,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="26" customFormat="1" ht="74">
+    <row r="38" spans="1:19" s="26" customFormat="1" ht="80">
       <c r="A38" s="717"/>
       <c r="B38" s="716"/>
       <c r="C38" s="719"/>
@@ -30775,7 +30784,7 @@
       <c r="P38" s="583"/>
       <c r="Q38" s="416"/>
     </row>
-    <row r="39" spans="1:19" s="26" customFormat="1" ht="108.5">
+    <row r="39" spans="1:19" s="26" customFormat="1" ht="126">
       <c r="A39" s="716" t="s">
         <v>1634</v>
       </c>
@@ -30826,7 +30835,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="26" customFormat="1" ht="16">
+    <row r="40" spans="1:19" s="26" customFormat="1" ht="18">
       <c r="A40" s="717"/>
       <c r="B40" s="717"/>
       <c r="C40" s="719"/>
@@ -30851,7 +30860,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="26" customFormat="1" ht="108.5">
+    <row r="41" spans="1:19" s="26" customFormat="1" ht="126">
       <c r="A41" s="717"/>
       <c r="B41" s="717"/>
       <c r="C41" s="719"/>
@@ -30896,7 +30905,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="26" customFormat="1" ht="16">
+    <row r="42" spans="1:19" s="26" customFormat="1" ht="18">
       <c r="A42" s="717"/>
       <c r="B42" s="717"/>
       <c r="C42" s="719"/>
@@ -30921,7 +30930,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="26" customFormat="1" ht="16">
+    <row r="43" spans="1:19" s="26" customFormat="1" ht="18">
       <c r="A43" s="717"/>
       <c r="B43" s="717"/>
       <c r="C43" s="719"/>
@@ -30946,7 +30955,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="26" customFormat="1" ht="16">
+    <row r="44" spans="1:19" s="26" customFormat="1" ht="18">
       <c r="A44" s="717"/>
       <c r="B44" s="717"/>
       <c r="C44" s="719"/>
@@ -30971,7 +30980,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="26" customFormat="1" ht="16">
+    <row r="45" spans="1:19" s="26" customFormat="1" ht="18">
       <c r="A45" s="717"/>
       <c r="B45" s="717"/>
       <c r="C45" s="719"/>
@@ -30996,7 +31005,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="26" customFormat="1" ht="31">
+    <row r="46" spans="1:19" s="26" customFormat="1" ht="36">
       <c r="A46" s="717"/>
       <c r="B46" s="717"/>
       <c r="C46" s="719"/>
@@ -31030,7 +31039,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="26" customFormat="1" ht="46.5">
+    <row r="47" spans="1:19" s="26" customFormat="1" ht="72">
       <c r="A47" s="720" t="s">
         <v>1143</v>
       </c>
@@ -31081,7 +31090,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="26" customFormat="1" ht="16">
+    <row r="48" spans="1:19" s="26" customFormat="1" ht="18">
       <c r="A48" s="720"/>
       <c r="B48" s="720"/>
       <c r="C48" s="722"/>
@@ -31106,7 +31115,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="26" customFormat="1" ht="46.5">
+    <row r="49" spans="1:17" s="26" customFormat="1" ht="72">
       <c r="A49" s="720"/>
       <c r="B49" s="720"/>
       <c r="C49" s="722"/>
@@ -31151,7 +31160,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="50" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A50" s="720"/>
       <c r="B50" s="720"/>
       <c r="C50" s="722"/>
@@ -31176,7 +31185,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="51" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A51" s="720"/>
       <c r="B51" s="720"/>
       <c r="C51" s="722"/>
@@ -31201,7 +31210,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="52" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A52" s="720"/>
       <c r="B52" s="720"/>
       <c r="C52" s="722"/>
@@ -31226,7 +31235,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="53" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A53" s="720"/>
       <c r="B53" s="720"/>
       <c r="C53" s="722"/>
@@ -31251,7 +31260,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="54" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A54" s="721"/>
       <c r="B54" s="721"/>
       <c r="C54" s="723"/>
@@ -31276,7 +31285,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="342" customFormat="1" ht="70">
+    <row r="55" spans="1:17" s="342" customFormat="1" ht="90">
       <c r="A55" s="733" t="s">
         <v>1701</v>
       </c>
@@ -31321,7 +31330,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="342" customFormat="1">
+    <row r="56" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A56" s="734"/>
       <c r="B56" s="737"/>
       <c r="C56" s="740"/>
@@ -31346,7 +31355,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="342" customFormat="1">
+    <row r="57" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A57" s="734"/>
       <c r="B57" s="737"/>
       <c r="C57" s="740"/>
@@ -31371,7 +31380,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="342" customFormat="1">
+    <row r="58" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A58" s="734"/>
       <c r="B58" s="737"/>
       <c r="C58" s="740"/>
@@ -31396,7 +31405,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="342" customFormat="1">
+    <row r="59" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A59" s="734"/>
       <c r="B59" s="737"/>
       <c r="C59" s="740"/>
@@ -31421,7 +31430,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="342" customFormat="1">
+    <row r="60" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A60" s="734"/>
       <c r="B60" s="737"/>
       <c r="C60" s="740"/>
@@ -31446,7 +31455,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="342" customFormat="1">
+    <row r="61" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A61" s="734"/>
       <c r="B61" s="737"/>
       <c r="C61" s="740"/>
@@ -31471,7 +31480,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="342" customFormat="1">
+    <row r="62" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A62" s="734"/>
       <c r="B62" s="737"/>
       <c r="C62" s="740"/>
@@ -31496,7 +31505,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="342" customFormat="1">
+    <row r="63" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A63" s="734"/>
       <c r="B63" s="737"/>
       <c r="C63" s="740"/>
@@ -31521,7 +31530,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="342" customFormat="1">
+    <row r="64" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A64" s="734"/>
       <c r="B64" s="737"/>
       <c r="C64" s="740"/>
@@ -31546,7 +31555,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="342" customFormat="1">
+    <row r="65" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A65" s="734"/>
       <c r="B65" s="737"/>
       <c r="C65" s="740"/>
@@ -31571,7 +31580,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="342" customFormat="1">
+    <row r="66" spans="1:17" s="342" customFormat="1" ht="36">
       <c r="A66" s="734"/>
       <c r="B66" s="737"/>
       <c r="C66" s="740"/>
@@ -31596,7 +31605,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="342" customFormat="1">
+    <row r="67" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A67" s="734"/>
       <c r="B67" s="737"/>
       <c r="C67" s="740"/>
@@ -31621,7 +31630,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="342" customFormat="1">
+    <row r="68" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A68" s="734"/>
       <c r="B68" s="737"/>
       <c r="C68" s="740"/>
@@ -31646,7 +31655,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="342" customFormat="1">
+    <row r="69" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A69" s="734"/>
       <c r="B69" s="737"/>
       <c r="C69" s="740"/>
@@ -31671,7 +31680,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="342" customFormat="1" ht="70">
+    <row r="70" spans="1:17" s="342" customFormat="1" ht="90">
       <c r="A70" s="735"/>
       <c r="B70" s="738"/>
       <c r="C70" s="741"/>
@@ -31710,7 +31719,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="342" customFormat="1">
+    <row r="71" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A71" s="346"/>
       <c r="B71" s="347"/>
       <c r="C71" s="519"/>
@@ -31735,7 +31744,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="342" customFormat="1">
+    <row r="72" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A72" s="346"/>
       <c r="B72" s="347"/>
       <c r="C72" s="519"/>
@@ -31760,7 +31769,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="342" customFormat="1">
+    <row r="73" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A73" s="346"/>
       <c r="B73" s="347"/>
       <c r="C73" s="519"/>
@@ -31785,7 +31794,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="342" customFormat="1">
+    <row r="74" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A74" s="346"/>
       <c r="B74" s="347"/>
       <c r="C74" s="519"/>
@@ -31810,7 +31819,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="342" customFormat="1">
+    <row r="75" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A75" s="346"/>
       <c r="B75" s="347"/>
       <c r="C75" s="519"/>
@@ -31835,7 +31844,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="342" customFormat="1">
+    <row r="76" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A76" s="346"/>
       <c r="B76" s="347"/>
       <c r="C76" s="519"/>
@@ -31860,7 +31869,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="77" spans="1:17" s="342" customFormat="1">
+    <row r="77" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A77" s="346"/>
       <c r="B77" s="347"/>
       <c r="C77" s="519"/>
@@ -31885,7 +31894,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="78" spans="1:17" s="342" customFormat="1">
+    <row r="78" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A78" s="346"/>
       <c r="B78" s="347"/>
       <c r="C78" s="519"/>
@@ -31910,7 +31919,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="79" spans="1:17" s="342" customFormat="1">
+    <row r="79" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A79" s="383"/>
       <c r="B79" s="403"/>
       <c r="C79" s="518"/>
@@ -31935,7 +31944,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="80" spans="1:17" s="342" customFormat="1" ht="31">
+    <row r="80" spans="1:17" s="342" customFormat="1" ht="36">
       <c r="A80" s="714" t="s">
         <v>1788</v>
       </c>
@@ -31978,7 +31987,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="81" spans="1:17" s="342" customFormat="1">
+    <row r="81" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A81" s="714"/>
       <c r="B81" s="714"/>
       <c r="C81" s="715"/>
@@ -32003,7 +32012,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="60">
+    <row r="82" spans="1:17" ht="72">
       <c r="A82" s="714"/>
       <c r="B82" s="714"/>
       <c r="C82" s="715"/>
@@ -32044,7 +32053,7 @@
       <c r="P82" s="593"/>
       <c r="Q82" s="413"/>
     </row>
-    <row r="83" spans="1:17" ht="112">
+    <row r="83" spans="1:17" ht="120">
       <c r="A83" s="714"/>
       <c r="B83" s="714"/>
       <c r="C83" s="715"/>
@@ -32085,7 +32094,7 @@
       <c r="P83" s="593"/>
       <c r="Q83" s="413"/>
     </row>
-    <row r="84" spans="1:17" s="26" customFormat="1" ht="46.5">
+    <row r="84" spans="1:17" s="26" customFormat="1" ht="72">
       <c r="A84" s="710" t="s">
         <v>1812</v>
       </c>
@@ -32136,7 +32145,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="85" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="85" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A85" s="710"/>
       <c r="B85" s="711"/>
       <c r="C85" s="713"/>
@@ -32161,7 +32170,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="86" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="86" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A86" s="710"/>
       <c r="B86" s="711"/>
       <c r="C86" s="713"/>
@@ -32186,7 +32195,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="87" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="87" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A87" s="710"/>
       <c r="B87" s="711"/>
       <c r="C87" s="713"/>
@@ -32211,7 +32220,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="88" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="88" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A88" s="710"/>
       <c r="B88" s="711"/>
       <c r="C88" s="713"/>
@@ -32236,7 +32245,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="89" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="89" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A89" s="710"/>
       <c r="B89" s="711"/>
       <c r="C89" s="713"/>
@@ -32261,7 +32270,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="90" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="90" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A90" s="710"/>
       <c r="B90" s="711"/>
       <c r="C90" s="713"/>
@@ -32286,7 +32295,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="91" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A91" s="710"/>
       <c r="B91" s="711"/>
       <c r="C91" s="713"/>
@@ -32311,7 +32320,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="92" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A92" s="710"/>
       <c r="B92" s="711"/>
       <c r="C92" s="713"/>
@@ -32336,7 +32345,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="93" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A93" s="710"/>
       <c r="B93" s="711"/>
       <c r="C93" s="713"/>
@@ -32361,7 +32370,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="26" customFormat="1" ht="62">
+    <row r="94" spans="1:17" s="26" customFormat="1" ht="72">
       <c r="A94" s="710"/>
       <c r="B94" s="711"/>
       <c r="C94" s="713"/>
@@ -32406,7 +32415,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="26" customFormat="1" ht="30">
+    <row r="95" spans="1:17" s="26" customFormat="1" ht="32">
       <c r="A95" s="710"/>
       <c r="B95" s="711"/>
       <c r="C95" s="713"/>
@@ -32431,7 +32440,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="96" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A96" s="710"/>
       <c r="B96" s="711"/>
       <c r="C96" s="713"/>
@@ -32456,7 +32465,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="97" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A97" s="710"/>
       <c r="B97" s="711"/>
       <c r="C97" s="713"/>
@@ -32481,7 +32490,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="98" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A98" s="710"/>
       <c r="B98" s="711"/>
       <c r="C98" s="713"/>
@@ -32506,7 +32515,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="99" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A99" s="710"/>
       <c r="B99" s="711"/>
       <c r="C99" s="713"/>
@@ -32531,7 +32540,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="100" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A100" s="710"/>
       <c r="B100" s="711"/>
       <c r="C100" s="713"/>
@@ -32556,7 +32565,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="26" customFormat="1" ht="62">
+    <row r="101" spans="1:17" s="26" customFormat="1" ht="72">
       <c r="A101" s="710"/>
       <c r="B101" s="711"/>
       <c r="C101" s="713"/>
@@ -32599,7 +32608,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="102" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A102" s="710"/>
       <c r="B102" s="711"/>
       <c r="C102" s="713"/>
@@ -32624,7 +32633,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="103" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A103" s="710"/>
       <c r="B103" s="711"/>
       <c r="C103" s="713"/>
@@ -32649,7 +32658,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="104" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A104" s="710"/>
       <c r="B104" s="711"/>
       <c r="C104" s="713"/>
@@ -32674,7 +32683,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="105" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A105" s="710"/>
       <c r="B105" s="711"/>
       <c r="C105" s="713"/>
@@ -32699,7 +32708,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="106" spans="1:17" s="26" customFormat="1" ht="31">
+    <row r="106" spans="1:17" s="26" customFormat="1" ht="36">
       <c r="A106" s="710"/>
       <c r="B106" s="711"/>
       <c r="C106" s="713"/>
@@ -32724,7 +32733,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="26" customFormat="1" ht="62">
+    <row r="107" spans="1:17" s="26" customFormat="1" ht="72">
       <c r="A107" s="710"/>
       <c r="B107" s="711"/>
       <c r="C107" s="713"/>
@@ -32769,7 +32778,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="108" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="108" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A108" s="710"/>
       <c r="B108" s="711"/>
       <c r="C108" s="713"/>
@@ -32794,7 +32803,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="109" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="109" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A109" s="710"/>
       <c r="B109" s="711"/>
       <c r="C109" s="713"/>
@@ -32819,7 +32828,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="110" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="110" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A110" s="710"/>
       <c r="B110" s="711"/>
       <c r="C110" s="713"/>
@@ -32844,7 +32853,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="111" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="111" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A111" s="710"/>
       <c r="B111" s="711"/>
       <c r="C111" s="713"/>
@@ -32869,7 +32878,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="112" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="112" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A112" s="710"/>
       <c r="B112" s="711"/>
       <c r="C112" s="713"/>
@@ -32894,7 +32903,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="113" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="113" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A113" s="710"/>
       <c r="B113" s="711"/>
       <c r="C113" s="713"/>
@@ -32919,7 +32928,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="114" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="114" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A114" s="710"/>
       <c r="B114" s="711"/>
       <c r="C114" s="713"/>
@@ -32944,7 +32953,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="115" spans="1:17" s="26" customFormat="1" ht="31">
+    <row r="115" spans="1:17" s="26" customFormat="1" ht="36">
       <c r="A115" s="710"/>
       <c r="B115" s="711"/>
       <c r="C115" s="713"/>
@@ -32989,7 +32998,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="116" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="116" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A116" s="710"/>
       <c r="B116" s="711"/>
       <c r="C116" s="713"/>
@@ -33014,7 +33023,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="117" spans="1:17" s="510" customFormat="1" ht="62">
+    <row r="117" spans="1:17" s="510" customFormat="1" ht="90">
       <c r="A117" s="710"/>
       <c r="B117" s="711"/>
       <c r="C117" s="713"/>
@@ -33057,7 +33066,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="118" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="118" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A118" s="710"/>
       <c r="B118" s="711"/>
       <c r="C118" s="713"/>
@@ -33082,7 +33091,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="119" spans="1:17" s="26" customFormat="1" ht="31">
+    <row r="119" spans="1:17" s="26" customFormat="1" ht="36">
       <c r="A119" s="710"/>
       <c r="B119" s="711"/>
       <c r="C119" s="713"/>
@@ -33125,7 +33134,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="120" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="120" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A120" s="710"/>
       <c r="B120" s="711"/>
       <c r="C120" s="713"/>
@@ -33150,7 +33159,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="121" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="121" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A121" s="710"/>
       <c r="B121" s="711"/>
       <c r="C121" s="713"/>
@@ -33175,7 +33184,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="122" spans="1:17" s="26" customFormat="1" ht="84">
+    <row r="122" spans="1:17" s="26" customFormat="1" ht="108">
       <c r="A122" s="710"/>
       <c r="B122" s="711"/>
       <c r="C122" s="713"/>
@@ -33218,7 +33227,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="123" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="123" spans="1:17" s="26" customFormat="1" ht="36">
       <c r="A123" s="710"/>
       <c r="B123" s="711"/>
       <c r="C123" s="713"/>
@@ -33243,7 +33252,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="124" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="124" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A124" s="710"/>
       <c r="B124" s="711"/>
       <c r="C124" s="713"/>
@@ -33268,7 +33277,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="125" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="125" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A125" s="710"/>
       <c r="B125" s="711"/>
       <c r="C125" s="713"/>
@@ -33293,7 +33302,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="126" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="126" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A126" s="710"/>
       <c r="B126" s="711"/>
       <c r="C126" s="713"/>
@@ -33318,7 +33327,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="127" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="127" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A127" s="710"/>
       <c r="B127" s="711"/>
       <c r="C127" s="713"/>
@@ -33393,7 +33402,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="130" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="130" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A130" s="710"/>
       <c r="B130" s="711"/>
       <c r="C130" s="713"/>
@@ -33418,7 +33427,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="131" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="131" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A131" s="710"/>
       <c r="B131" s="711"/>
       <c r="C131" s="713"/>
@@ -33443,7 +33452,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="132" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="132" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A132" s="710"/>
       <c r="B132" s="711"/>
       <c r="C132" s="713"/>
@@ -33468,7 +33477,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="133" spans="1:17" s="26" customFormat="1" ht="62">
+    <row r="133" spans="1:17" s="26" customFormat="1" ht="72">
       <c r="A133" s="710"/>
       <c r="B133" s="711"/>
       <c r="C133" s="713"/>
@@ -33513,7 +33522,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="134" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="134" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A134" s="710"/>
       <c r="B134" s="711"/>
       <c r="C134" s="713"/>
@@ -33538,7 +33547,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="135" spans="1:17" s="26" customFormat="1" ht="93">
+    <row r="135" spans="1:17" s="26" customFormat="1" ht="108">
       <c r="A135" s="710"/>
       <c r="B135" s="711"/>
       <c r="C135" s="713"/>
@@ -33581,7 +33590,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="136" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="136" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A136" s="710"/>
       <c r="B136" s="711"/>
       <c r="C136" s="713"/>
@@ -33606,7 +33615,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="137" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="137" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A137" s="710"/>
       <c r="B137" s="711"/>
       <c r="C137" s="713"/>
@@ -33631,7 +33640,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="138" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="138" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A138" s="710"/>
       <c r="B138" s="711"/>
       <c r="C138" s="713"/>
@@ -33656,7 +33665,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="139" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="139" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A139" s="710"/>
       <c r="B139" s="711"/>
       <c r="C139" s="713"/>
@@ -33681,7 +33690,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="140" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="140" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A140" s="710"/>
       <c r="B140" s="711"/>
       <c r="C140" s="713"/>
@@ -33706,7 +33715,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="141" spans="1:17" s="26" customFormat="1" ht="77.5">
+    <row r="141" spans="1:17" s="26" customFormat="1" ht="108">
       <c r="A141" s="710"/>
       <c r="B141" s="711"/>
       <c r="C141" s="713"/>
@@ -33751,7 +33760,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="142" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="142" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A142" s="710"/>
       <c r="B142" s="711"/>
       <c r="C142" s="713"/>
@@ -33776,7 +33785,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="143" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="143" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A143" s="710"/>
       <c r="B143" s="711"/>
       <c r="C143" s="713"/>
@@ -33801,7 +33810,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="144" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="144" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A144" s="710"/>
       <c r="B144" s="711"/>
       <c r="C144" s="713"/>
@@ -33826,7 +33835,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="145" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="145" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A145" s="710"/>
       <c r="B145" s="711"/>
       <c r="C145" s="713"/>
@@ -33851,7 +33860,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="146" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="146" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A146" s="710"/>
       <c r="B146" s="711"/>
       <c r="C146" s="713"/>
@@ -33876,7 +33885,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="147" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="147" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A147" s="710"/>
       <c r="B147" s="711"/>
       <c r="C147" s="713"/>
@@ -33901,7 +33910,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="148" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="148" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A148" s="710"/>
       <c r="B148" s="711"/>
       <c r="C148" s="713"/>
@@ -33926,7 +33935,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="149" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="149" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A149" s="710"/>
       <c r="B149" s="711"/>
       <c r="C149" s="713"/>
@@ -33951,7 +33960,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="150" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="150" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A150" s="710"/>
       <c r="B150" s="711"/>
       <c r="C150" s="713"/>
@@ -33976,7 +33985,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="151" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="151" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A151" s="710"/>
       <c r="B151" s="711"/>
       <c r="C151" s="713"/>
@@ -34001,7 +34010,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="152" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="152" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A152" s="710"/>
       <c r="B152" s="711"/>
       <c r="C152" s="713"/>
@@ -34026,7 +34035,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="153" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="153" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A153" s="710"/>
       <c r="B153" s="711"/>
       <c r="C153" s="713"/>
@@ -34051,7 +34060,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="154" spans="1:17" s="26" customFormat="1" ht="46.5">
+    <row r="154" spans="1:17" s="26" customFormat="1" ht="54">
       <c r="A154" s="710"/>
       <c r="B154" s="711"/>
       <c r="C154" s="713"/>
@@ -34096,7 +34105,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="155" spans="1:17" s="26" customFormat="1" ht="31">
+    <row r="155" spans="1:17" s="26" customFormat="1" ht="36">
       <c r="A155" s="710"/>
       <c r="B155" s="711"/>
       <c r="C155" s="713"/>
@@ -34121,7 +34130,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="156" spans="1:17" s="26" customFormat="1" ht="16">
+    <row r="156" spans="1:17" s="26" customFormat="1" ht="18">
       <c r="A156" s="710"/>
       <c r="B156" s="711"/>
       <c r="C156" s="713"/>
@@ -34146,7 +34155,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="157" spans="1:17" s="26" customFormat="1" ht="31">
+    <row r="157" spans="1:17" s="26" customFormat="1" ht="36">
       <c r="A157" s="710"/>
       <c r="B157" s="711"/>
       <c r="C157" s="713"/>
@@ -34196,7 +34205,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="159" spans="1:17" s="26" customFormat="1" ht="46.5">
+    <row r="159" spans="1:17" s="26" customFormat="1" ht="54">
       <c r="A159" s="710"/>
       <c r="B159" s="711"/>
       <c r="C159" s="713"/>
@@ -34266,7 +34275,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="161" spans="1:19" s="26" customFormat="1" ht="31">
+    <row r="161" spans="1:19" s="26" customFormat="1" ht="36">
       <c r="A161" s="710"/>
       <c r="B161" s="711"/>
       <c r="C161" s="713"/>
@@ -34366,7 +34375,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="165" spans="1:19" s="26" customFormat="1" ht="31">
+    <row r="165" spans="1:19" s="26" customFormat="1" ht="36">
       <c r="A165" s="710"/>
       <c r="B165" s="711"/>
       <c r="C165" s="713"/>
@@ -34391,7 +34400,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="166" spans="1:19" s="26" customFormat="1" ht="16">
+    <row r="166" spans="1:19" s="26" customFormat="1" ht="36">
       <c r="A166" s="710"/>
       <c r="B166" s="711"/>
       <c r="C166" s="713"/>
@@ -34416,7 +34425,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="167" spans="1:19" s="26" customFormat="1" ht="93">
+    <row r="167" spans="1:19" s="26" customFormat="1" ht="126">
       <c r="A167" s="710"/>
       <c r="B167" s="711"/>
       <c r="C167" s="713"/>
@@ -34453,7 +34462,7 @@
       <c r="P167" s="583"/>
       <c r="Q167" s="416"/>
     </row>
-    <row r="168" spans="1:19" s="26" customFormat="1" ht="31">
+    <row r="168" spans="1:19" s="26" customFormat="1" ht="36">
       <c r="A168" s="710"/>
       <c r="B168" s="711"/>
       <c r="C168" s="713"/>
@@ -34477,7 +34486,7 @@
       <c r="P168" s="583"/>
       <c r="Q168" s="416"/>
     </row>
-    <row r="169" spans="1:19" s="26" customFormat="1" ht="196">
+    <row r="169" spans="1:19" s="26" customFormat="1" ht="210">
       <c r="A169" s="710"/>
       <c r="B169" s="711"/>
       <c r="C169" s="713"/>
@@ -34514,7 +34523,7 @@
       <c r="P169" s="583"/>
       <c r="Q169" s="416"/>
     </row>
-    <row r="170" spans="1:19" s="106" customFormat="1" ht="62">
+    <row r="170" spans="1:19" s="106" customFormat="1" ht="72">
       <c r="A170" s="724" t="s">
         <v>2122</v>
       </c>
@@ -34559,7 +34568,7 @@
       <c r="R170" s="105"/>
       <c r="S170" s="105"/>
     </row>
-    <row r="171" spans="1:19" s="106" customFormat="1" ht="31">
+    <row r="171" spans="1:19" s="106" customFormat="1" ht="36">
       <c r="A171" s="724"/>
       <c r="B171" s="724"/>
       <c r="C171" s="726"/>
@@ -34598,7 +34607,7 @@
       <c r="R171" s="103"/>
       <c r="S171" s="103"/>
     </row>
-    <row r="172" spans="1:19" s="111" customFormat="1" ht="31">
+    <row r="172" spans="1:19" s="111" customFormat="1" ht="54">
       <c r="A172" s="725"/>
       <c r="B172" s="725"/>
       <c r="C172" s="727"/>
@@ -34643,7 +34652,7 @@
       <c r="R172" s="92"/>
       <c r="S172" s="92"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" ht="18">
       <c r="A173" s="88"/>
       <c r="B173" s="88"/>
       <c r="C173" s="465"/>
@@ -34668,7 +34677,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" ht="18">
       <c r="L174" s="599"/>
       <c r="O174" s="606" t="s">
         <v>2149</v>
@@ -34680,7 +34689,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" ht="18">
       <c r="L175" s="599"/>
       <c r="O175" s="606" t="s">
         <v>1731</v>
@@ -34692,7 +34701,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" ht="18">
       <c r="L176" s="599"/>
       <c r="O176" s="606" t="s">
         <v>921</v>
@@ -34784,16 +34793,16 @@
       <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.4609375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="42.69140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="50.4609375" style="26" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="50.5" style="26" customWidth="1"/>
     <col min="4" max="4" width="42" style="26" customWidth="1"/>
-    <col min="5" max="16384" width="8.84375" style="26"/>
+    <col min="5" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="24" t="s">
         <v>2152</v>
       </c>
@@ -34807,7 +34816,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="27" t="s">
         <v>2155</v>
       </c>
@@ -34821,7 +34830,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="27" t="s">
         <v>2155</v>
       </c>
@@ -34835,7 +34844,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="42">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="27" t="s">
         <v>2162</v>
       </c>
@@ -34849,7 +34858,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
         <v>2166</v>
@@ -34861,7 +34870,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="27"/>
       <c r="B6" s="28" t="s">
         <v>2169</v>
@@ -34873,7 +34882,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="27"/>
       <c r="B7" s="28" t="s">
         <v>2172</v>
@@ -34885,7 +34894,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="28" t="s">
         <v>2175</v>
       </c>
@@ -34899,7 +34908,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="27"/>
       <c r="B9" s="28" t="s">
         <v>2178</v>
@@ -34911,7 +34920,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42">
+    <row r="10" spans="1:4" ht="45">
       <c r="A10" s="27"/>
       <c r="B10" s="28" t="s">
         <v>2181</v>
@@ -34923,7 +34932,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5">
+    <row r="11" spans="1:4" ht="17">
       <c r="A11" s="27"/>
       <c r="B11" s="28" t="s">
         <v>2184</v>
@@ -34973,7 +34982,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="28" t="s">
         <v>2196</v>
       </c>
@@ -34999,7 +35008,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="27"/>
       <c r="B17" s="28" t="s">
         <v>2202</v>
@@ -35011,7 +35020,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="27"/>
       <c r="B18" s="28" t="s">
         <v>2205</v>
@@ -35023,7 +35032,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="27"/>
       <c r="B19" s="28" t="s">
         <v>2208</v>
@@ -35035,7 +35044,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="27"/>
       <c r="B20" s="28" t="s">
         <v>2211</v>
@@ -35047,7 +35056,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="27"/>
       <c r="B21" s="28" t="s">
         <v>2214</v>
@@ -35059,7 +35068,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="28" t="s">
         <v>2217</v>
       </c>
@@ -35073,7 +35082,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="27"/>
       <c r="B23" s="29" t="s">
         <v>2220</v>
@@ -35085,7 +35094,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28">
+    <row r="24" spans="1:4" ht="45">
       <c r="A24" s="27"/>
       <c r="B24" s="28" t="s">
         <v>2223</v>
@@ -35097,7 +35106,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="30">
       <c r="A25" s="28" t="s">
         <v>2226</v>
       </c>
@@ -35111,7 +35120,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="15">
       <c r="A26" s="27"/>
       <c r="B26" s="29" t="s">
         <v>2229</v>
@@ -35135,7 +35144,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28">
+    <row r="28" spans="1:4" ht="30">
       <c r="A28" s="28" t="s">
         <v>2235</v>
       </c>
@@ -35149,7 +35158,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" s="27"/>
       <c r="B29" s="28" t="s">
         <v>2238</v>
@@ -35161,7 +35170,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="42">
+    <row r="30" spans="1:4" ht="60">
       <c r="A30" s="27"/>
       <c r="B30" s="28" t="s">
         <v>2241</v>
@@ -35197,7 +35206,7 @@
       </c>
       <c r="D32" s="34"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="15">
       <c r="A33" s="27"/>
       <c r="B33" s="28" t="s">
         <v>2249</v>
@@ -35209,7 +35218,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="15">
       <c r="A34" s="27"/>
       <c r="B34" s="28" t="s">
         <v>2251</v>
@@ -35221,7 +35230,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="15">
       <c r="A35" s="28" t="s">
         <v>2252</v>
       </c>
@@ -35235,7 +35244,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="15">
       <c r="A36" s="27"/>
       <c r="B36" s="28" t="s">
         <v>2255</v>
@@ -35247,7 +35256,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" ht="15">
       <c r="A37" s="27"/>
       <c r="B37" s="28" t="s">
         <v>2159</v>
@@ -35259,7 +35268,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" ht="15">
       <c r="A38" s="27" t="s">
         <v>2260</v>
       </c>
@@ -35273,7 +35282,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" ht="15">
       <c r="A39" s="27"/>
       <c r="B39" s="29" t="s">
         <v>2264</v>
@@ -35285,7 +35294,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="15">
       <c r="A40" s="27"/>
       <c r="B40" s="29" t="s">
         <v>2267</v>
@@ -35297,7 +35306,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="15">
       <c r="A41" s="27"/>
       <c r="B41" s="29" t="s">
         <v>2260</v>
@@ -35309,7 +35318,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="15">
       <c r="A42" s="27"/>
       <c r="B42" s="29" t="s">
         <v>2272</v>
@@ -35321,7 +35330,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.5">
+    <row r="43" spans="1:4" ht="16">
       <c r="A43" s="27"/>
       <c r="B43" s="29" t="s">
         <v>2273</v>
@@ -35333,7 +35342,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" ht="15">
       <c r="A44" s="27"/>
       <c r="B44" s="28" t="s">
         <v>2276</v>
@@ -35345,7 +35354,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" ht="15">
       <c r="A45" s="27"/>
       <c r="B45" s="28" t="s">
         <v>2279</v>
@@ -35357,7 +35366,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" ht="15">
       <c r="A46" s="27"/>
       <c r="B46" s="28" t="s">
         <v>2282</v>
@@ -35369,7 +35378,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" ht="15">
       <c r="A47" s="27"/>
       <c r="B47" s="28" t="s">
         <v>2285</v>
@@ -35381,7 +35390,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" ht="15">
       <c r="A48" s="27"/>
       <c r="B48" s="28" t="s">
         <v>2288</v>
@@ -35393,7 +35402,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28">
+    <row r="49" spans="1:4" ht="30">
       <c r="A49" s="27"/>
       <c r="B49" s="28" t="s">
         <v>2291</v>
@@ -35405,7 +35414,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" ht="15">
       <c r="A50" s="27"/>
       <c r="B50" s="28" t="s">
         <v>2294</v>
@@ -35417,7 +35426,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" ht="15">
       <c r="A51" s="27"/>
       <c r="B51" s="28" t="s">
         <v>2297</v>
@@ -35429,7 +35438,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" ht="15">
       <c r="A52" s="27"/>
       <c r="B52" s="28" t="s">
         <v>2300</v>
@@ -35441,7 +35450,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" ht="15">
       <c r="A53" s="27"/>
       <c r="B53" s="28" t="s">
         <v>2303</v>
@@ -35453,7 +35462,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" ht="15">
       <c r="A54" s="27"/>
       <c r="B54" s="28" t="s">
         <v>2306</v>
@@ -35465,7 +35474,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" ht="15">
       <c r="A55" s="27"/>
       <c r="B55" s="28" t="s">
         <v>2309</v>
@@ -35477,7 +35486,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" ht="15">
       <c r="A56" s="27"/>
       <c r="B56" s="28" t="s">
         <v>2312</v>
@@ -35489,7 +35498,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" ht="15">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
         <v>2315</v>
@@ -35501,7 +35510,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" ht="15">
       <c r="A58" s="27"/>
       <c r="B58" s="28" t="s">
         <v>2318</v>
@@ -35513,7 +35522,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" ht="15">
       <c r="A59" s="27" t="s">
         <v>2321</v>
       </c>
@@ -35527,7 +35536,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" ht="15">
       <c r="A60" s="27" t="s">
         <v>2321</v>
       </c>
@@ -35555,7 +35564,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.5">
+    <row r="62" spans="1:4" ht="16">
       <c r="A62" s="27" t="s">
         <v>2331</v>
       </c>
@@ -35569,7 +35578,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" ht="15">
       <c r="A63" s="27" t="s">
         <v>2331</v>
       </c>
@@ -35583,7 +35592,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" ht="15">
       <c r="A64" s="27" t="s">
         <v>2331</v>
       </c>
@@ -35597,7 +35606,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" ht="15">
       <c r="A65" s="27" t="s">
         <v>2331</v>
       </c>
@@ -35611,7 +35620,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" ht="15">
       <c r="A66" s="27"/>
       <c r="B66" s="28" t="s">
         <v>2343</v>
@@ -35623,7 +35632,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" ht="15">
       <c r="A67" s="27"/>
       <c r="B67" s="28" t="s">
         <v>2346</v>
@@ -35635,7 +35644,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" ht="15">
       <c r="A68" s="27"/>
       <c r="B68" s="28" t="s">
         <v>2349</v>
@@ -35647,7 +35656,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" ht="15">
       <c r="A69" s="27"/>
       <c r="B69" s="28" t="s">
         <v>2352</v>
@@ -35659,7 +35668,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="28">
+    <row r="70" spans="1:4" ht="30">
       <c r="A70" s="27"/>
       <c r="B70" s="28" t="s">
         <v>2355</v>
@@ -35695,7 +35704,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" ht="15">
       <c r="A73" s="27"/>
       <c r="B73" s="28" t="s">
         <v>2364</v>
@@ -35707,7 +35716,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" ht="15">
       <c r="A74" s="27" t="s">
         <v>2367</v>
       </c>
@@ -35721,7 +35730,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" ht="15">
       <c r="A75" s="27"/>
       <c r="B75" s="28" t="s">
         <v>2371</v>
@@ -35733,7 +35742,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" ht="15">
       <c r="A76" s="27"/>
       <c r="B76" s="28" t="s">
         <v>2374</v>
@@ -35745,7 +35754,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" ht="15">
       <c r="A77" s="27"/>
       <c r="B77" s="28" t="s">
         <v>2377</v>
@@ -35757,7 +35766,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" ht="15">
       <c r="A78" s="27"/>
       <c r="B78" s="28" t="s">
         <v>2380</v>
@@ -35769,7 +35778,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" ht="15">
       <c r="A79" s="27"/>
       <c r="B79" s="28" t="s">
         <v>2383</v>
@@ -35781,7 +35790,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="14.5">
+    <row r="80" spans="1:4" ht="16">
       <c r="A80" s="27"/>
       <c r="B80" s="28" t="s">
         <v>2386</v>
@@ -35793,7 +35802,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="15">
       <c r="A81" s="27" t="s">
         <v>2367</v>
       </c>
@@ -35807,7 +35816,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" ht="15">
       <c r="A82" s="27" t="s">
         <v>2367</v>
       </c>
@@ -35821,7 +35830,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" ht="15">
       <c r="A83" s="27" t="s">
         <v>2367</v>
       </c>
@@ -35835,7 +35844,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" ht="15">
       <c r="A84" s="27" t="s">
         <v>2367</v>
       </c>
@@ -35849,7 +35858,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" ht="15">
       <c r="A85" s="27" t="s">
         <v>2367</v>
       </c>
@@ -35863,7 +35872,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" ht="15">
       <c r="A86" s="27" t="s">
         <v>2367</v>
       </c>
@@ -35877,7 +35886,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" ht="15">
       <c r="A87" s="27" t="s">
         <v>2367</v>
       </c>
@@ -35891,7 +35900,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="28">
+    <row r="88" spans="1:4" ht="30">
       <c r="A88" s="27" t="s">
         <v>2404</v>
       </c>
@@ -35905,7 +35914,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" ht="30">
       <c r="A89" s="27" t="s">
         <v>2404</v>
       </c>
@@ -35919,7 +35928,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="28">
+    <row r="90" spans="1:4" ht="30">
       <c r="A90" s="27" t="s">
         <v>2404</v>
       </c>
@@ -35933,7 +35942,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="28">
+    <row r="91" spans="1:4" ht="30">
       <c r="A91" s="27" t="s">
         <v>2404</v>
       </c>
@@ -35947,7 +35956,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" ht="15">
       <c r="A92" s="27"/>
       <c r="B92" s="28" t="s">
         <v>2417</v>
@@ -35959,7 +35968,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" ht="15">
       <c r="A93" s="27"/>
       <c r="B93" s="28" t="s">
         <v>2420</v>
@@ -35971,7 +35980,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.5">
+    <row r="94" spans="1:4" ht="16">
       <c r="A94" s="27" t="s">
         <v>2423</v>
       </c>
@@ -35985,7 +35994,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="14.5">
+    <row r="95" spans="1:4" ht="16">
       <c r="A95" s="27" t="s">
         <v>2423</v>
       </c>
@@ -35999,7 +36008,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" ht="15">
       <c r="A96" s="27" t="s">
         <v>2423</v>
       </c>
@@ -36013,7 +36022,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" ht="15">
       <c r="A97" s="27" t="s">
         <v>2423</v>
       </c>
@@ -36027,7 +36036,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="14.5">
+    <row r="98" spans="1:25" ht="16">
       <c r="A98" s="27" t="s">
         <v>2423</v>
       </c>
@@ -36041,7 +36050,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" ht="15">
       <c r="A99" s="27" t="s">
         <v>2423</v>
       </c>
@@ -36055,7 +36064,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="15.5">
+    <row r="100" spans="1:25" ht="16">
       <c r="A100" s="27" t="s">
         <v>2423</v>
       </c>
@@ -36069,7 +36078,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" ht="15">
       <c r="A101" s="27" t="s">
         <v>2423</v>
       </c>
@@ -36083,7 +36092,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" ht="15">
       <c r="A102" s="27" t="s">
         <v>2423</v>
       </c>
@@ -36097,7 +36106,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="17.5">
+    <row r="103" spans="1:25" ht="18">
       <c r="A103" s="27" t="s">
         <v>2155</v>
       </c>
@@ -36111,7 +36120,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="17.5">
+    <row r="104" spans="1:25" ht="18">
       <c r="A104" s="27" t="s">
         <v>2155</v>
       </c>
@@ -36125,7 +36134,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" ht="15">
       <c r="A105" s="26" t="s">
         <v>2450</v>
       </c>
@@ -36139,7 +36148,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="15.5">
+    <row r="106" spans="1:25" ht="16">
       <c r="A106" s="280" t="s">
         <v>2450</v>
       </c>
@@ -36174,7 +36183,7 @@
       <c r="X106" s="281"/>
       <c r="Y106" s="282"/>
     </row>
-    <row r="107" spans="1:25" ht="15.5">
+    <row r="107" spans="1:25" ht="16">
       <c r="A107" s="283" t="s">
         <v>2450</v>
       </c>
@@ -36279,7 +36288,7 @@
       <c r="X109" s="284"/>
       <c r="Y109" s="285"/>
     </row>
-    <row r="110" spans="1:25" ht="15.5">
+    <row r="110" spans="1:25" ht="16">
       <c r="A110" s="283" t="s">
         <v>2450</v>
       </c>
@@ -36314,7 +36323,7 @@
       <c r="X110" s="284"/>
       <c r="Y110" s="285"/>
     </row>
-    <row r="111" spans="1:25" ht="15.5">
+    <row r="111" spans="1:25" ht="16">
       <c r="A111" s="283" t="s">
         <v>2450</v>
       </c>
@@ -36349,7 +36358,7 @@
       <c r="X111" s="284"/>
       <c r="Y111" s="285"/>
     </row>
-    <row r="112" spans="1:25" ht="15.5">
+    <row r="112" spans="1:25" ht="16">
       <c r="A112" s="283" t="s">
         <v>2450</v>
       </c>
@@ -36419,7 +36428,7 @@
       <c r="X113" s="284"/>
       <c r="Y113" s="285"/>
     </row>
-    <row r="114" spans="1:25" ht="15.5">
+    <row r="114" spans="1:25" ht="16">
       <c r="A114" s="283" t="s">
         <v>2450</v>
       </c>
@@ -36454,7 +36463,7 @@
       <c r="X114" s="284"/>
       <c r="Y114" s="285"/>
     </row>
-    <row r="115" spans="1:25" ht="15.5">
+    <row r="115" spans="1:25" ht="16">
       <c r="A115" s="287" t="s">
         <v>2450</v>
       </c>
@@ -36531,7 +36540,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" ht="15">
       <c r="A119" s="26" t="s">
         <v>2483</v>
       </c>
@@ -36545,7 +36554,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" ht="15">
       <c r="A120" s="26" t="s">
         <v>2495</v>
       </c>
@@ -36559,7 +36568,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="56">
+    <row r="121" spans="1:25" ht="75">
       <c r="A121" s="26" t="s">
         <v>2495</v>
       </c>
@@ -36573,7 +36582,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="28">
+    <row r="122" spans="1:25" ht="45">
       <c r="A122" s="26" t="s">
         <v>2495</v>
       </c>
@@ -36587,7 +36596,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" ht="15">
       <c r="A123" s="26" t="s">
         <v>2495</v>
       </c>
@@ -36601,7 +36610,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" ht="15">
       <c r="A124" s="26" t="s">
         <v>2495</v>
       </c>
@@ -36615,7 +36624,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" ht="15">
       <c r="A125" s="26" t="s">
         <v>2495</v>
       </c>
@@ -36629,7 +36638,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" ht="15">
       <c r="A126" s="26" t="s">
         <v>2495</v>
       </c>
@@ -36643,7 +36652,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" ht="15">
       <c r="A127" s="663" t="s">
         <v>2495</v>
       </c>
@@ -36670,16 +36679,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.4609375" customWidth="1"/>
-    <col min="2" max="2" width="7.3046875" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
     <col min="3" max="3" width="74" customWidth="1"/>
-    <col min="4" max="4" width="61.4609375" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" t="s">
         <v>2519</v>
       </c>
@@ -36693,7 +36702,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="143">
+    <row r="2" spans="1:5" ht="195">
       <c r="A2" t="s">
         <v>2523</v>
       </c>
@@ -36721,7 +36730,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36734,33 +36743,33 @@
   </sheetPr>
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" zoomScale="77" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="77" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="2" width="22" style="29" customWidth="1"/>
     <col min="3" max="3" width="22" style="417" customWidth="1"/>
     <col min="4" max="4" width="22" style="29" customWidth="1"/>
-    <col min="5" max="5" width="24.3046875" style="71" customWidth="1"/>
-    <col min="6" max="6" width="26.84375" style="29" customWidth="1"/>
-    <col min="7" max="7" width="24.69140625" style="71" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="71" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="71" customWidth="1"/>
     <col min="8" max="8" width="27" style="417" customWidth="1"/>
-    <col min="9" max="9" width="38.84375" style="29" customWidth="1"/>
-    <col min="10" max="10" width="35.69140625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="45.4609375" style="417" customWidth="1"/>
-    <col min="12" max="12" width="22.15234375" style="82" customWidth="1"/>
-    <col min="13" max="13" width="30.15234375" style="29" customWidth="1"/>
+    <col min="9" max="9" width="38.83203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="45.5" style="417" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" style="82" customWidth="1"/>
+    <col min="13" max="13" width="30.1640625" style="29" customWidth="1"/>
     <col min="14" max="14" width="16" style="29" customWidth="1"/>
-    <col min="15" max="15" width="18.3046875" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="29" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22" style="29" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26" style="417" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.4609375" style="29" customWidth="1"/>
+    <col min="18" max="18" width="28.5" style="29" customWidth="1"/>
     <col min="19" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="70" customFormat="1" ht="30">
+    <row r="1" spans="1:18" s="70" customFormat="1" ht="32">
       <c r="A1" s="70" t="s">
         <v>804</v>
       </c>
@@ -36813,7 +36822,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="613" customFormat="1" ht="46.5">
+    <row r="2" spans="1:18" s="613" customFormat="1" ht="72">
       <c r="A2" s="742" t="s">
         <v>2529</v>
       </c>
@@ -36862,7 +36871,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="26" customFormat="1" ht="16">
+    <row r="3" spans="1:18" s="26" customFormat="1" ht="18">
       <c r="A3" s="742"/>
       <c r="B3" s="711"/>
       <c r="C3" s="743"/>
@@ -36888,7 +36897,7 @@
       </c>
       <c r="R3" s="29"/>
     </row>
-    <row r="4" spans="1:18" s="26" customFormat="1" ht="16">
+    <row r="4" spans="1:18" s="26" customFormat="1" ht="18">
       <c r="A4" s="742"/>
       <c r="B4" s="711"/>
       <c r="C4" s="743"/>
@@ -36914,7 +36923,7 @@
       </c>
       <c r="R4" s="29"/>
     </row>
-    <row r="5" spans="1:18" s="26" customFormat="1" ht="16">
+    <row r="5" spans="1:18" s="26" customFormat="1" ht="18">
       <c r="A5" s="742"/>
       <c r="B5" s="711"/>
       <c r="C5" s="743"/>
@@ -36940,7 +36949,7 @@
       </c>
       <c r="R5" s="29"/>
     </row>
-    <row r="6" spans="1:18" s="26" customFormat="1" ht="16">
+    <row r="6" spans="1:18" s="26" customFormat="1" ht="18">
       <c r="A6" s="742"/>
       <c r="B6" s="711"/>
       <c r="C6" s="743"/>
@@ -36966,7 +36975,7 @@
       </c>
       <c r="R6" s="29"/>
     </row>
-    <row r="7" spans="1:18" s="26" customFormat="1" ht="16">
+    <row r="7" spans="1:18" s="26" customFormat="1" ht="18">
       <c r="A7" s="742"/>
       <c r="B7" s="711"/>
       <c r="C7" s="743"/>
@@ -36992,7 +37001,7 @@
       </c>
       <c r="R7" s="29"/>
     </row>
-    <row r="8" spans="1:18" s="26" customFormat="1" ht="16">
+    <row r="8" spans="1:18" s="26" customFormat="1" ht="18">
       <c r="A8" s="742"/>
       <c r="B8" s="711"/>
       <c r="C8" s="743"/>
@@ -37018,7 +37027,7 @@
       </c>
       <c r="R8" s="29"/>
     </row>
-    <row r="9" spans="1:18" s="26" customFormat="1" ht="16">
+    <row r="9" spans="1:18" s="26" customFormat="1" ht="18">
       <c r="A9" s="742"/>
       <c r="B9" s="711"/>
       <c r="C9" s="743"/>
@@ -37044,7 +37053,7 @@
       </c>
       <c r="R9" s="29"/>
     </row>
-    <row r="10" spans="1:18" s="26" customFormat="1" ht="16">
+    <row r="10" spans="1:18" s="26" customFormat="1" ht="18">
       <c r="A10" s="742"/>
       <c r="B10" s="711"/>
       <c r="C10" s="743"/>
@@ -37070,7 +37079,7 @@
       </c>
       <c r="R10" s="29"/>
     </row>
-    <row r="11" spans="1:18" s="26" customFormat="1" ht="16">
+    <row r="11" spans="1:18" s="26" customFormat="1" ht="18">
       <c r="A11" s="742"/>
       <c r="B11" s="711"/>
       <c r="C11" s="743"/>
@@ -37096,7 +37105,7 @@
       </c>
       <c r="R11" s="29"/>
     </row>
-    <row r="12" spans="1:18" s="26" customFormat="1" ht="16">
+    <row r="12" spans="1:18" s="26" customFormat="1" ht="18">
       <c r="A12" s="742"/>
       <c r="B12" s="711"/>
       <c r="C12" s="743"/>
@@ -37122,7 +37131,7 @@
       </c>
       <c r="R12" s="29"/>
     </row>
-    <row r="13" spans="1:18" s="26" customFormat="1" ht="16">
+    <row r="13" spans="1:18" s="26" customFormat="1" ht="18">
       <c r="A13" s="742"/>
       <c r="B13" s="711"/>
       <c r="C13" s="743"/>
@@ -37148,7 +37157,7 @@
       </c>
       <c r="R13" s="29"/>
     </row>
-    <row r="14" spans="1:18" s="26" customFormat="1" ht="93">
+    <row r="14" spans="1:18" s="26" customFormat="1" ht="108">
       <c r="A14" s="742"/>
       <c r="B14" s="711"/>
       <c r="C14" s="743"/>
@@ -37186,7 +37195,7 @@
       <c r="Q14" s="617"/>
       <c r="R14" s="29"/>
     </row>
-    <row r="15" spans="1:18" s="26" customFormat="1" ht="31">
+    <row r="15" spans="1:18" s="26" customFormat="1" ht="36">
       <c r="A15" s="742"/>
       <c r="B15" s="711"/>
       <c r="C15" s="743"/>
@@ -37210,7 +37219,7 @@
       <c r="Q15" s="461"/>
       <c r="R15" s="29"/>
     </row>
-    <row r="16" spans="1:18" s="342" customFormat="1" ht="45">
+    <row r="16" spans="1:18" s="342" customFormat="1" ht="64">
       <c r="A16" s="742"/>
       <c r="B16" s="711"/>
       <c r="C16" s="743"/>
@@ -37247,7 +37256,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="342" customFormat="1">
+    <row r="17" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A17" s="742"/>
       <c r="B17" s="711"/>
       <c r="C17" s="743"/>
@@ -37272,7 +37281,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="342" customFormat="1" ht="31">
+    <row r="18" spans="1:17" s="342" customFormat="1" ht="36">
       <c r="A18" s="742"/>
       <c r="B18" s="711"/>
       <c r="C18" s="743"/>
@@ -37309,7 +37318,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="342" customFormat="1">
+    <row r="19" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A19" s="384"/>
       <c r="B19" s="1"/>
       <c r="C19" s="608"/>
@@ -37334,7 +37343,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="342" customFormat="1">
+    <row r="20" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A20" s="384"/>
       <c r="B20" s="1"/>
       <c r="C20" s="608"/>
@@ -37359,7 +37368,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="342" customFormat="1">
+    <row r="21" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A21" s="384"/>
       <c r="B21" s="1"/>
       <c r="C21" s="608"/>
@@ -37384,7 +37393,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="342" customFormat="1">
+    <row r="22" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A22" s="384"/>
       <c r="B22" s="1"/>
       <c r="C22" s="608"/>
@@ -37409,7 +37418,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="342" customFormat="1">
+    <row r="23" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A23" s="384"/>
       <c r="B23" s="1"/>
       <c r="C23" s="608"/>
@@ -37434,7 +37443,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="342" customFormat="1">
+    <row r="24" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A24" s="384"/>
       <c r="B24" s="1"/>
       <c r="C24" s="608"/>
@@ -37459,7 +37468,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="342" customFormat="1">
+    <row r="25" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A25" s="384"/>
       <c r="B25" s="1"/>
       <c r="C25" s="608"/>
@@ -37484,7 +37493,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="342" customFormat="1">
+    <row r="26" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A26" s="384"/>
       <c r="B26" s="1"/>
       <c r="C26" s="608"/>
@@ -37509,7 +37518,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="342" customFormat="1">
+    <row r="27" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A27" s="384"/>
       <c r="B27" s="1"/>
       <c r="C27" s="608"/>
@@ -37534,7 +37543,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="342" customFormat="1">
+    <row r="28" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A28" s="384"/>
       <c r="B28" s="1"/>
       <c r="C28" s="608"/>
@@ -37559,7 +37568,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="342" customFormat="1">
+    <row r="29" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A29" s="384"/>
       <c r="B29" s="1"/>
       <c r="C29" s="608"/>
@@ -37584,7 +37593,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="342" customFormat="1">
+    <row r="30" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A30" s="384"/>
       <c r="B30" s="1"/>
       <c r="C30" s="608"/>
@@ -37609,7 +37618,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="342" customFormat="1">
+    <row r="31" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A31" s="384"/>
       <c r="B31" s="1"/>
       <c r="C31" s="608"/>
@@ -37634,7 +37643,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="342" customFormat="1">
+    <row r="32" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A32" s="384"/>
       <c r="B32" s="1"/>
       <c r="C32" s="608"/>
@@ -37659,7 +37668,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="342" customFormat="1">
+    <row r="33" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A33" s="384"/>
       <c r="B33" s="1"/>
       <c r="C33" s="608"/>
@@ -37684,7 +37693,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="342" customFormat="1">
+    <row r="34" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A34" s="384"/>
       <c r="B34" s="1"/>
       <c r="C34" s="608"/>
@@ -37709,7 +37718,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="342" customFormat="1">
+    <row r="35" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A35" s="384"/>
       <c r="B35" s="1"/>
       <c r="C35" s="608"/>
@@ -37734,7 +37743,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="342" customFormat="1">
+    <row r="36" spans="1:17" s="342" customFormat="1" ht="18">
       <c r="A36" s="384"/>
       <c r="B36" s="1"/>
       <c r="C36" s="608"/>
@@ -37759,7 +37768,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="70">
+    <row r="37" spans="1:17" ht="90">
       <c r="A37" s="744" t="s">
         <v>2589</v>
       </c>
@@ -37794,8 +37803,8 @@
         <v>2597</v>
       </c>
       <c r="L37" s="80"/>
-      <c r="M37" s="47" t="s">
-        <v>2638</v>
+      <c r="M37" s="748" t="s">
+        <v>2642</v>
       </c>
       <c r="N37" s="81" t="s">
         <v>2598</v>
@@ -37810,7 +37819,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" ht="18">
       <c r="A38" s="745"/>
       <c r="B38" s="746"/>
       <c r="C38" s="747"/>
@@ -37835,7 +37844,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="46.5">
+    <row r="39" spans="1:17" ht="72">
       <c r="A39" s="745"/>
       <c r="B39" s="746"/>
       <c r="C39" s="747"/>
@@ -37864,7 +37873,7 @@
         <v>2606</v>
       </c>
       <c r="L39" s="101"/>
-      <c r="M39" s="88" t="s">
+      <c r="M39" s="748" t="s">
         <v>872</v>
       </c>
       <c r="N39" s="81"/>
@@ -37878,7 +37887,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="16">
+    <row r="40" spans="1:17" ht="18">
       <c r="A40" s="745"/>
       <c r="B40" s="746"/>
       <c r="C40" s="747"/>
@@ -37903,7 +37912,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="16">
+    <row r="41" spans="1:17" ht="18">
       <c r="A41" s="745"/>
       <c r="B41" s="746"/>
       <c r="C41" s="747"/>
@@ -37928,7 +37937,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="16">
+    <row r="42" spans="1:17" ht="18">
       <c r="A42" s="745"/>
       <c r="B42" s="746"/>
       <c r="C42" s="747"/>
@@ -37953,7 +37962,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="16">
+    <row r="43" spans="1:17" ht="18">
       <c r="A43" s="745"/>
       <c r="B43" s="746"/>
       <c r="C43" s="747"/>
@@ -37978,7 +37987,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="16">
+    <row r="44" spans="1:17" ht="18">
       <c r="A44" s="745"/>
       <c r="B44" s="746"/>
       <c r="C44" s="747"/>
@@ -38003,7 +38012,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="32">
+    <row r="45" spans="1:17" ht="34">
       <c r="A45" s="745"/>
       <c r="B45" s="746"/>
       <c r="C45" s="747"/>
@@ -38028,7 +38037,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="16">
+    <row r="46" spans="1:17" ht="18">
       <c r="A46" s="745"/>
       <c r="B46" s="746"/>
       <c r="C46" s="747"/>
@@ -38053,7 +38062,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="16">
+    <row r="47" spans="1:17" ht="18">
       <c r="A47" s="745"/>
       <c r="B47" s="746"/>
       <c r="C47" s="747"/>
@@ -38078,7 +38087,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="16">
+    <row r="48" spans="1:17" ht="18">
       <c r="A48" s="745"/>
       <c r="B48" s="746"/>
       <c r="C48" s="747"/>
@@ -38103,7 +38112,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="16">
+    <row r="49" spans="1:17" ht="18">
       <c r="A49" s="745"/>
       <c r="B49" s="746"/>
       <c r="C49" s="747"/>
@@ -38128,7 +38137,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="16">
+    <row r="50" spans="1:17" ht="18">
       <c r="A50" s="745"/>
       <c r="B50" s="746"/>
       <c r="C50" s="747"/>
@@ -38153,7 +38162,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="16">
+    <row r="51" spans="1:17" ht="18">
       <c r="A51" s="745"/>
       <c r="B51" s="746"/>
       <c r="C51" s="747"/>
@@ -38178,7 +38187,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="16">
+    <row r="52" spans="1:17" ht="18">
       <c r="A52" s="745"/>
       <c r="B52" s="746"/>
       <c r="C52" s="747"/>
@@ -38203,7 +38212,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="16">
+    <row r="53" spans="1:17" ht="18">
       <c r="A53" s="745"/>
       <c r="B53" s="746"/>
       <c r="C53" s="747"/>
@@ -38228,7 +38237,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="16">
+    <row r="54" spans="1:17" ht="18">
       <c r="A54" s="745"/>
       <c r="B54" s="746"/>
       <c r="C54" s="747"/>
@@ -38290,6 +38299,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A595C2436754DD4192B3BEE0FFE1ED0A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93ba19257e65125414350f132367e985">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00591925-1995-4bf8-8d28-1f7cbeda4924" xmlns:ns3="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2a6491f746e84da8ae5f2642b9bcf21" ns2:_="" ns3:_="">
     <xsd:import namespace="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
@@ -38518,27 +38547,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
+    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B4B015-2F19-4BB0-A14D-E91581C50494}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38555,23 +38583,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
-    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/media/uploads/U_find_31_12_24.xlsx
+++ b/media/uploads/U_find_31_12_24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Code/Code/excel_to_app/excel_to_app_web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61FCFDB-7665-D440-BF99-83DF69B10651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FBFE32-453F-9E4B-BC0C-09DF150775CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" tabRatio="603" firstSheet="1" activeTab="8" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" tabRatio="603" firstSheet="1" activeTab="2" xr2:uid="{98118860-C578-4587-916B-A7E3CA3C03BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions - Idea Log" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="2643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="2643">
   <si>
     <t>MvP Version - iv ( 15 Jan 25)- Comments and Suggestion</t>
   </si>
@@ -19620,6 +19620,7 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -19639,6 +19640,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -19648,7 +19667,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19665,6 +19684,9 @@
     <xf numFmtId="0" fontId="171" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -19683,123 +19705,102 @@
     <xf numFmtId="0" fontId="171" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="176" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="176" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="176" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="176" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="174" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="174" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="174" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="78" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -19818,7 +19819,6 @@
     <xf numFmtId="0" fontId="176" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20249,29 +20249,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15">
-      <c r="A1" s="682"/>
-      <c r="B1" s="683"/>
-      <c r="C1" s="683"/>
-      <c r="D1" s="683"/>
-      <c r="E1" s="683"/>
-      <c r="F1" s="683"/>
-      <c r="G1" s="683"/>
-      <c r="H1" s="683"/>
-      <c r="I1" s="683"/>
-      <c r="J1" s="684"/>
-      <c r="N1" s="685" t="s">
+      <c r="A1" s="683"/>
+      <c r="B1" s="684"/>
+      <c r="C1" s="684"/>
+      <c r="D1" s="684"/>
+      <c r="E1" s="684"/>
+      <c r="F1" s="684"/>
+      <c r="G1" s="684"/>
+      <c r="H1" s="684"/>
+      <c r="I1" s="684"/>
+      <c r="J1" s="685"/>
+      <c r="N1" s="686" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="685"/>
-      <c r="P1" s="685"/>
+      <c r="O1" s="686"/>
+      <c r="P1" s="686"/>
       <c r="Q1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="686" t="s">
+      <c r="R1" s="687" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="686"/>
-      <c r="T1" s="686"/>
+      <c r="S1" s="687"/>
+      <c r="T1" s="687"/>
       <c r="U1" s="113" t="s">
         <v>1</v>
       </c>
@@ -24293,8 +24293,8 @@
   </sheetPr>
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19.5" customHeight="1"/>
@@ -24371,13 +24371,13 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="170">
-      <c r="A2" s="687" t="s">
+      <c r="A2" s="688" t="s">
         <v>820</v>
       </c>
-      <c r="B2" s="687" t="s">
+      <c r="B2" s="688" t="s">
         <v>821</v>
       </c>
-      <c r="C2" s="687" t="s">
+      <c r="C2" s="688" t="s">
         <v>822</v>
       </c>
       <c r="D2" s="344" t="s">
@@ -24405,24 +24405,18 @@
         <v>830</v>
       </c>
       <c r="L2" s="307"/>
-      <c r="M2" s="293" t="s">
-        <v>2638</v>
+      <c r="M2" s="234" t="s">
+        <v>859</v>
       </c>
       <c r="N2" s="362"/>
-      <c r="O2" s="641" t="s">
-        <v>836</v>
-      </c>
-      <c r="P2" s="641" t="s">
-        <v>837</v>
-      </c>
-      <c r="Q2" s="538" t="s">
-        <v>838</v>
-      </c>
+      <c r="O2" s="641"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="538"/>
     </row>
     <row r="3" spans="1:17" ht="30">
-      <c r="A3" s="687"/>
-      <c r="B3" s="687"/>
-      <c r="C3" s="687"/>
+      <c r="A3" s="688"/>
+      <c r="B3" s="688"/>
+      <c r="C3" s="688"/>
       <c r="D3" s="344" t="s">
         <v>831</v>
       </c>
@@ -24457,9 +24451,9 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18">
-      <c r="A4" s="687"/>
-      <c r="B4" s="687"/>
-      <c r="C4" s="687"/>
+      <c r="A4" s="688"/>
+      <c r="B4" s="688"/>
+      <c r="C4" s="688"/>
       <c r="D4" s="344"/>
       <c r="E4" s="304"/>
       <c r="F4" s="368"/>
@@ -24482,9 +24476,9 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="45" customHeight="1">
-      <c r="A5" s="687"/>
-      <c r="B5" s="687"/>
-      <c r="C5" s="687"/>
+      <c r="A5" s="688"/>
+      <c r="B5" s="688"/>
+      <c r="C5" s="688"/>
       <c r="D5" s="344" t="s">
         <v>842</v>
       </c>
@@ -24519,9 +24513,9 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="45" customHeight="1">
-      <c r="A6" s="687"/>
-      <c r="B6" s="687"/>
-      <c r="C6" s="687"/>
+      <c r="A6" s="688"/>
+      <c r="B6" s="688"/>
+      <c r="C6" s="688"/>
       <c r="D6" s="344"/>
       <c r="E6" s="304"/>
       <c r="F6" s="400"/>
@@ -24544,9 +24538,9 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="101.25" customHeight="1">
-      <c r="A7" s="687"/>
-      <c r="B7" s="687"/>
-      <c r="C7" s="687"/>
+      <c r="A7" s="688"/>
+      <c r="B7" s="688"/>
+      <c r="C7" s="688"/>
       <c r="D7" s="344" t="s">
         <v>847</v>
       </c>
@@ -24587,9 +24581,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="18">
-      <c r="A8" s="687"/>
-      <c r="B8" s="687"/>
-      <c r="C8" s="687"/>
+      <c r="A8" s="688"/>
+      <c r="B8" s="688"/>
+      <c r="C8" s="688"/>
       <c r="D8" s="344"/>
       <c r="E8" s="234"/>
       <c r="F8" s="272"/>
@@ -24612,9 +24606,9 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1">
-      <c r="A9" s="687"/>
-      <c r="B9" s="687"/>
-      <c r="C9" s="687"/>
+      <c r="A9" s="688"/>
+      <c r="B9" s="688"/>
+      <c r="C9" s="688"/>
       <c r="D9" s="344" t="s">
         <v>853</v>
       </c>
@@ -24651,9 +24645,9 @@
       <c r="Q9" s="413"/>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1">
-      <c r="A10" s="687"/>
-      <c r="B10" s="687"/>
-      <c r="C10" s="687"/>
+      <c r="A10" s="688"/>
+      <c r="B10" s="688"/>
+      <c r="C10" s="688"/>
       <c r="D10" s="344" t="s">
         <v>860</v>
       </c>
@@ -24688,9 +24682,9 @@
       <c r="Q10" s="413"/>
     </row>
     <row r="11" spans="1:17" s="36" customFormat="1" ht="144" customHeight="1">
-      <c r="A11" s="687"/>
-      <c r="B11" s="687"/>
-      <c r="C11" s="687"/>
+      <c r="A11" s="688"/>
+      <c r="B11" s="688"/>
+      <c r="C11" s="688"/>
       <c r="D11" s="344" t="s">
         <v>866</v>
       </c>
@@ -24733,9 +24727,9 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="72">
-      <c r="A12" s="687"/>
-      <c r="B12" s="687"/>
-      <c r="C12" s="687"/>
+      <c r="A12" s="688"/>
+      <c r="B12" s="688"/>
+      <c r="C12" s="688"/>
       <c r="D12" s="344"/>
       <c r="E12" s="234"/>
       <c r="F12" s="275"/>
@@ -24758,9 +24752,9 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="90">
-      <c r="A13" s="687"/>
-      <c r="B13" s="687"/>
-      <c r="C13" s="687"/>
+      <c r="A13" s="688"/>
+      <c r="B13" s="688"/>
+      <c r="C13" s="688"/>
       <c r="D13" s="344"/>
       <c r="E13" s="234"/>
       <c r="F13" s="275"/>
@@ -24783,9 +24777,9 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="108">
-      <c r="A14" s="687"/>
-      <c r="B14" s="687"/>
-      <c r="C14" s="687"/>
+      <c r="A14" s="688"/>
+      <c r="B14" s="688"/>
+      <c r="C14" s="688"/>
       <c r="D14" s="344"/>
       <c r="E14" s="234"/>
       <c r="F14" s="275"/>
@@ -24808,9 +24802,9 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="84.75" customHeight="1">
-      <c r="A15" s="687"/>
-      <c r="B15" s="687"/>
-      <c r="C15" s="687"/>
+      <c r="A15" s="688"/>
+      <c r="B15" s="688"/>
+      <c r="C15" s="688"/>
       <c r="D15" s="344"/>
       <c r="E15" s="234"/>
       <c r="F15" s="275"/>
@@ -24833,9 +24827,9 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="18">
-      <c r="A16" s="687"/>
-      <c r="B16" s="687"/>
-      <c r="C16" s="687"/>
+      <c r="A16" s="688"/>
+      <c r="B16" s="688"/>
+      <c r="C16" s="688"/>
       <c r="D16" s="344"/>
       <c r="E16" s="234"/>
       <c r="F16" s="275"/>
@@ -24858,9 +24852,9 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="18">
-      <c r="A17" s="687"/>
-      <c r="B17" s="687"/>
-      <c r="C17" s="687"/>
+      <c r="A17" s="688"/>
+      <c r="B17" s="688"/>
+      <c r="C17" s="688"/>
       <c r="D17" s="344"/>
       <c r="E17" s="234"/>
       <c r="F17" s="275"/>
@@ -25004,7 +24998,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N3" sqref="N3"/>
+      <selection pane="topRight" activeCell="O7" sqref="O7:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19.5" customHeight="1"/>
@@ -25084,13 +25078,13 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="30">
-      <c r="A2" s="703" t="s">
+      <c r="A2" s="689" t="s">
         <v>895</v>
       </c>
-      <c r="B2" s="703" t="s">
+      <c r="B2" s="689" t="s">
         <v>896</v>
       </c>
-      <c r="C2" s="706" t="s">
+      <c r="C2" s="692" t="s">
         <v>897</v>
       </c>
       <c r="D2" s="119" t="s">
@@ -25128,9 +25122,9 @@
       <c r="Q2" s="404"/>
     </row>
     <row r="3" spans="1:17" ht="30">
-      <c r="A3" s="704"/>
-      <c r="B3" s="704"/>
-      <c r="C3" s="707"/>
+      <c r="A3" s="690"/>
+      <c r="B3" s="690"/>
+      <c r="C3" s="693"/>
       <c r="D3" s="119" t="s">
         <v>904</v>
       </c>
@@ -25167,9 +25161,9 @@
       <c r="Q3" s="405"/>
     </row>
     <row r="4" spans="1:17" ht="62.25" customHeight="1">
-      <c r="A4" s="704"/>
-      <c r="B4" s="704"/>
-      <c r="C4" s="707"/>
+      <c r="A4" s="690"/>
+      <c r="B4" s="690"/>
+      <c r="C4" s="693"/>
       <c r="D4" s="119" t="s">
         <v>909</v>
       </c>
@@ -25212,9 +25206,9 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="17">
-      <c r="A5" s="704"/>
-      <c r="B5" s="704"/>
-      <c r="C5" s="707"/>
+      <c r="A5" s="690"/>
+      <c r="B5" s="690"/>
+      <c r="C5" s="693"/>
       <c r="D5" s="119"/>
       <c r="E5" s="390"/>
       <c r="F5" s="48"/>
@@ -25237,9 +25231,9 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="17">
-      <c r="A6" s="704"/>
-      <c r="B6" s="704"/>
-      <c r="C6" s="707"/>
+      <c r="A6" s="690"/>
+      <c r="B6" s="690"/>
+      <c r="C6" s="693"/>
       <c r="D6" s="119"/>
       <c r="E6" s="390"/>
       <c r="F6" s="48"/>
@@ -25262,9 +25256,9 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="77.25" customHeight="1">
-      <c r="A7" s="704"/>
-      <c r="B7" s="704"/>
-      <c r="C7" s="707"/>
+      <c r="A7" s="690"/>
+      <c r="B7" s="690"/>
+      <c r="C7" s="693"/>
       <c r="D7" s="119" t="s">
         <v>924</v>
       </c>
@@ -25307,9 +25301,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1">
-      <c r="A8" s="704"/>
-      <c r="B8" s="704"/>
-      <c r="C8" s="707"/>
+      <c r="A8" s="690"/>
+      <c r="B8" s="690"/>
+      <c r="C8" s="693"/>
       <c r="D8" s="119"/>
       <c r="E8" s="390"/>
       <c r="F8" s="48"/>
@@ -25332,9 +25326,9 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1">
-      <c r="A9" s="704"/>
-      <c r="B9" s="704"/>
-      <c r="C9" s="707"/>
+      <c r="A9" s="690"/>
+      <c r="B9" s="690"/>
+      <c r="C9" s="693"/>
       <c r="D9" s="119"/>
       <c r="E9" s="390"/>
       <c r="F9" s="48"/>
@@ -25357,9 +25351,9 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1">
-      <c r="A10" s="704"/>
-      <c r="B10" s="704"/>
-      <c r="C10" s="707"/>
+      <c r="A10" s="690"/>
+      <c r="B10" s="690"/>
+      <c r="C10" s="693"/>
       <c r="D10" s="119"/>
       <c r="E10" s="390"/>
       <c r="F10" s="48"/>
@@ -25382,9 +25376,9 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="45" customHeight="1">
-      <c r="A11" s="704"/>
-      <c r="B11" s="704"/>
-      <c r="C11" s="707"/>
+      <c r="A11" s="690"/>
+      <c r="B11" s="690"/>
+      <c r="C11" s="693"/>
       <c r="D11" s="119"/>
       <c r="E11" s="390"/>
       <c r="F11" s="48"/>
@@ -25407,9 +25401,9 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="63" customHeight="1">
-      <c r="A12" s="704"/>
-      <c r="B12" s="704"/>
-      <c r="C12" s="707"/>
+      <c r="A12" s="690"/>
+      <c r="B12" s="690"/>
+      <c r="C12" s="693"/>
       <c r="D12" s="119" t="s">
         <v>944</v>
       </c>
@@ -25452,9 +25446,9 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="17">
-      <c r="A13" s="704"/>
-      <c r="B13" s="704"/>
-      <c r="C13" s="707"/>
+      <c r="A13" s="690"/>
+      <c r="B13" s="690"/>
+      <c r="C13" s="693"/>
       <c r="D13" s="119"/>
       <c r="E13" s="390"/>
       <c r="F13" s="48"/>
@@ -25479,9 +25473,9 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="59.25" customHeight="1">
-      <c r="A14" s="704"/>
-      <c r="B14" s="704"/>
-      <c r="C14" s="707"/>
+      <c r="A14" s="690"/>
+      <c r="B14" s="690"/>
+      <c r="C14" s="693"/>
       <c r="D14" s="119" t="s">
         <v>957</v>
       </c>
@@ -25518,9 +25512,9 @@
       <c r="Q14" s="404"/>
     </row>
     <row r="15" spans="1:17" ht="141.75" customHeight="1">
-      <c r="A15" s="704"/>
-      <c r="B15" s="704"/>
-      <c r="C15" s="707"/>
+      <c r="A15" s="690"/>
+      <c r="B15" s="690"/>
+      <c r="C15" s="693"/>
       <c r="D15" s="119" t="s">
         <v>963</v>
       </c>
@@ -25561,9 +25555,9 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="52.5" customHeight="1">
-      <c r="A16" s="704"/>
-      <c r="B16" s="704"/>
-      <c r="C16" s="707"/>
+      <c r="A16" s="690"/>
+      <c r="B16" s="690"/>
+      <c r="C16" s="693"/>
       <c r="D16" s="119" t="s">
         <v>971</v>
       </c>
@@ -25604,9 +25598,9 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="65.25" customHeight="1">
-      <c r="A17" s="704"/>
-      <c r="B17" s="704"/>
-      <c r="C17" s="707"/>
+      <c r="A17" s="690"/>
+      <c r="B17" s="690"/>
+      <c r="C17" s="693"/>
       <c r="D17" s="119" t="s">
         <v>980</v>
       </c>
@@ -25643,9 +25637,9 @@
       <c r="Q17" s="404"/>
     </row>
     <row r="18" spans="1:17" ht="45" customHeight="1">
-      <c r="A18" s="704"/>
-      <c r="B18" s="704"/>
-      <c r="C18" s="707"/>
+      <c r="A18" s="690"/>
+      <c r="B18" s="690"/>
+      <c r="C18" s="693"/>
       <c r="D18" s="119" t="s">
         <v>989</v>
       </c>
@@ -25682,9 +25676,9 @@
       <c r="Q18" s="404"/>
     </row>
     <row r="19" spans="1:17" ht="62.25" customHeight="1">
-      <c r="A19" s="705"/>
-      <c r="B19" s="705"/>
-      <c r="C19" s="708"/>
+      <c r="A19" s="691"/>
+      <c r="B19" s="691"/>
+      <c r="C19" s="694"/>
       <c r="D19" s="119" t="s">
         <v>992</v>
       </c>
@@ -25719,13 +25713,13 @@
       <c r="Q19" s="404"/>
     </row>
     <row r="20" spans="1:17" ht="90">
-      <c r="A20" s="688" t="s">
+      <c r="A20" s="695" t="s">
         <v>996</v>
       </c>
-      <c r="B20" s="709" t="s">
+      <c r="B20" s="698" t="s">
         <v>997</v>
       </c>
-      <c r="C20" s="694" t="s">
+      <c r="C20" s="701" t="s">
         <v>998</v>
       </c>
       <c r="D20" s="387" t="s">
@@ -25770,9 +25764,9 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="17">
-      <c r="A21" s="689"/>
-      <c r="B21" s="692"/>
-      <c r="C21" s="695"/>
+      <c r="A21" s="696"/>
+      <c r="B21" s="699"/>
+      <c r="C21" s="702"/>
       <c r="D21" s="387"/>
       <c r="E21" s="391"/>
       <c r="F21" s="297"/>
@@ -25795,9 +25789,9 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="17">
-      <c r="A22" s="689"/>
-      <c r="B22" s="692"/>
-      <c r="C22" s="695"/>
+      <c r="A22" s="696"/>
+      <c r="B22" s="699"/>
+      <c r="C22" s="702"/>
       <c r="D22" s="387"/>
       <c r="E22" s="391"/>
       <c r="F22" s="297"/>
@@ -25820,9 +25814,9 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="36">
-      <c r="A23" s="689"/>
-      <c r="B23" s="692"/>
-      <c r="C23" s="695"/>
+      <c r="A23" s="696"/>
+      <c r="B23" s="699"/>
+      <c r="C23" s="702"/>
       <c r="D23" s="387"/>
       <c r="E23" s="391"/>
       <c r="F23" s="297"/>
@@ -25845,9 +25839,9 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="32">
-      <c r="A24" s="689"/>
-      <c r="B24" s="692"/>
-      <c r="C24" s="695"/>
+      <c r="A24" s="696"/>
+      <c r="B24" s="699"/>
+      <c r="C24" s="702"/>
       <c r="D24" s="387"/>
       <c r="E24" s="391"/>
       <c r="F24" s="297"/>
@@ -25870,9 +25864,9 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="17">
-      <c r="A25" s="689"/>
-      <c r="B25" s="692"/>
-      <c r="C25" s="695"/>
+      <c r="A25" s="696"/>
+      <c r="B25" s="699"/>
+      <c r="C25" s="702"/>
       <c r="D25" s="387"/>
       <c r="E25" s="391"/>
       <c r="F25" s="297"/>
@@ -25895,9 +25889,9 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="17">
-      <c r="A26" s="689"/>
-      <c r="B26" s="692"/>
-      <c r="C26" s="695"/>
+      <c r="A26" s="696"/>
+      <c r="B26" s="699"/>
+      <c r="C26" s="702"/>
       <c r="D26" s="387"/>
       <c r="E26" s="391"/>
       <c r="F26" s="297"/>
@@ -25920,9 +25914,9 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="17">
-      <c r="A27" s="689"/>
-      <c r="B27" s="692"/>
-      <c r="C27" s="695"/>
+      <c r="A27" s="696"/>
+      <c r="B27" s="699"/>
+      <c r="C27" s="702"/>
       <c r="D27" s="387"/>
       <c r="E27" s="391"/>
       <c r="F27" s="297"/>
@@ -25945,9 +25939,9 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="90">
-      <c r="A28" s="689"/>
-      <c r="B28" s="692"/>
-      <c r="C28" s="695"/>
+      <c r="A28" s="696"/>
+      <c r="B28" s="699"/>
+      <c r="C28" s="702"/>
       <c r="D28" s="387" t="s">
         <v>1029</v>
       </c>
@@ -25990,9 +25984,9 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="17">
-      <c r="A29" s="689"/>
-      <c r="B29" s="692"/>
-      <c r="C29" s="695"/>
+      <c r="A29" s="696"/>
+      <c r="B29" s="699"/>
+      <c r="C29" s="702"/>
       <c r="D29" s="387"/>
       <c r="E29" s="392"/>
       <c r="F29" s="298"/>
@@ -26015,9 +26009,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="17">
-      <c r="A30" s="689"/>
-      <c r="B30" s="692"/>
-      <c r="C30" s="695"/>
+      <c r="A30" s="696"/>
+      <c r="B30" s="699"/>
+      <c r="C30" s="702"/>
       <c r="D30" s="387"/>
       <c r="E30" s="392"/>
       <c r="F30" s="298"/>
@@ -26040,9 +26034,9 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17">
-      <c r="A31" s="689"/>
-      <c r="B31" s="692"/>
-      <c r="C31" s="695"/>
+      <c r="A31" s="696"/>
+      <c r="B31" s="699"/>
+      <c r="C31" s="702"/>
       <c r="D31" s="387"/>
       <c r="E31" s="392"/>
       <c r="F31" s="298"/>
@@ -26065,9 +26059,9 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="17">
-      <c r="A32" s="689"/>
-      <c r="B32" s="692"/>
-      <c r="C32" s="695"/>
+      <c r="A32" s="696"/>
+      <c r="B32" s="699"/>
+      <c r="C32" s="702"/>
       <c r="D32" s="387"/>
       <c r="E32" s="392"/>
       <c r="F32" s="298"/>
@@ -26090,9 +26084,9 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="17">
-      <c r="A33" s="689"/>
-      <c r="B33" s="692"/>
-      <c r="C33" s="695"/>
+      <c r="A33" s="696"/>
+      <c r="B33" s="699"/>
+      <c r="C33" s="702"/>
       <c r="D33" s="387"/>
       <c r="E33" s="392"/>
       <c r="F33" s="298"/>
@@ -26115,9 +26109,9 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="17">
-      <c r="A34" s="689"/>
-      <c r="B34" s="692"/>
-      <c r="C34" s="695"/>
+      <c r="A34" s="696"/>
+      <c r="B34" s="699"/>
+      <c r="C34" s="702"/>
       <c r="D34" s="387"/>
       <c r="E34" s="392"/>
       <c r="F34" s="298"/>
@@ -26140,9 +26134,9 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="17">
-      <c r="A35" s="689"/>
-      <c r="B35" s="692"/>
-      <c r="C35" s="695"/>
+      <c r="A35" s="696"/>
+      <c r="B35" s="699"/>
+      <c r="C35" s="702"/>
       <c r="D35" s="387"/>
       <c r="E35" s="392"/>
       <c r="F35" s="298"/>
@@ -26165,9 +26159,9 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="17">
-      <c r="A36" s="689"/>
-      <c r="B36" s="692"/>
-      <c r="C36" s="695"/>
+      <c r="A36" s="696"/>
+      <c r="B36" s="699"/>
+      <c r="C36" s="702"/>
       <c r="D36" s="387"/>
       <c r="E36" s="392"/>
       <c r="F36" s="298"/>
@@ -26191,9 +26185,9 @@
       <c r="R36" s="663"/>
     </row>
     <row r="37" spans="1:18" ht="90">
-      <c r="A37" s="690"/>
-      <c r="B37" s="693"/>
-      <c r="C37" s="696"/>
+      <c r="A37" s="697"/>
+      <c r="B37" s="700"/>
+      <c r="C37" s="703"/>
       <c r="D37" s="387" t="s">
         <v>1063</v>
       </c>
@@ -26380,13 +26374,13 @@
       <c r="R43" s="663"/>
     </row>
     <row r="44" spans="1:18" ht="45">
-      <c r="A44" s="688" t="s">
+      <c r="A44" s="695" t="s">
         <v>1088</v>
       </c>
-      <c r="B44" s="691" t="s">
+      <c r="B44" s="704" t="s">
         <v>1089</v>
       </c>
-      <c r="C44" s="694" t="s">
+      <c r="C44" s="701" t="s">
         <v>1090</v>
       </c>
       <c r="D44" s="387" t="s">
@@ -26431,9 +26425,9 @@
       </c>
     </row>
     <row r="45" spans="1:18" ht="17">
-      <c r="A45" s="689"/>
-      <c r="B45" s="692"/>
-      <c r="C45" s="695"/>
+      <c r="A45" s="696"/>
+      <c r="B45" s="699"/>
+      <c r="C45" s="702"/>
       <c r="D45" s="387"/>
       <c r="E45" s="394"/>
       <c r="F45" s="75"/>
@@ -26456,9 +26450,9 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="34">
-      <c r="A46" s="689"/>
-      <c r="B46" s="692"/>
-      <c r="C46" s="695"/>
+      <c r="A46" s="696"/>
+      <c r="B46" s="699"/>
+      <c r="C46" s="702"/>
       <c r="D46" s="387"/>
       <c r="E46" s="394"/>
       <c r="F46" s="75"/>
@@ -26481,9 +26475,9 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="17">
-      <c r="A47" s="689"/>
-      <c r="B47" s="692"/>
-      <c r="C47" s="695"/>
+      <c r="A47" s="696"/>
+      <c r="B47" s="699"/>
+      <c r="C47" s="702"/>
       <c r="D47" s="387"/>
       <c r="E47" s="394"/>
       <c r="F47" s="75"/>
@@ -26506,9 +26500,9 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="34">
-      <c r="A48" s="689"/>
-      <c r="B48" s="692"/>
-      <c r="C48" s="695"/>
+      <c r="A48" s="696"/>
+      <c r="B48" s="699"/>
+      <c r="C48" s="702"/>
       <c r="D48" s="387"/>
       <c r="E48" s="394"/>
       <c r="F48" s="75"/>
@@ -26531,9 +26525,9 @@
       </c>
     </row>
     <row r="49" spans="1:17" ht="17">
-      <c r="A49" s="689"/>
-      <c r="B49" s="692"/>
-      <c r="C49" s="695"/>
+      <c r="A49" s="696"/>
+      <c r="B49" s="699"/>
+      <c r="C49" s="702"/>
       <c r="D49" s="387"/>
       <c r="E49" s="394"/>
       <c r="F49" s="75"/>
@@ -26556,9 +26550,9 @@
       </c>
     </row>
     <row r="50" spans="1:17" ht="34">
-      <c r="A50" s="689"/>
-      <c r="B50" s="692"/>
-      <c r="C50" s="695"/>
+      <c r="A50" s="696"/>
+      <c r="B50" s="699"/>
+      <c r="C50" s="702"/>
       <c r="D50" s="387"/>
       <c r="E50" s="394"/>
       <c r="F50" s="75"/>
@@ -26581,9 +26575,9 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="17">
-      <c r="A51" s="689"/>
-      <c r="B51" s="692"/>
-      <c r="C51" s="695"/>
+      <c r="A51" s="696"/>
+      <c r="B51" s="699"/>
+      <c r="C51" s="702"/>
       <c r="D51" s="387"/>
       <c r="E51" s="394"/>
       <c r="F51" s="75"/>
@@ -26606,9 +26600,9 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="17">
-      <c r="A52" s="689"/>
-      <c r="B52" s="692"/>
-      <c r="C52" s="695"/>
+      <c r="A52" s="696"/>
+      <c r="B52" s="699"/>
+      <c r="C52" s="702"/>
       <c r="D52" s="387"/>
       <c r="E52" s="394"/>
       <c r="F52" s="75"/>
@@ -26631,9 +26625,9 @@
       </c>
     </row>
     <row r="53" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A53" s="689"/>
-      <c r="B53" s="692"/>
-      <c r="C53" s="695"/>
+      <c r="A53" s="696"/>
+      <c r="B53" s="699"/>
+      <c r="C53" s="702"/>
       <c r="D53" s="387"/>
       <c r="E53" s="394"/>
       <c r="F53" s="75"/>
@@ -26656,9 +26650,9 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="17">
-      <c r="A54" s="689"/>
-      <c r="B54" s="692"/>
-      <c r="C54" s="695"/>
+      <c r="A54" s="696"/>
+      <c r="B54" s="699"/>
+      <c r="C54" s="702"/>
       <c r="D54" s="387"/>
       <c r="E54" s="394"/>
       <c r="F54" s="75"/>
@@ -26681,9 +26675,9 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="75">
-      <c r="A55" s="689"/>
-      <c r="B55" s="692"/>
-      <c r="C55" s="695"/>
+      <c r="A55" s="696"/>
+      <c r="B55" s="699"/>
+      <c r="C55" s="702"/>
       <c r="D55" s="387" t="s">
         <v>1130</v>
       </c>
@@ -26724,9 +26718,9 @@
       </c>
     </row>
     <row r="56" spans="1:17" ht="17">
-      <c r="A56" s="689"/>
-      <c r="B56" s="692"/>
-      <c r="C56" s="695"/>
+      <c r="A56" s="696"/>
+      <c r="B56" s="699"/>
+      <c r="C56" s="702"/>
       <c r="D56" s="387"/>
       <c r="E56" s="394"/>
       <c r="F56" s="75"/>
@@ -26749,9 +26743,9 @@
       </c>
     </row>
     <row r="57" spans="1:17" ht="17">
-      <c r="A57" s="689"/>
-      <c r="B57" s="692"/>
-      <c r="C57" s="695"/>
+      <c r="A57" s="696"/>
+      <c r="B57" s="699"/>
+      <c r="C57" s="702"/>
       <c r="D57" s="387"/>
       <c r="E57" s="394"/>
       <c r="F57" s="75"/>
@@ -26774,9 +26768,9 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="17">
-      <c r="A58" s="689"/>
-      <c r="B58" s="692"/>
-      <c r="C58" s="695"/>
+      <c r="A58" s="696"/>
+      <c r="B58" s="699"/>
+      <c r="C58" s="702"/>
       <c r="D58" s="387"/>
       <c r="E58" s="394"/>
       <c r="F58" s="75"/>
@@ -26799,9 +26793,9 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="17">
-      <c r="A59" s="689"/>
-      <c r="B59" s="692"/>
-      <c r="C59" s="695"/>
+      <c r="A59" s="696"/>
+      <c r="B59" s="699"/>
+      <c r="C59" s="702"/>
       <c r="D59" s="387"/>
       <c r="E59" s="394"/>
       <c r="F59" s="75"/>
@@ -26824,9 +26818,9 @@
       </c>
     </row>
     <row r="60" spans="1:17" ht="17">
-      <c r="A60" s="689"/>
-      <c r="B60" s="692"/>
-      <c r="C60" s="695"/>
+      <c r="A60" s="696"/>
+      <c r="B60" s="699"/>
+      <c r="C60" s="702"/>
       <c r="D60" s="387"/>
       <c r="E60" s="394"/>
       <c r="F60" s="75"/>
@@ -26849,9 +26843,9 @@
       </c>
     </row>
     <row r="61" spans="1:17" ht="17">
-      <c r="A61" s="689"/>
-      <c r="B61" s="692"/>
-      <c r="C61" s="695"/>
+      <c r="A61" s="696"/>
+      <c r="B61" s="699"/>
+      <c r="C61" s="702"/>
       <c r="D61" s="387"/>
       <c r="E61" s="394"/>
       <c r="F61" s="75"/>
@@ -26874,9 +26868,9 @@
       </c>
     </row>
     <row r="62" spans="1:17" ht="17">
-      <c r="A62" s="689"/>
-      <c r="B62" s="692"/>
-      <c r="C62" s="695"/>
+      <c r="A62" s="696"/>
+      <c r="B62" s="699"/>
+      <c r="C62" s="702"/>
       <c r="D62" s="387"/>
       <c r="E62" s="394"/>
       <c r="F62" s="75"/>
@@ -26899,9 +26893,9 @@
       </c>
     </row>
     <row r="63" spans="1:17" ht="17">
-      <c r="A63" s="689"/>
-      <c r="B63" s="692"/>
-      <c r="C63" s="695"/>
+      <c r="A63" s="696"/>
+      <c r="B63" s="699"/>
+      <c r="C63" s="702"/>
       <c r="D63" s="387"/>
       <c r="E63" s="394"/>
       <c r="F63" s="75"/>
@@ -26924,9 +26918,9 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="17">
-      <c r="A64" s="689"/>
-      <c r="B64" s="692"/>
-      <c r="C64" s="695"/>
+      <c r="A64" s="696"/>
+      <c r="B64" s="699"/>
+      <c r="C64" s="702"/>
       <c r="D64" s="387"/>
       <c r="E64" s="394"/>
       <c r="F64" s="75"/>
@@ -26949,9 +26943,9 @@
       </c>
     </row>
     <row r="65" spans="1:17" ht="17">
-      <c r="A65" s="689"/>
-      <c r="B65" s="692"/>
-      <c r="C65" s="695"/>
+      <c r="A65" s="696"/>
+      <c r="B65" s="699"/>
+      <c r="C65" s="702"/>
       <c r="D65" s="387"/>
       <c r="E65" s="394"/>
       <c r="F65" s="75"/>
@@ -26974,9 +26968,9 @@
       </c>
     </row>
     <row r="66" spans="1:17" ht="17">
-      <c r="A66" s="689"/>
-      <c r="B66" s="692"/>
-      <c r="C66" s="695"/>
+      <c r="A66" s="696"/>
+      <c r="B66" s="699"/>
+      <c r="C66" s="702"/>
       <c r="D66" s="387"/>
       <c r="E66" s="394"/>
       <c r="F66" s="75"/>
@@ -26999,9 +26993,9 @@
       </c>
     </row>
     <row r="67" spans="1:17" ht="17">
-      <c r="A67" s="689"/>
-      <c r="B67" s="692"/>
-      <c r="C67" s="695"/>
+      <c r="A67" s="696"/>
+      <c r="B67" s="699"/>
+      <c r="C67" s="702"/>
       <c r="D67" s="387"/>
       <c r="E67" s="394"/>
       <c r="F67" s="75"/>
@@ -27024,9 +27018,9 @@
       </c>
     </row>
     <row r="68" spans="1:17" ht="17">
-      <c r="A68" s="689"/>
-      <c r="B68" s="692"/>
-      <c r="C68" s="695"/>
+      <c r="A68" s="696"/>
+      <c r="B68" s="699"/>
+      <c r="C68" s="702"/>
       <c r="D68" s="387"/>
       <c r="E68" s="394"/>
       <c r="F68" s="75"/>
@@ -27049,9 +27043,9 @@
       </c>
     </row>
     <row r="69" spans="1:17" ht="17">
-      <c r="A69" s="689"/>
-      <c r="B69" s="692"/>
-      <c r="C69" s="695"/>
+      <c r="A69" s="696"/>
+      <c r="B69" s="699"/>
+      <c r="C69" s="702"/>
       <c r="D69" s="387"/>
       <c r="E69" s="394"/>
       <c r="F69" s="75"/>
@@ -27074,9 +27068,9 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="17">
-      <c r="A70" s="689"/>
-      <c r="B70" s="692"/>
-      <c r="C70" s="695"/>
+      <c r="A70" s="696"/>
+      <c r="B70" s="699"/>
+      <c r="C70" s="702"/>
       <c r="D70" s="387"/>
       <c r="E70" s="394"/>
       <c r="F70" s="75"/>
@@ -27099,9 +27093,9 @@
       </c>
     </row>
     <row r="71" spans="1:17" ht="17">
-      <c r="A71" s="689"/>
-      <c r="B71" s="692"/>
-      <c r="C71" s="695"/>
+      <c r="A71" s="696"/>
+      <c r="B71" s="699"/>
+      <c r="C71" s="702"/>
       <c r="D71" s="387"/>
       <c r="E71" s="394"/>
       <c r="F71" s="75"/>
@@ -27124,9 +27118,9 @@
       </c>
     </row>
     <row r="72" spans="1:17" ht="17">
-      <c r="A72" s="689"/>
-      <c r="B72" s="692"/>
-      <c r="C72" s="695"/>
+      <c r="A72" s="696"/>
+      <c r="B72" s="699"/>
+      <c r="C72" s="702"/>
       <c r="D72" s="387"/>
       <c r="E72" s="394"/>
       <c r="F72" s="75"/>
@@ -27149,9 +27143,9 @@
       </c>
     </row>
     <row r="73" spans="1:17" ht="17">
-      <c r="A73" s="690"/>
-      <c r="B73" s="693"/>
-      <c r="C73" s="696"/>
+      <c r="A73" s="697"/>
+      <c r="B73" s="700"/>
+      <c r="C73" s="703"/>
       <c r="D73" s="387"/>
       <c r="E73" s="394"/>
       <c r="F73" s="75"/>
@@ -27174,13 +27168,13 @@
       </c>
     </row>
     <row r="74" spans="1:17" ht="54">
-      <c r="A74" s="688" t="s">
+      <c r="A74" s="695" t="s">
         <v>1190</v>
       </c>
-      <c r="B74" s="691" t="s">
+      <c r="B74" s="704" t="s">
         <v>1191</v>
       </c>
-      <c r="C74" s="694" t="s">
+      <c r="C74" s="701" t="s">
         <v>1192</v>
       </c>
       <c r="D74" s="387" t="s">
@@ -27225,9 +27219,9 @@
       </c>
     </row>
     <row r="75" spans="1:17" ht="17">
-      <c r="A75" s="689"/>
-      <c r="B75" s="692"/>
-      <c r="C75" s="695"/>
+      <c r="A75" s="696"/>
+      <c r="B75" s="699"/>
+      <c r="C75" s="702"/>
       <c r="D75" s="387"/>
       <c r="E75" s="394"/>
       <c r="F75" s="75"/>
@@ -27250,9 +27244,9 @@
       </c>
     </row>
     <row r="76" spans="1:17" ht="60">
-      <c r="A76" s="689"/>
-      <c r="B76" s="692"/>
-      <c r="C76" s="695"/>
+      <c r="A76" s="696"/>
+      <c r="B76" s="699"/>
+      <c r="C76" s="702"/>
       <c r="D76" s="387" t="s">
         <v>1199</v>
       </c>
@@ -27295,9 +27289,9 @@
       </c>
     </row>
     <row r="77" spans="1:17" ht="17">
-      <c r="A77" s="689"/>
-      <c r="B77" s="692"/>
-      <c r="C77" s="695"/>
+      <c r="A77" s="696"/>
+      <c r="B77" s="699"/>
+      <c r="C77" s="702"/>
       <c r="D77" s="387"/>
       <c r="E77" s="394"/>
       <c r="F77" s="75"/>
@@ -27320,9 +27314,9 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="17">
-      <c r="A78" s="689"/>
-      <c r="B78" s="692"/>
-      <c r="C78" s="695"/>
+      <c r="A78" s="696"/>
+      <c r="B78" s="699"/>
+      <c r="C78" s="702"/>
       <c r="D78" s="387"/>
       <c r="E78" s="394"/>
       <c r="F78" s="75"/>
@@ -27345,9 +27339,9 @@
       </c>
     </row>
     <row r="79" spans="1:17" ht="34">
-      <c r="A79" s="689"/>
-      <c r="B79" s="692"/>
-      <c r="C79" s="695"/>
+      <c r="A79" s="696"/>
+      <c r="B79" s="699"/>
+      <c r="C79" s="702"/>
       <c r="D79" s="387"/>
       <c r="E79" s="394"/>
       <c r="F79" s="75"/>
@@ -27370,9 +27364,9 @@
       </c>
     </row>
     <row r="80" spans="1:17" ht="34">
-      <c r="A80" s="689"/>
-      <c r="B80" s="692"/>
-      <c r="C80" s="695"/>
+      <c r="A80" s="696"/>
+      <c r="B80" s="699"/>
+      <c r="C80" s="702"/>
       <c r="D80" s="387"/>
       <c r="E80" s="394"/>
       <c r="F80" s="75"/>
@@ -27395,9 +27389,9 @@
       </c>
     </row>
     <row r="81" spans="1:17" ht="34">
-      <c r="A81" s="689"/>
-      <c r="B81" s="692"/>
-      <c r="C81" s="695"/>
+      <c r="A81" s="696"/>
+      <c r="B81" s="699"/>
+      <c r="C81" s="702"/>
       <c r="D81" s="387"/>
       <c r="E81" s="394"/>
       <c r="F81" s="75"/>
@@ -27420,9 +27414,9 @@
       </c>
     </row>
     <row r="82" spans="1:17" ht="17">
-      <c r="A82" s="689"/>
-      <c r="B82" s="692"/>
-      <c r="C82" s="695"/>
+      <c r="A82" s="696"/>
+      <c r="B82" s="699"/>
+      <c r="C82" s="702"/>
       <c r="D82" s="387"/>
       <c r="E82" s="394"/>
       <c r="F82" s="75"/>
@@ -27445,9 +27439,9 @@
       </c>
     </row>
     <row r="83" spans="1:17" ht="17">
-      <c r="A83" s="689"/>
-      <c r="B83" s="692"/>
-      <c r="C83" s="695"/>
+      <c r="A83" s="696"/>
+      <c r="B83" s="699"/>
+      <c r="C83" s="702"/>
       <c r="D83" s="387"/>
       <c r="E83" s="394"/>
       <c r="F83" s="75"/>
@@ -27470,9 +27464,9 @@
       </c>
     </row>
     <row r="84" spans="1:17" ht="17">
-      <c r="A84" s="689"/>
-      <c r="B84" s="692"/>
-      <c r="C84" s="695"/>
+      <c r="A84" s="696"/>
+      <c r="B84" s="699"/>
+      <c r="C84" s="702"/>
       <c r="D84" s="387"/>
       <c r="E84" s="394"/>
       <c r="F84" s="75"/>
@@ -27495,9 +27489,9 @@
       </c>
     </row>
     <row r="85" spans="1:17" ht="17">
-      <c r="A85" s="689"/>
-      <c r="B85" s="692"/>
-      <c r="C85" s="695"/>
+      <c r="A85" s="696"/>
+      <c r="B85" s="699"/>
+      <c r="C85" s="702"/>
       <c r="D85" s="387"/>
       <c r="E85" s="394"/>
       <c r="F85" s="75"/>
@@ -27520,9 +27514,9 @@
       </c>
     </row>
     <row r="86" spans="1:17" ht="17">
-      <c r="A86" s="689"/>
-      <c r="B86" s="692"/>
-      <c r="C86" s="695"/>
+      <c r="A86" s="696"/>
+      <c r="B86" s="699"/>
+      <c r="C86" s="702"/>
       <c r="D86" s="387"/>
       <c r="E86" s="394"/>
       <c r="F86" s="75"/>
@@ -27545,9 +27539,9 @@
       </c>
     </row>
     <row r="87" spans="1:17" ht="34">
-      <c r="A87" s="690"/>
-      <c r="B87" s="693"/>
-      <c r="C87" s="696"/>
+      <c r="A87" s="697"/>
+      <c r="B87" s="700"/>
+      <c r="C87" s="703"/>
       <c r="D87" s="387"/>
       <c r="E87" s="394"/>
       <c r="F87" s="75"/>
@@ -27570,13 +27564,13 @@
       </c>
     </row>
     <row r="88" spans="1:17" ht="119">
-      <c r="A88" s="688" t="s">
+      <c r="A88" s="695" t="s">
         <v>1241</v>
       </c>
-      <c r="B88" s="691" t="s">
+      <c r="B88" s="704" t="s">
         <v>1242</v>
       </c>
-      <c r="C88" s="694" t="s">
+      <c r="C88" s="701" t="s">
         <v>1243</v>
       </c>
       <c r="D88" s="387" t="s">
@@ -27623,9 +27617,9 @@
       </c>
     </row>
     <row r="89" spans="1:17" ht="54">
-      <c r="A89" s="689"/>
-      <c r="B89" s="692"/>
-      <c r="C89" s="695"/>
+      <c r="A89" s="696"/>
+      <c r="B89" s="699"/>
+      <c r="C89" s="702"/>
       <c r="D89" s="387"/>
       <c r="E89" s="272"/>
       <c r="F89" s="5"/>
@@ -27648,9 +27642,9 @@
       </c>
     </row>
     <row r="90" spans="1:17" ht="36">
-      <c r="A90" s="689"/>
-      <c r="B90" s="692"/>
-      <c r="C90" s="695"/>
+      <c r="A90" s="696"/>
+      <c r="B90" s="699"/>
+      <c r="C90" s="702"/>
       <c r="D90" s="387"/>
       <c r="E90" s="272"/>
       <c r="F90" s="5"/>
@@ -27673,9 +27667,9 @@
       </c>
     </row>
     <row r="91" spans="1:17" ht="54">
-      <c r="A91" s="689"/>
-      <c r="B91" s="692"/>
-      <c r="C91" s="695"/>
+      <c r="A91" s="696"/>
+      <c r="B91" s="699"/>
+      <c r="C91" s="702"/>
       <c r="D91" s="387"/>
       <c r="E91" s="272"/>
       <c r="F91" s="5"/>
@@ -27698,9 +27692,9 @@
       </c>
     </row>
     <row r="92" spans="1:17" ht="36">
-      <c r="A92" s="689"/>
-      <c r="B92" s="692"/>
-      <c r="C92" s="695"/>
+      <c r="A92" s="696"/>
+      <c r="B92" s="699"/>
+      <c r="C92" s="702"/>
       <c r="D92" s="387"/>
       <c r="E92" s="272"/>
       <c r="F92" s="5"/>
@@ -27723,9 +27717,9 @@
       </c>
     </row>
     <row r="93" spans="1:17" ht="54">
-      <c r="A93" s="689"/>
-      <c r="B93" s="692"/>
-      <c r="C93" s="695"/>
+      <c r="A93" s="696"/>
+      <c r="B93" s="699"/>
+      <c r="C93" s="702"/>
       <c r="D93" s="387"/>
       <c r="E93" s="272"/>
       <c r="F93" s="5"/>
@@ -27748,9 +27742,9 @@
       </c>
     </row>
     <row r="94" spans="1:17" ht="21">
-      <c r="A94" s="689"/>
-      <c r="B94" s="692"/>
-      <c r="C94" s="695"/>
+      <c r="A94" s="696"/>
+      <c r="B94" s="699"/>
+      <c r="C94" s="702"/>
       <c r="D94" s="387"/>
       <c r="E94" s="272"/>
       <c r="F94" s="5"/>
@@ -27773,9 +27767,9 @@
       </c>
     </row>
     <row r="95" spans="1:17" ht="119">
-      <c r="A95" s="689"/>
-      <c r="B95" s="692"/>
-      <c r="C95" s="695"/>
+      <c r="A95" s="696"/>
+      <c r="B95" s="699"/>
+      <c r="C95" s="702"/>
       <c r="D95" s="387" t="s">
         <v>1273</v>
       </c>
@@ -27815,9 +27809,9 @@
       </c>
     </row>
     <row r="96" spans="1:17" ht="21">
-      <c r="A96" s="689"/>
-      <c r="B96" s="692"/>
-      <c r="C96" s="695"/>
+      <c r="A96" s="696"/>
+      <c r="B96" s="699"/>
+      <c r="C96" s="702"/>
       <c r="D96" s="387"/>
       <c r="H96" s="422"/>
       <c r="I96" s="260"/>
@@ -27837,9 +27831,9 @@
       </c>
     </row>
     <row r="97" spans="1:17" ht="21">
-      <c r="A97" s="689"/>
-      <c r="B97" s="692"/>
-      <c r="C97" s="695"/>
+      <c r="A97" s="696"/>
+      <c r="B97" s="699"/>
+      <c r="C97" s="702"/>
       <c r="D97" s="387"/>
       <c r="H97" s="422"/>
       <c r="I97" s="260"/>
@@ -27859,9 +27853,9 @@
       </c>
     </row>
     <row r="98" spans="1:17" ht="85">
-      <c r="A98" s="689"/>
-      <c r="B98" s="692"/>
-      <c r="C98" s="695"/>
+      <c r="A98" s="696"/>
+      <c r="B98" s="699"/>
+      <c r="C98" s="702"/>
       <c r="D98" s="387" t="s">
         <v>1288</v>
       </c>
@@ -27904,9 +27898,9 @@
       </c>
     </row>
     <row r="99" spans="1:17" ht="21">
-      <c r="A99" s="689"/>
-      <c r="B99" s="692"/>
-      <c r="C99" s="695"/>
+      <c r="A99" s="696"/>
+      <c r="B99" s="699"/>
+      <c r="C99" s="702"/>
       <c r="D99" s="387"/>
       <c r="E99" s="272"/>
       <c r="F99" s="5"/>
@@ -27929,9 +27923,9 @@
       </c>
     </row>
     <row r="100" spans="1:17" ht="136">
-      <c r="A100" s="689"/>
-      <c r="B100" s="692"/>
-      <c r="C100" s="695"/>
+      <c r="A100" s="696"/>
+      <c r="B100" s="699"/>
+      <c r="C100" s="702"/>
       <c r="D100" s="387" t="s">
         <v>1294</v>
       </c>
@@ -27974,9 +27968,9 @@
       </c>
     </row>
     <row r="101" spans="1:17" ht="21">
-      <c r="A101" s="689"/>
-      <c r="B101" s="692"/>
-      <c r="C101" s="695"/>
+      <c r="A101" s="696"/>
+      <c r="B101" s="699"/>
+      <c r="C101" s="702"/>
       <c r="D101" s="387"/>
       <c r="E101" s="272"/>
       <c r="F101" s="5"/>
@@ -27999,9 +27993,9 @@
       </c>
     </row>
     <row r="102" spans="1:17" ht="17">
-      <c r="A102" s="689"/>
-      <c r="B102" s="692"/>
-      <c r="C102" s="695"/>
+      <c r="A102" s="696"/>
+      <c r="B102" s="699"/>
+      <c r="C102" s="702"/>
       <c r="D102" s="387"/>
       <c r="E102" s="272"/>
       <c r="F102" s="5"/>
@@ -28024,9 +28018,9 @@
       </c>
     </row>
     <row r="103" spans="1:17" ht="42" customHeight="1">
-      <c r="A103" s="689"/>
-      <c r="B103" s="692"/>
-      <c r="C103" s="695"/>
+      <c r="A103" s="696"/>
+      <c r="B103" s="699"/>
+      <c r="C103" s="702"/>
       <c r="D103" s="387"/>
       <c r="E103" s="272"/>
       <c r="F103" s="5"/>
@@ -28049,9 +28043,9 @@
       </c>
     </row>
     <row r="104" spans="1:17" ht="17">
-      <c r="A104" s="689"/>
-      <c r="B104" s="692"/>
-      <c r="C104" s="695"/>
+      <c r="A104" s="696"/>
+      <c r="B104" s="699"/>
+      <c r="C104" s="702"/>
       <c r="D104" s="387"/>
       <c r="E104" s="272"/>
       <c r="F104" s="5"/>
@@ -28074,9 +28068,9 @@
       </c>
     </row>
     <row r="105" spans="1:17" ht="17">
-      <c r="A105" s="689"/>
-      <c r="B105" s="692"/>
-      <c r="C105" s="695"/>
+      <c r="A105" s="696"/>
+      <c r="B105" s="699"/>
+      <c r="C105" s="702"/>
       <c r="D105" s="387"/>
       <c r="E105" s="272"/>
       <c r="F105" s="5"/>
@@ -28099,9 +28093,9 @@
       </c>
     </row>
     <row r="106" spans="1:17" ht="51">
-      <c r="A106" s="689"/>
-      <c r="B106" s="692"/>
-      <c r="C106" s="695"/>
+      <c r="A106" s="696"/>
+      <c r="B106" s="699"/>
+      <c r="C106" s="702"/>
       <c r="D106" s="387"/>
       <c r="E106" s="272"/>
       <c r="F106" s="5"/>
@@ -28124,9 +28118,9 @@
       </c>
     </row>
     <row r="107" spans="1:17" ht="51">
-      <c r="A107" s="689"/>
-      <c r="B107" s="692"/>
-      <c r="C107" s="695"/>
+      <c r="A107" s="696"/>
+      <c r="B107" s="699"/>
+      <c r="C107" s="702"/>
       <c r="D107" s="387"/>
       <c r="E107" s="272"/>
       <c r="F107" s="5"/>
@@ -28149,9 +28143,9 @@
       </c>
     </row>
     <row r="108" spans="1:17" ht="34">
-      <c r="A108" s="689"/>
-      <c r="B108" s="692"/>
-      <c r="C108" s="695"/>
+      <c r="A108" s="696"/>
+      <c r="B108" s="699"/>
+      <c r="C108" s="702"/>
       <c r="D108" s="387"/>
       <c r="E108" s="272"/>
       <c r="F108" s="5"/>
@@ -28174,9 +28168,9 @@
       </c>
     </row>
     <row r="109" spans="1:17" ht="17">
-      <c r="A109" s="689"/>
-      <c r="B109" s="692"/>
-      <c r="C109" s="695"/>
+      <c r="A109" s="696"/>
+      <c r="B109" s="699"/>
+      <c r="C109" s="702"/>
       <c r="D109" s="387"/>
       <c r="E109" s="272"/>
       <c r="F109" s="5"/>
@@ -28199,9 +28193,9 @@
       </c>
     </row>
     <row r="110" spans="1:17" ht="17">
-      <c r="A110" s="689"/>
-      <c r="B110" s="692"/>
-      <c r="C110" s="695"/>
+      <c r="A110" s="696"/>
+      <c r="B110" s="699"/>
+      <c r="C110" s="702"/>
       <c r="D110" s="387"/>
       <c r="E110" s="272"/>
       <c r="F110" s="5"/>
@@ -28224,9 +28218,9 @@
       </c>
     </row>
     <row r="111" spans="1:17" ht="36">
-      <c r="A111" s="689"/>
-      <c r="B111" s="692"/>
-      <c r="C111" s="695"/>
+      <c r="A111" s="696"/>
+      <c r="B111" s="699"/>
+      <c r="C111" s="702"/>
       <c r="D111" s="387" t="s">
         <v>1332</v>
       </c>
@@ -28261,9 +28255,9 @@
       <c r="Q111" s="407"/>
     </row>
     <row r="112" spans="1:17" ht="54">
-      <c r="A112" s="689"/>
-      <c r="B112" s="692"/>
-      <c r="C112" s="695"/>
+      <c r="A112" s="696"/>
+      <c r="B112" s="699"/>
+      <c r="C112" s="702"/>
       <c r="D112" s="387" t="s">
         <v>1337</v>
       </c>
@@ -28306,9 +28300,9 @@
       </c>
     </row>
     <row r="113" spans="1:18" ht="18">
-      <c r="A113" s="689"/>
-      <c r="B113" s="692"/>
-      <c r="C113" s="695"/>
+      <c r="A113" s="696"/>
+      <c r="B113" s="699"/>
+      <c r="C113" s="702"/>
       <c r="D113" s="387"/>
       <c r="E113" s="272"/>
       <c r="F113" s="5"/>
@@ -28331,9 +28325,9 @@
       </c>
     </row>
     <row r="114" spans="1:18" ht="18">
-      <c r="A114" s="689"/>
-      <c r="B114" s="692"/>
-      <c r="C114" s="695"/>
+      <c r="A114" s="696"/>
+      <c r="B114" s="699"/>
+      <c r="C114" s="702"/>
       <c r="D114" s="387"/>
       <c r="E114" s="272"/>
       <c r="F114" s="5"/>
@@ -28356,9 +28350,9 @@
       </c>
     </row>
     <row r="115" spans="1:18" ht="18">
-      <c r="A115" s="689"/>
-      <c r="B115" s="692"/>
-      <c r="C115" s="695"/>
+      <c r="A115" s="696"/>
+      <c r="B115" s="699"/>
+      <c r="C115" s="702"/>
       <c r="D115" s="387"/>
       <c r="E115" s="272"/>
       <c r="F115" s="5"/>
@@ -28381,9 +28375,9 @@
       </c>
     </row>
     <row r="116" spans="1:18" ht="18">
-      <c r="A116" s="689"/>
-      <c r="B116" s="692"/>
-      <c r="C116" s="695"/>
+      <c r="A116" s="696"/>
+      <c r="B116" s="699"/>
+      <c r="C116" s="702"/>
       <c r="D116" s="387"/>
       <c r="E116" s="272"/>
       <c r="F116" s="5"/>
@@ -28406,9 +28400,9 @@
       </c>
     </row>
     <row r="117" spans="1:18" ht="18">
-      <c r="A117" s="689"/>
-      <c r="B117" s="692"/>
-      <c r="C117" s="695"/>
+      <c r="A117" s="696"/>
+      <c r="B117" s="699"/>
+      <c r="C117" s="702"/>
       <c r="D117" s="387"/>
       <c r="E117" s="272"/>
       <c r="F117" s="5"/>
@@ -28431,9 +28425,9 @@
       </c>
     </row>
     <row r="118" spans="1:18" ht="18">
-      <c r="A118" s="689"/>
-      <c r="B118" s="692"/>
-      <c r="C118" s="695"/>
+      <c r="A118" s="696"/>
+      <c r="B118" s="699"/>
+      <c r="C118" s="702"/>
       <c r="D118" s="387"/>
       <c r="E118" s="272"/>
       <c r="F118" s="5"/>
@@ -28456,9 +28450,9 @@
       </c>
     </row>
     <row r="119" spans="1:18" ht="75">
-      <c r="A119" s="689"/>
-      <c r="B119" s="692"/>
-      <c r="C119" s="695"/>
+      <c r="A119" s="696"/>
+      <c r="B119" s="699"/>
+      <c r="C119" s="702"/>
       <c r="D119" s="387" t="s">
         <v>1362</v>
       </c>
@@ -28493,9 +28487,9 @@
       </c>
     </row>
     <row r="120" spans="1:18" ht="17">
-      <c r="A120" s="689"/>
-      <c r="B120" s="692"/>
-      <c r="C120" s="695"/>
+      <c r="A120" s="696"/>
+      <c r="B120" s="699"/>
+      <c r="C120" s="702"/>
       <c r="D120" s="387"/>
       <c r="E120" s="272"/>
       <c r="F120" s="5"/>
@@ -28518,9 +28512,9 @@
       </c>
     </row>
     <row r="121" spans="1:18" ht="90">
-      <c r="A121" s="689"/>
-      <c r="B121" s="692"/>
-      <c r="C121" s="695"/>
+      <c r="A121" s="696"/>
+      <c r="B121" s="699"/>
+      <c r="C121" s="702"/>
       <c r="D121" s="387" t="s">
         <v>1367</v>
       </c>
@@ -28563,9 +28557,9 @@
       </c>
     </row>
     <row r="122" spans="1:18" ht="17">
-      <c r="A122" s="689"/>
-      <c r="B122" s="692"/>
-      <c r="C122" s="695"/>
+      <c r="A122" s="696"/>
+      <c r="B122" s="699"/>
+      <c r="C122" s="702"/>
       <c r="D122" s="387"/>
       <c r="E122" s="272"/>
       <c r="F122" s="5"/>
@@ -28588,9 +28582,9 @@
       </c>
     </row>
     <row r="123" spans="1:18" ht="75">
-      <c r="A123" s="689"/>
-      <c r="B123" s="692"/>
-      <c r="C123" s="695"/>
+      <c r="A123" s="696"/>
+      <c r="B123" s="699"/>
+      <c r="C123" s="702"/>
       <c r="D123" s="387" t="s">
         <v>1373</v>
       </c>
@@ -28625,9 +28619,9 @@
       <c r="Q123" s="406"/>
     </row>
     <row r="124" spans="1:18" ht="108">
-      <c r="A124" s="689"/>
-      <c r="B124" s="692"/>
-      <c r="C124" s="695"/>
+      <c r="A124" s="696"/>
+      <c r="B124" s="699"/>
+      <c r="C124" s="702"/>
       <c r="D124" s="387" t="s">
         <v>1378</v>
       </c>
@@ -28668,9 +28662,9 @@
       </c>
     </row>
     <row r="125" spans="1:18" ht="17">
-      <c r="A125" s="689"/>
-      <c r="B125" s="692"/>
-      <c r="C125" s="695"/>
+      <c r="A125" s="696"/>
+      <c r="B125" s="699"/>
+      <c r="C125" s="702"/>
       <c r="D125" s="387"/>
       <c r="E125" s="272"/>
       <c r="F125" s="5"/>
@@ -28693,9 +28687,9 @@
       </c>
     </row>
     <row r="126" spans="1:18" ht="72">
-      <c r="A126" s="690"/>
-      <c r="B126" s="693"/>
-      <c r="C126" s="696"/>
+      <c r="A126" s="697"/>
+      <c r="B126" s="700"/>
+      <c r="C126" s="703"/>
       <c r="D126" s="387" t="s">
         <v>1383</v>
       </c>
@@ -28752,13 +28746,13 @@
       </c>
     </row>
     <row r="128" spans="1:18" s="359" customFormat="1" ht="271.5" customHeight="1">
-      <c r="A128" s="697" t="s">
+      <c r="A128" s="705" t="s">
         <v>1394</v>
       </c>
-      <c r="B128" s="697" t="s">
+      <c r="B128" s="705" t="s">
         <v>1395</v>
       </c>
-      <c r="C128" s="700" t="s">
+      <c r="C128" s="708" t="s">
         <v>1396</v>
       </c>
       <c r="D128" s="113" t="s">
@@ -28796,9 +28790,9 @@
       <c r="R128" s="358"/>
     </row>
     <row r="129" spans="1:18" customFormat="1" ht="18">
-      <c r="A129" s="698"/>
-      <c r="B129" s="698"/>
-      <c r="C129" s="701"/>
+      <c r="A129" s="706"/>
+      <c r="B129" s="706"/>
+      <c r="C129" s="709"/>
       <c r="D129" s="113" t="s">
         <v>1405</v>
       </c>
@@ -28828,9 +28822,9 @@
       <c r="R129" s="3"/>
     </row>
     <row r="130" spans="1:18" customFormat="1" ht="18">
-      <c r="A130" s="698"/>
-      <c r="B130" s="698"/>
-      <c r="C130" s="701"/>
+      <c r="A130" s="706"/>
+      <c r="B130" s="706"/>
+      <c r="C130" s="709"/>
       <c r="D130" s="113" t="s">
         <v>1410</v>
       </c>
@@ -28860,9 +28854,9 @@
       <c r="R130" s="3"/>
     </row>
     <row r="131" spans="1:18" customFormat="1" ht="18">
-      <c r="A131" s="698"/>
-      <c r="B131" s="698"/>
-      <c r="C131" s="701"/>
+      <c r="A131" s="706"/>
+      <c r="B131" s="706"/>
+      <c r="C131" s="709"/>
       <c r="D131" s="113" t="s">
         <v>1415</v>
       </c>
@@ -28898,9 +28892,9 @@
       <c r="R131" s="26"/>
     </row>
     <row r="132" spans="1:18" customFormat="1" ht="18">
-      <c r="A132" s="698"/>
-      <c r="B132" s="698"/>
-      <c r="C132" s="701"/>
+      <c r="A132" s="706"/>
+      <c r="B132" s="706"/>
+      <c r="C132" s="709"/>
       <c r="D132" s="113"/>
       <c r="E132" s="396"/>
       <c r="F132" s="4"/>
@@ -28924,9 +28918,9 @@
       <c r="R132" s="26"/>
     </row>
     <row r="133" spans="1:18" customFormat="1" ht="18">
-      <c r="A133" s="698"/>
-      <c r="B133" s="698"/>
-      <c r="C133" s="701"/>
+      <c r="A133" s="706"/>
+      <c r="B133" s="706"/>
+      <c r="C133" s="709"/>
       <c r="D133" s="113"/>
       <c r="E133" s="396"/>
       <c r="F133" s="4"/>
@@ -28950,9 +28944,9 @@
       <c r="R133" s="26"/>
     </row>
     <row r="134" spans="1:18" customFormat="1" ht="18">
-      <c r="A134" s="698"/>
-      <c r="B134" s="698"/>
-      <c r="C134" s="701"/>
+      <c r="A134" s="706"/>
+      <c r="B134" s="706"/>
+      <c r="C134" s="709"/>
       <c r="D134" s="113"/>
       <c r="E134" s="396"/>
       <c r="F134" s="4"/>
@@ -28976,9 +28970,9 @@
       <c r="R134" s="26"/>
     </row>
     <row r="135" spans="1:18" customFormat="1" ht="18">
-      <c r="A135" s="698"/>
-      <c r="B135" s="698"/>
-      <c r="C135" s="701"/>
+      <c r="A135" s="706"/>
+      <c r="B135" s="706"/>
+      <c r="C135" s="709"/>
       <c r="D135" s="113"/>
       <c r="E135" s="396"/>
       <c r="F135" s="4"/>
@@ -29002,9 +28996,9 @@
       <c r="R135" s="26"/>
     </row>
     <row r="136" spans="1:18" customFormat="1" ht="18">
-      <c r="A136" s="698"/>
-      <c r="B136" s="698"/>
-      <c r="C136" s="701"/>
+      <c r="A136" s="706"/>
+      <c r="B136" s="706"/>
+      <c r="C136" s="709"/>
       <c r="D136" s="113"/>
       <c r="E136" s="396"/>
       <c r="F136" s="4"/>
@@ -29028,9 +29022,9 @@
       <c r="R136" s="26"/>
     </row>
     <row r="137" spans="1:18" customFormat="1" ht="18">
-      <c r="A137" s="698"/>
-      <c r="B137" s="698"/>
-      <c r="C137" s="701"/>
+      <c r="A137" s="706"/>
+      <c r="B137" s="706"/>
+      <c r="C137" s="709"/>
       <c r="D137" s="113"/>
       <c r="E137" s="396"/>
       <c r="F137" s="4"/>
@@ -29054,9 +29048,9 @@
       <c r="R137" s="26"/>
     </row>
     <row r="138" spans="1:18" customFormat="1" ht="18">
-      <c r="A138" s="698"/>
-      <c r="B138" s="698"/>
-      <c r="C138" s="701"/>
+      <c r="A138" s="706"/>
+      <c r="B138" s="706"/>
+      <c r="C138" s="709"/>
       <c r="D138" s="113"/>
       <c r="E138" s="396"/>
       <c r="F138" s="4"/>
@@ -29080,9 +29074,9 @@
       <c r="R138" s="26"/>
     </row>
     <row r="139" spans="1:18" customFormat="1" ht="18">
-      <c r="A139" s="698"/>
-      <c r="B139" s="698"/>
-      <c r="C139" s="701"/>
+      <c r="A139" s="706"/>
+      <c r="B139" s="706"/>
+      <c r="C139" s="709"/>
       <c r="D139" s="113"/>
       <c r="E139" s="396"/>
       <c r="F139" s="4"/>
@@ -29106,9 +29100,9 @@
       <c r="R139" s="26"/>
     </row>
     <row r="140" spans="1:18" customFormat="1" ht="18">
-      <c r="A140" s="698"/>
-      <c r="B140" s="698"/>
-      <c r="C140" s="701"/>
+      <c r="A140" s="706"/>
+      <c r="B140" s="706"/>
+      <c r="C140" s="709"/>
       <c r="D140" s="113"/>
       <c r="E140" s="396"/>
       <c r="F140" s="4"/>
@@ -29132,9 +29126,9 @@
       <c r="R140" s="26"/>
     </row>
     <row r="141" spans="1:18" customFormat="1" ht="18">
-      <c r="A141" s="698"/>
-      <c r="B141" s="698"/>
-      <c r="C141" s="701"/>
+      <c r="A141" s="706"/>
+      <c r="B141" s="706"/>
+      <c r="C141" s="709"/>
       <c r="D141" s="113"/>
       <c r="E141" s="396"/>
       <c r="F141" s="4"/>
@@ -29158,9 +29152,9 @@
       <c r="R141" s="26"/>
     </row>
     <row r="142" spans="1:18" customFormat="1" ht="18">
-      <c r="A142" s="698"/>
-      <c r="B142" s="698"/>
-      <c r="C142" s="701"/>
+      <c r="A142" s="706"/>
+      <c r="B142" s="706"/>
+      <c r="C142" s="709"/>
       <c r="D142" s="113"/>
       <c r="E142" s="398"/>
       <c r="F142" s="3"/>
@@ -29184,9 +29178,9 @@
       <c r="R142" s="26"/>
     </row>
     <row r="143" spans="1:18" customFormat="1" ht="18">
-      <c r="A143" s="698"/>
-      <c r="B143" s="698"/>
-      <c r="C143" s="701"/>
+      <c r="A143" s="706"/>
+      <c r="B143" s="706"/>
+      <c r="C143" s="709"/>
       <c r="D143" s="113"/>
       <c r="E143" s="398"/>
       <c r="F143" s="3"/>
@@ -29210,9 +29204,9 @@
       <c r="R143" s="26"/>
     </row>
     <row r="144" spans="1:18" customFormat="1" ht="18">
-      <c r="A144" s="698"/>
-      <c r="B144" s="698"/>
-      <c r="C144" s="701"/>
+      <c r="A144" s="706"/>
+      <c r="B144" s="706"/>
+      <c r="C144" s="709"/>
       <c r="D144" s="113"/>
       <c r="E144" s="398"/>
       <c r="F144" s="3"/>
@@ -29236,9 +29230,9 @@
       <c r="R144" s="26"/>
     </row>
     <row r="145" spans="1:18" customFormat="1" ht="18">
-      <c r="A145" s="698"/>
-      <c r="B145" s="698"/>
-      <c r="C145" s="701"/>
+      <c r="A145" s="706"/>
+      <c r="B145" s="706"/>
+      <c r="C145" s="709"/>
       <c r="D145" s="113"/>
       <c r="E145" s="398"/>
       <c r="F145" s="3"/>
@@ -29262,9 +29256,9 @@
       <c r="R145" s="26"/>
     </row>
     <row r="146" spans="1:18" customFormat="1" ht="18">
-      <c r="A146" s="698"/>
-      <c r="B146" s="698"/>
-      <c r="C146" s="701"/>
+      <c r="A146" s="706"/>
+      <c r="B146" s="706"/>
+      <c r="C146" s="709"/>
       <c r="D146" s="113" t="s">
         <v>1465</v>
       </c>
@@ -29294,9 +29288,9 @@
       <c r="R146" s="26"/>
     </row>
     <row r="147" spans="1:18" s="361" customFormat="1" ht="54">
-      <c r="A147" s="698"/>
-      <c r="B147" s="698"/>
-      <c r="C147" s="701"/>
+      <c r="A147" s="706"/>
+      <c r="B147" s="706"/>
+      <c r="C147" s="709"/>
       <c r="D147" s="113" t="s">
         <v>1470</v>
       </c>
@@ -29324,9 +29318,9 @@
       <c r="Q147" s="447"/>
     </row>
     <row r="148" spans="1:18" customFormat="1" ht="18">
-      <c r="A148" s="698"/>
-      <c r="B148" s="698"/>
-      <c r="C148" s="701"/>
+      <c r="A148" s="706"/>
+      <c r="B148" s="706"/>
+      <c r="C148" s="709"/>
       <c r="D148" s="113" t="s">
         <v>1475</v>
       </c>
@@ -29356,9 +29350,9 @@
       <c r="R148" s="26"/>
     </row>
     <row r="149" spans="1:18" customFormat="1" ht="18">
-      <c r="A149" s="698"/>
-      <c r="B149" s="698"/>
-      <c r="C149" s="701"/>
+      <c r="A149" s="706"/>
+      <c r="B149" s="706"/>
+      <c r="C149" s="709"/>
       <c r="D149" s="113" t="s">
         <v>1480</v>
       </c>
@@ -29394,9 +29388,9 @@
       <c r="R149" s="26"/>
     </row>
     <row r="150" spans="1:18" customFormat="1" ht="17">
-      <c r="A150" s="698"/>
-      <c r="B150" s="698"/>
-      <c r="C150" s="701"/>
+      <c r="A150" s="706"/>
+      <c r="B150" s="706"/>
+      <c r="C150" s="709"/>
       <c r="D150" s="113"/>
       <c r="E150" s="396"/>
       <c r="F150" s="10"/>
@@ -29420,9 +29414,9 @@
       <c r="R150" s="26"/>
     </row>
     <row r="151" spans="1:18" customFormat="1" ht="18">
-      <c r="A151" s="699"/>
-      <c r="B151" s="699"/>
-      <c r="C151" s="702"/>
+      <c r="A151" s="707"/>
+      <c r="B151" s="707"/>
+      <c r="C151" s="710"/>
       <c r="D151" s="113" t="s">
         <v>1491</v>
       </c>
@@ -29556,12 +29550,6 @@
   </sheetData>
   <autoFilter ref="A1:R1" xr:uid="{CDFBAAF1-7A04-5D41-B4A2-CBD9F7460439}"/>
   <mergeCells count="18">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="C2:C19"/>
-    <mergeCell ref="A20:A37"/>
-    <mergeCell ref="B20:B37"/>
-    <mergeCell ref="C20:C37"/>
     <mergeCell ref="A44:A73"/>
     <mergeCell ref="B44:B73"/>
     <mergeCell ref="C44:C73"/>
@@ -29574,6 +29562,12 @@
     <mergeCell ref="A88:A126"/>
     <mergeCell ref="B88:B126"/>
     <mergeCell ref="C88:C126"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="C2:C19"/>
+    <mergeCell ref="A20:A37"/>
+    <mergeCell ref="B20:B37"/>
+    <mergeCell ref="C20:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -29587,8 +29581,8 @@
   </sheetPr>
   <dimension ref="A1:S188"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="E161" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O169" sqref="O169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -29664,13 +29658,13 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="54">
-      <c r="A2" s="714" t="s">
+      <c r="A2" s="716" t="s">
         <v>1498</v>
       </c>
-      <c r="B2" s="714" t="s">
+      <c r="B2" s="716" t="s">
         <v>1499</v>
       </c>
-      <c r="C2" s="728" t="s">
+      <c r="C2" s="715" t="s">
         <v>1500</v>
       </c>
       <c r="D2" s="323" t="s">
@@ -29715,9 +29709,9 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18">
-      <c r="A3" s="714"/>
-      <c r="B3" s="714"/>
-      <c r="C3" s="728"/>
+      <c r="A3" s="716"/>
+      <c r="B3" s="716"/>
+      <c r="C3" s="715"/>
       <c r="D3" s="323"/>
       <c r="E3" s="320"/>
       <c r="F3" s="322"/>
@@ -29740,9 +29734,9 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="72">
-      <c r="A4" s="714"/>
-      <c r="B4" s="714"/>
-      <c r="C4" s="728"/>
+      <c r="A4" s="716"/>
+      <c r="B4" s="716"/>
+      <c r="C4" s="715"/>
       <c r="D4" s="323" t="s">
         <v>1508</v>
       </c>
@@ -29787,9 +29781,9 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="714"/>
-      <c r="B5" s="714"/>
-      <c r="C5" s="728"/>
+      <c r="A5" s="716"/>
+      <c r="B5" s="716"/>
+      <c r="C5" s="715"/>
       <c r="D5" s="323"/>
       <c r="E5" s="324"/>
       <c r="F5" s="310"/>
@@ -29812,9 +29806,9 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="714"/>
-      <c r="B6" s="714"/>
-      <c r="C6" s="728"/>
+      <c r="A6" s="716"/>
+      <c r="B6" s="716"/>
+      <c r="C6" s="715"/>
       <c r="D6" s="323"/>
       <c r="E6" s="320"/>
       <c r="F6" s="319"/>
@@ -29837,9 +29831,9 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="714"/>
-      <c r="B7" s="714"/>
-      <c r="C7" s="728"/>
+      <c r="A7" s="716"/>
+      <c r="B7" s="716"/>
+      <c r="C7" s="715"/>
       <c r="D7" s="323"/>
       <c r="E7" s="320"/>
       <c r="F7" s="310"/>
@@ -29862,9 +29856,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="36">
-      <c r="A8" s="714"/>
-      <c r="B8" s="714"/>
-      <c r="C8" s="728"/>
+      <c r="A8" s="716"/>
+      <c r="B8" s="716"/>
+      <c r="C8" s="715"/>
       <c r="D8" s="323" t="s">
         <v>1516</v>
       </c>
@@ -29893,9 +29887,9 @@
       <c r="Q8" s="536"/>
     </row>
     <row r="9" spans="1:17" ht="18">
-      <c r="A9" s="714"/>
-      <c r="B9" s="714"/>
-      <c r="C9" s="728"/>
+      <c r="A9" s="716"/>
+      <c r="B9" s="716"/>
+      <c r="C9" s="715"/>
       <c r="D9" s="572" t="s">
         <v>1520</v>
       </c>
@@ -29924,13 +29918,13 @@
       <c r="Q9" s="536"/>
     </row>
     <row r="10" spans="1:17" s="26" customFormat="1" ht="45">
-      <c r="A10" s="714" t="s">
+      <c r="A10" s="716" t="s">
         <v>1525</v>
       </c>
-      <c r="B10" s="711" t="s">
+      <c r="B10" s="719" t="s">
         <v>1526</v>
       </c>
-      <c r="C10" s="713" t="s">
+      <c r="C10" s="717" t="s">
         <v>1527</v>
       </c>
       <c r="D10" s="402" t="s">
@@ -29977,9 +29971,9 @@
       </c>
     </row>
     <row r="11" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A11" s="714"/>
-      <c r="B11" s="711"/>
-      <c r="C11" s="713"/>
+      <c r="A11" s="716"/>
+      <c r="B11" s="719"/>
+      <c r="C11" s="717"/>
       <c r="D11" s="402"/>
       <c r="E11" s="123"/>
       <c r="F11" s="560"/>
@@ -30002,9 +29996,9 @@
       </c>
     </row>
     <row r="12" spans="1:17" s="26" customFormat="1" ht="36">
-      <c r="A12" s="714"/>
-      <c r="B12" s="711"/>
-      <c r="C12" s="713"/>
+      <c r="A12" s="716"/>
+      <c r="B12" s="719"/>
+      <c r="C12" s="717"/>
       <c r="D12" s="402"/>
       <c r="E12" s="122"/>
       <c r="F12" s="122"/>
@@ -30027,9 +30021,9 @@
       </c>
     </row>
     <row r="13" spans="1:17" s="26" customFormat="1" ht="54">
-      <c r="A13" s="714"/>
-      <c r="B13" s="711"/>
-      <c r="C13" s="713"/>
+      <c r="A13" s="716"/>
+      <c r="B13" s="719"/>
+      <c r="C13" s="717"/>
       <c r="D13" s="402"/>
       <c r="E13" s="122"/>
       <c r="F13" s="122"/>
@@ -30052,9 +30046,9 @@
       </c>
     </row>
     <row r="14" spans="1:17" s="26" customFormat="1" ht="72">
-      <c r="A14" s="714"/>
-      <c r="B14" s="711"/>
-      <c r="C14" s="713"/>
+      <c r="A14" s="716"/>
+      <c r="B14" s="719"/>
+      <c r="C14" s="717"/>
       <c r="D14" s="402" t="s">
         <v>1541</v>
       </c>
@@ -30089,9 +30083,9 @@
       <c r="Q14" s="416"/>
     </row>
     <row r="15" spans="1:17" s="26" customFormat="1" ht="54">
-      <c r="A15" s="714"/>
-      <c r="B15" s="711"/>
-      <c r="C15" s="729"/>
+      <c r="A15" s="716"/>
+      <c r="B15" s="719"/>
+      <c r="C15" s="718"/>
       <c r="D15" s="402" t="s">
         <v>1549</v>
       </c>
@@ -30132,9 +30126,9 @@
       </c>
     </row>
     <row r="16" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A16" s="714"/>
-      <c r="B16" s="711"/>
-      <c r="C16" s="729"/>
+      <c r="A16" s="716"/>
+      <c r="B16" s="719"/>
+      <c r="C16" s="718"/>
       <c r="D16" s="402"/>
       <c r="E16" s="123"/>
       <c r="F16" s="560"/>
@@ -30157,9 +30151,9 @@
       </c>
     </row>
     <row r="17" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A17" s="714"/>
-      <c r="B17" s="711"/>
-      <c r="C17" s="729"/>
+      <c r="A17" s="716"/>
+      <c r="B17" s="719"/>
+      <c r="C17" s="718"/>
       <c r="D17" s="402"/>
       <c r="E17" s="123"/>
       <c r="F17" s="560"/>
@@ -30182,9 +30176,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A18" s="714"/>
-      <c r="B18" s="711"/>
-      <c r="C18" s="729"/>
+      <c r="A18" s="716"/>
+      <c r="B18" s="719"/>
+      <c r="C18" s="718"/>
       <c r="D18" s="402"/>
       <c r="E18" s="123"/>
       <c r="F18" s="560"/>
@@ -30207,9 +30201,9 @@
       </c>
     </row>
     <row r="19" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A19" s="714"/>
-      <c r="B19" s="711"/>
-      <c r="C19" s="729"/>
+      <c r="A19" s="716"/>
+      <c r="B19" s="719"/>
+      <c r="C19" s="718"/>
       <c r="D19" s="402"/>
       <c r="E19" s="123"/>
       <c r="F19" s="560"/>
@@ -30232,9 +30226,9 @@
       </c>
     </row>
     <row r="20" spans="1:17" s="26" customFormat="1" ht="36">
-      <c r="A20" s="714"/>
-      <c r="B20" s="711"/>
-      <c r="C20" s="729"/>
+      <c r="A20" s="716"/>
+      <c r="B20" s="719"/>
+      <c r="C20" s="718"/>
       <c r="D20" s="402"/>
       <c r="E20" s="123"/>
       <c r="F20" s="560"/>
@@ -30257,9 +30251,9 @@
       </c>
     </row>
     <row r="21" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A21" s="714"/>
-      <c r="B21" s="711"/>
-      <c r="C21" s="729"/>
+      <c r="A21" s="716"/>
+      <c r="B21" s="719"/>
+      <c r="C21" s="718"/>
       <c r="D21" s="402"/>
       <c r="E21" s="123"/>
       <c r="F21" s="560"/>
@@ -30282,9 +30276,9 @@
       </c>
     </row>
     <row r="22" spans="1:17" s="26" customFormat="1" ht="90">
-      <c r="A22" s="714"/>
-      <c r="B22" s="711"/>
-      <c r="C22" s="729"/>
+      <c r="A22" s="716"/>
+      <c r="B22" s="719"/>
+      <c r="C22" s="718"/>
       <c r="D22" s="402" t="s">
         <v>1576</v>
       </c>
@@ -30327,9 +30321,9 @@
       </c>
     </row>
     <row r="23" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A23" s="714"/>
-      <c r="B23" s="711"/>
-      <c r="C23" s="729"/>
+      <c r="A23" s="716"/>
+      <c r="B23" s="719"/>
+      <c r="C23" s="718"/>
       <c r="D23" s="402"/>
       <c r="E23" s="569"/>
       <c r="F23" s="560"/>
@@ -30352,9 +30346,9 @@
       </c>
     </row>
     <row r="24" spans="1:17" s="26" customFormat="1" ht="36">
-      <c r="A24" s="714"/>
-      <c r="B24" s="711"/>
-      <c r="C24" s="729"/>
+      <c r="A24" s="716"/>
+      <c r="B24" s="719"/>
+      <c r="C24" s="718"/>
       <c r="D24" s="402"/>
       <c r="E24" s="122"/>
       <c r="F24" s="122"/>
@@ -30377,9 +30371,9 @@
       </c>
     </row>
     <row r="25" spans="1:17" s="26" customFormat="1" ht="36">
-      <c r="A25" s="714"/>
-      <c r="B25" s="711"/>
-      <c r="C25" s="729"/>
+      <c r="A25" s="716"/>
+      <c r="B25" s="719"/>
+      <c r="C25" s="718"/>
       <c r="D25" s="402"/>
       <c r="E25" s="122"/>
       <c r="F25" s="122"/>
@@ -30402,9 +30396,9 @@
       </c>
     </row>
     <row r="26" spans="1:17" s="26" customFormat="1" ht="54">
-      <c r="A26" s="714"/>
-      <c r="B26" s="711"/>
-      <c r="C26" s="729"/>
+      <c r="A26" s="716"/>
+      <c r="B26" s="719"/>
+      <c r="C26" s="718"/>
       <c r="D26" s="402" t="s">
         <v>1587</v>
       </c>
@@ -30433,13 +30427,13 @@
       <c r="Q26" s="416"/>
     </row>
     <row r="27" spans="1:17" s="26" customFormat="1" ht="72">
-      <c r="A27" s="717" t="s">
+      <c r="A27" s="720" t="s">
         <v>1591</v>
       </c>
-      <c r="B27" s="730" t="s">
+      <c r="B27" s="721" t="s">
         <v>1592</v>
       </c>
-      <c r="C27" s="732" t="s">
+      <c r="C27" s="724" t="s">
         <v>1593</v>
       </c>
       <c r="D27" s="571" t="s">
@@ -30486,9 +30480,9 @@
       </c>
     </row>
     <row r="28" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A28" s="717"/>
-      <c r="B28" s="731"/>
-      <c r="C28" s="732"/>
+      <c r="A28" s="720"/>
+      <c r="B28" s="722"/>
+      <c r="C28" s="724"/>
       <c r="D28" s="571"/>
       <c r="E28" s="122"/>
       <c r="F28" s="122"/>
@@ -30511,9 +30505,9 @@
       </c>
     </row>
     <row r="29" spans="1:17" s="26" customFormat="1" ht="72">
-      <c r="A29" s="717"/>
-      <c r="B29" s="731"/>
-      <c r="C29" s="719"/>
+      <c r="A29" s="720"/>
+      <c r="B29" s="722"/>
+      <c r="C29" s="725"/>
       <c r="D29" s="351" t="s">
         <v>1600</v>
       </c>
@@ -30556,9 +30550,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" s="26" customFormat="1" ht="19">
-      <c r="A30" s="717"/>
-      <c r="B30" s="731"/>
-      <c r="C30" s="719"/>
+      <c r="A30" s="720"/>
+      <c r="B30" s="722"/>
+      <c r="C30" s="725"/>
       <c r="D30" s="119"/>
       <c r="E30" s="184"/>
       <c r="F30" s="328"/>
@@ -30581,9 +30575,9 @@
       </c>
     </row>
     <row r="31" spans="1:17" s="26" customFormat="1" ht="19">
-      <c r="A31" s="717"/>
-      <c r="B31" s="731"/>
-      <c r="C31" s="719"/>
+      <c r="A31" s="720"/>
+      <c r="B31" s="722"/>
+      <c r="C31" s="725"/>
       <c r="D31" s="119"/>
       <c r="E31" s="184"/>
       <c r="F31" s="328"/>
@@ -30606,9 +30600,9 @@
       </c>
     </row>
     <row r="32" spans="1:17" s="26" customFormat="1" ht="19">
-      <c r="A32" s="717"/>
-      <c r="B32" s="731"/>
-      <c r="C32" s="719"/>
+      <c r="A32" s="720"/>
+      <c r="B32" s="722"/>
+      <c r="C32" s="725"/>
       <c r="D32" s="119"/>
       <c r="E32" s="184"/>
       <c r="F32" s="328"/>
@@ -30631,9 +30625,9 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="26" customFormat="1" ht="19">
-      <c r="A33" s="717"/>
-      <c r="B33" s="731"/>
-      <c r="C33" s="719"/>
+      <c r="A33" s="720"/>
+      <c r="B33" s="722"/>
+      <c r="C33" s="725"/>
       <c r="D33" s="119"/>
       <c r="E33" s="184"/>
       <c r="F33" s="328"/>
@@ -30656,9 +30650,9 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="26" customFormat="1" ht="19">
-      <c r="A34" s="717"/>
-      <c r="B34" s="731"/>
-      <c r="C34" s="719"/>
+      <c r="A34" s="720"/>
+      <c r="B34" s="722"/>
+      <c r="C34" s="725"/>
       <c r="D34" s="119"/>
       <c r="E34" s="184"/>
       <c r="F34" s="328"/>
@@ -30681,9 +30675,9 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="26" customFormat="1" ht="19">
-      <c r="A35" s="717"/>
-      <c r="B35" s="731"/>
-      <c r="C35" s="719"/>
+      <c r="A35" s="720"/>
+      <c r="B35" s="722"/>
+      <c r="C35" s="725"/>
       <c r="D35" s="119"/>
       <c r="E35" s="184"/>
       <c r="F35" s="328"/>
@@ -30704,9 +30698,9 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="26" customFormat="1" ht="19">
-      <c r="A36" s="717"/>
-      <c r="B36" s="731"/>
-      <c r="C36" s="719"/>
+      <c r="A36" s="720"/>
+      <c r="B36" s="722"/>
+      <c r="C36" s="725"/>
       <c r="D36" s="119"/>
       <c r="E36" s="184"/>
       <c r="F36" s="328"/>
@@ -30727,9 +30721,9 @@
       </c>
     </row>
     <row r="37" spans="1:19" s="26" customFormat="1" ht="19">
-      <c r="A37" s="717"/>
-      <c r="B37" s="731"/>
-      <c r="C37" s="719"/>
+      <c r="A37" s="720"/>
+      <c r="B37" s="722"/>
+      <c r="C37" s="725"/>
       <c r="D37" s="119"/>
       <c r="E37" s="184"/>
       <c r="F37" s="328"/>
@@ -30750,9 +30744,9 @@
       </c>
     </row>
     <row r="38" spans="1:19" s="26" customFormat="1" ht="80">
-      <c r="A38" s="717"/>
-      <c r="B38" s="716"/>
-      <c r="C38" s="719"/>
+      <c r="A38" s="720"/>
+      <c r="B38" s="723"/>
+      <c r="C38" s="725"/>
       <c r="D38" s="351" t="s">
         <v>1600</v>
       </c>
@@ -30785,13 +30779,13 @@
       <c r="Q38" s="416"/>
     </row>
     <row r="39" spans="1:19" s="26" customFormat="1" ht="126">
-      <c r="A39" s="716" t="s">
+      <c r="A39" s="723" t="s">
         <v>1634</v>
       </c>
-      <c r="B39" s="716" t="s">
+      <c r="B39" s="723" t="s">
         <v>1635</v>
       </c>
-      <c r="C39" s="718" t="s">
+      <c r="C39" s="735" t="s">
         <v>1636</v>
       </c>
       <c r="D39" s="351" t="s">
@@ -30836,9 +30830,9 @@
       </c>
     </row>
     <row r="40" spans="1:19" s="26" customFormat="1" ht="18">
-      <c r="A40" s="717"/>
-      <c r="B40" s="717"/>
-      <c r="C40" s="719"/>
+      <c r="A40" s="720"/>
+      <c r="B40" s="720"/>
+      <c r="C40" s="725"/>
       <c r="D40" s="119"/>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
@@ -30861,9 +30855,9 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="26" customFormat="1" ht="126">
-      <c r="A41" s="717"/>
-      <c r="B41" s="717"/>
-      <c r="C41" s="719"/>
+      <c r="A41" s="720"/>
+      <c r="B41" s="720"/>
+      <c r="C41" s="725"/>
       <c r="D41" s="119" t="s">
         <v>1644</v>
       </c>
@@ -30906,9 +30900,9 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="26" customFormat="1" ht="18">
-      <c r="A42" s="717"/>
-      <c r="B42" s="717"/>
-      <c r="C42" s="719"/>
+      <c r="A42" s="720"/>
+      <c r="B42" s="720"/>
+      <c r="C42" s="725"/>
       <c r="D42" s="119"/>
       <c r="E42" s="184"/>
       <c r="F42" s="328"/>
@@ -30931,9 +30925,9 @@
       </c>
     </row>
     <row r="43" spans="1:19" s="26" customFormat="1" ht="18">
-      <c r="A43" s="717"/>
-      <c r="B43" s="717"/>
-      <c r="C43" s="719"/>
+      <c r="A43" s="720"/>
+      <c r="B43" s="720"/>
+      <c r="C43" s="725"/>
       <c r="D43" s="119"/>
       <c r="E43" s="184"/>
       <c r="F43" s="328"/>
@@ -30956,9 +30950,9 @@
       </c>
     </row>
     <row r="44" spans="1:19" s="26" customFormat="1" ht="18">
-      <c r="A44" s="717"/>
-      <c r="B44" s="717"/>
-      <c r="C44" s="719"/>
+      <c r="A44" s="720"/>
+      <c r="B44" s="720"/>
+      <c r="C44" s="725"/>
       <c r="D44" s="119"/>
       <c r="E44" s="184"/>
       <c r="F44" s="328"/>
@@ -30981,9 +30975,9 @@
       </c>
     </row>
     <row r="45" spans="1:19" s="26" customFormat="1" ht="18">
-      <c r="A45" s="717"/>
-      <c r="B45" s="717"/>
-      <c r="C45" s="719"/>
+      <c r="A45" s="720"/>
+      <c r="B45" s="720"/>
+      <c r="C45" s="725"/>
       <c r="D45" s="119"/>
       <c r="E45" s="48"/>
       <c r="F45" s="48"/>
@@ -31006,9 +31000,9 @@
       </c>
     </row>
     <row r="46" spans="1:19" s="26" customFormat="1" ht="36">
-      <c r="A46" s="717"/>
-      <c r="B46" s="717"/>
-      <c r="C46" s="719"/>
+      <c r="A46" s="720"/>
+      <c r="B46" s="720"/>
+      <c r="C46" s="725"/>
       <c r="D46" s="119" t="s">
         <v>1666</v>
       </c>
@@ -31040,13 +31034,13 @@
       </c>
     </row>
     <row r="47" spans="1:19" s="26" customFormat="1" ht="72">
-      <c r="A47" s="720" t="s">
+      <c r="A47" s="736" t="s">
         <v>1143</v>
       </c>
-      <c r="B47" s="720" t="s">
+      <c r="B47" s="736" t="s">
         <v>1671</v>
       </c>
-      <c r="C47" s="722" t="s">
+      <c r="C47" s="738" t="s">
         <v>1672</v>
       </c>
       <c r="D47" s="327" t="s">
@@ -31091,9 +31085,9 @@
       </c>
     </row>
     <row r="48" spans="1:19" s="26" customFormat="1" ht="18">
-      <c r="A48" s="720"/>
-      <c r="B48" s="720"/>
-      <c r="C48" s="722"/>
+      <c r="A48" s="736"/>
+      <c r="B48" s="736"/>
+      <c r="C48" s="738"/>
       <c r="D48" s="327"/>
       <c r="E48" s="48"/>
       <c r="F48" s="48"/>
@@ -31116,9 +31110,9 @@
       </c>
     </row>
     <row r="49" spans="1:17" s="26" customFormat="1" ht="72">
-      <c r="A49" s="720"/>
-      <c r="B49" s="720"/>
-      <c r="C49" s="722"/>
+      <c r="A49" s="736"/>
+      <c r="B49" s="736"/>
+      <c r="C49" s="738"/>
       <c r="D49" s="327" t="s">
         <v>1679</v>
       </c>
@@ -31161,9 +31155,9 @@
       </c>
     </row>
     <row r="50" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A50" s="720"/>
-      <c r="B50" s="720"/>
-      <c r="C50" s="722"/>
+      <c r="A50" s="736"/>
+      <c r="B50" s="736"/>
+      <c r="C50" s="738"/>
       <c r="D50" s="327"/>
       <c r="E50" s="184"/>
       <c r="F50" s="328"/>
@@ -31186,9 +31180,9 @@
       </c>
     </row>
     <row r="51" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A51" s="720"/>
-      <c r="B51" s="720"/>
-      <c r="C51" s="722"/>
+      <c r="A51" s="736"/>
+      <c r="B51" s="736"/>
+      <c r="C51" s="738"/>
       <c r="D51" s="327"/>
       <c r="E51" s="184"/>
       <c r="F51" s="328"/>
@@ -31211,9 +31205,9 @@
       </c>
     </row>
     <row r="52" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A52" s="720"/>
-      <c r="B52" s="720"/>
-      <c r="C52" s="722"/>
+      <c r="A52" s="736"/>
+      <c r="B52" s="736"/>
+      <c r="C52" s="738"/>
       <c r="D52" s="327"/>
       <c r="E52" s="184"/>
       <c r="F52" s="328"/>
@@ -31236,9 +31230,9 @@
       </c>
     </row>
     <row r="53" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A53" s="720"/>
-      <c r="B53" s="720"/>
-      <c r="C53" s="722"/>
+      <c r="A53" s="736"/>
+      <c r="B53" s="736"/>
+      <c r="C53" s="738"/>
       <c r="D53" s="327"/>
       <c r="E53" s="184"/>
       <c r="F53" s="328"/>
@@ -31261,9 +31255,9 @@
       </c>
     </row>
     <row r="54" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A54" s="721"/>
-      <c r="B54" s="721"/>
-      <c r="C54" s="723"/>
+      <c r="A54" s="737"/>
+      <c r="B54" s="737"/>
+      <c r="C54" s="739"/>
       <c r="D54" s="326"/>
       <c r="E54" s="495"/>
       <c r="F54" s="328"/>
@@ -31286,13 +31280,13 @@
       </c>
     </row>
     <row r="55" spans="1:17" s="342" customFormat="1" ht="90">
-      <c r="A55" s="733" t="s">
+      <c r="A55" s="726" t="s">
         <v>1701</v>
       </c>
-      <c r="B55" s="736" t="s">
+      <c r="B55" s="729" t="s">
         <v>1702</v>
       </c>
-      <c r="C55" s="739" t="s">
+      <c r="C55" s="732" t="s">
         <v>1703</v>
       </c>
       <c r="D55" s="345" t="s">
@@ -31331,9 +31325,9 @@
       </c>
     </row>
     <row r="56" spans="1:17" s="342" customFormat="1" ht="18">
-      <c r="A56" s="734"/>
-      <c r="B56" s="737"/>
-      <c r="C56" s="740"/>
+      <c r="A56" s="727"/>
+      <c r="B56" s="730"/>
+      <c r="C56" s="733"/>
       <c r="D56" s="383"/>
       <c r="E56" s="375"/>
       <c r="F56" s="373"/>
@@ -31356,9 +31350,9 @@
       </c>
     </row>
     <row r="57" spans="1:17" s="342" customFormat="1" ht="18">
-      <c r="A57" s="734"/>
-      <c r="B57" s="737"/>
-      <c r="C57" s="740"/>
+      <c r="A57" s="727"/>
+      <c r="B57" s="730"/>
+      <c r="C57" s="733"/>
       <c r="D57" s="383"/>
       <c r="E57" s="375"/>
       <c r="F57" s="373"/>
@@ -31381,9 +31375,9 @@
       </c>
     </row>
     <row r="58" spans="1:17" s="342" customFormat="1" ht="18">
-      <c r="A58" s="734"/>
-      <c r="B58" s="737"/>
-      <c r="C58" s="740"/>
+      <c r="A58" s="727"/>
+      <c r="B58" s="730"/>
+      <c r="C58" s="733"/>
       <c r="D58" s="383"/>
       <c r="E58" s="375"/>
       <c r="F58" s="373"/>
@@ -31406,9 +31400,9 @@
       </c>
     </row>
     <row r="59" spans="1:17" s="342" customFormat="1" ht="18">
-      <c r="A59" s="734"/>
-      <c r="B59" s="737"/>
-      <c r="C59" s="740"/>
+      <c r="A59" s="727"/>
+      <c r="B59" s="730"/>
+      <c r="C59" s="733"/>
       <c r="D59" s="383"/>
       <c r="E59" s="375"/>
       <c r="F59" s="373"/>
@@ -31431,9 +31425,9 @@
       </c>
     </row>
     <row r="60" spans="1:17" s="342" customFormat="1" ht="18">
-      <c r="A60" s="734"/>
-      <c r="B60" s="737"/>
-      <c r="C60" s="740"/>
+      <c r="A60" s="727"/>
+      <c r="B60" s="730"/>
+      <c r="C60" s="733"/>
       <c r="D60" s="383"/>
       <c r="E60" s="375"/>
       <c r="F60" s="373"/>
@@ -31456,9 +31450,9 @@
       </c>
     </row>
     <row r="61" spans="1:17" s="342" customFormat="1" ht="18">
-      <c r="A61" s="734"/>
-      <c r="B61" s="737"/>
-      <c r="C61" s="740"/>
+      <c r="A61" s="727"/>
+      <c r="B61" s="730"/>
+      <c r="C61" s="733"/>
       <c r="D61" s="383"/>
       <c r="E61" s="375"/>
       <c r="F61" s="373"/>
@@ -31481,9 +31475,9 @@
       </c>
     </row>
     <row r="62" spans="1:17" s="342" customFormat="1" ht="18">
-      <c r="A62" s="734"/>
-      <c r="B62" s="737"/>
-      <c r="C62" s="740"/>
+      <c r="A62" s="727"/>
+      <c r="B62" s="730"/>
+      <c r="C62" s="733"/>
       <c r="D62" s="383"/>
       <c r="E62" s="375"/>
       <c r="F62" s="373"/>
@@ -31506,9 +31500,9 @@
       </c>
     </row>
     <row r="63" spans="1:17" s="342" customFormat="1" ht="18">
-      <c r="A63" s="734"/>
-      <c r="B63" s="737"/>
-      <c r="C63" s="740"/>
+      <c r="A63" s="727"/>
+      <c r="B63" s="730"/>
+      <c r="C63" s="733"/>
       <c r="D63" s="383"/>
       <c r="E63" s="375"/>
       <c r="F63" s="373"/>
@@ -31531,9 +31525,9 @@
       </c>
     </row>
     <row r="64" spans="1:17" s="342" customFormat="1" ht="18">
-      <c r="A64" s="734"/>
-      <c r="B64" s="737"/>
-      <c r="C64" s="740"/>
+      <c r="A64" s="727"/>
+      <c r="B64" s="730"/>
+      <c r="C64" s="733"/>
       <c r="D64" s="383"/>
       <c r="E64" s="375"/>
       <c r="F64" s="373"/>
@@ -31556,9 +31550,9 @@
       </c>
     </row>
     <row r="65" spans="1:17" s="342" customFormat="1" ht="18">
-      <c r="A65" s="734"/>
-      <c r="B65" s="737"/>
-      <c r="C65" s="740"/>
+      <c r="A65" s="727"/>
+      <c r="B65" s="730"/>
+      <c r="C65" s="733"/>
       <c r="D65" s="383"/>
       <c r="E65" s="375"/>
       <c r="F65" s="373"/>
@@ -31581,9 +31575,9 @@
       </c>
     </row>
     <row r="66" spans="1:17" s="342" customFormat="1" ht="36">
-      <c r="A66" s="734"/>
-      <c r="B66" s="737"/>
-      <c r="C66" s="740"/>
+      <c r="A66" s="727"/>
+      <c r="B66" s="730"/>
+      <c r="C66" s="733"/>
       <c r="D66" s="383"/>
       <c r="E66" s="375"/>
       <c r="F66" s="373"/>
@@ -31606,9 +31600,9 @@
       </c>
     </row>
     <row r="67" spans="1:17" s="342" customFormat="1" ht="18">
-      <c r="A67" s="734"/>
-      <c r="B67" s="737"/>
-      <c r="C67" s="740"/>
+      <c r="A67" s="727"/>
+      <c r="B67" s="730"/>
+      <c r="C67" s="733"/>
       <c r="D67" s="383"/>
       <c r="E67" s="375"/>
       <c r="F67" s="373"/>
@@ -31631,9 +31625,9 @@
       </c>
     </row>
     <row r="68" spans="1:17" s="342" customFormat="1" ht="18">
-      <c r="A68" s="734"/>
-      <c r="B68" s="737"/>
-      <c r="C68" s="740"/>
+      <c r="A68" s="727"/>
+      <c r="B68" s="730"/>
+      <c r="C68" s="733"/>
       <c r="D68" s="383"/>
       <c r="E68" s="375"/>
       <c r="F68" s="373"/>
@@ -31656,9 +31650,9 @@
       </c>
     </row>
     <row r="69" spans="1:17" s="342" customFormat="1" ht="18">
-      <c r="A69" s="734"/>
-      <c r="B69" s="737"/>
-      <c r="C69" s="740"/>
+      <c r="A69" s="727"/>
+      <c r="B69" s="730"/>
+      <c r="C69" s="733"/>
       <c r="D69" s="383"/>
       <c r="E69" s="375"/>
       <c r="F69" s="373"/>
@@ -31681,9 +31675,9 @@
       </c>
     </row>
     <row r="70" spans="1:17" s="342" customFormat="1" ht="90">
-      <c r="A70" s="735"/>
-      <c r="B70" s="738"/>
-      <c r="C70" s="741"/>
+      <c r="A70" s="728"/>
+      <c r="B70" s="731"/>
+      <c r="C70" s="734"/>
       <c r="D70" s="383" t="s">
         <v>1752</v>
       </c>
@@ -31945,13 +31939,13 @@
       </c>
     </row>
     <row r="80" spans="1:17" s="342" customFormat="1" ht="36">
-      <c r="A80" s="714" t="s">
+      <c r="A80" s="716" t="s">
         <v>1788</v>
       </c>
-      <c r="B80" s="714" t="s">
+      <c r="B80" s="716" t="s">
         <v>1789</v>
       </c>
-      <c r="C80" s="715" t="s">
+      <c r="C80" s="742" t="s">
         <v>1790</v>
       </c>
       <c r="D80" s="323" t="s">
@@ -31988,9 +31982,9 @@
       </c>
     </row>
     <row r="81" spans="1:17" s="342" customFormat="1" ht="18">
-      <c r="A81" s="714"/>
-      <c r="B81" s="714"/>
-      <c r="C81" s="715"/>
+      <c r="A81" s="716"/>
+      <c r="B81" s="716"/>
+      <c r="C81" s="742"/>
       <c r="D81" s="323"/>
       <c r="E81" s="343"/>
       <c r="F81" s="343"/>
@@ -32013,9 +32007,9 @@
       </c>
     </row>
     <row r="82" spans="1:17" ht="72">
-      <c r="A82" s="714"/>
-      <c r="B82" s="714"/>
-      <c r="C82" s="715"/>
+      <c r="A82" s="716"/>
+      <c r="B82" s="716"/>
+      <c r="C82" s="742"/>
       <c r="D82" s="323" t="s">
         <v>1796</v>
       </c>
@@ -32054,9 +32048,9 @@
       <c r="Q82" s="413"/>
     </row>
     <row r="83" spans="1:17" ht="120">
-      <c r="A83" s="714"/>
-      <c r="B83" s="714"/>
-      <c r="C83" s="715"/>
+      <c r="A83" s="716"/>
+      <c r="B83" s="716"/>
+      <c r="C83" s="742"/>
       <c r="D83" s="323" t="s">
         <v>1805</v>
       </c>
@@ -32095,13 +32089,13 @@
       <c r="Q83" s="413"/>
     </row>
     <row r="84" spans="1:17" s="26" customFormat="1" ht="72">
-      <c r="A84" s="710" t="s">
+      <c r="A84" s="740" t="s">
         <v>1812</v>
       </c>
-      <c r="B84" s="711" t="s">
+      <c r="B84" s="719" t="s">
         <v>1813</v>
       </c>
-      <c r="C84" s="712" t="s">
+      <c r="C84" s="741" t="s">
         <v>1814</v>
       </c>
       <c r="D84" s="402" t="s">
@@ -32146,9 +32140,9 @@
       </c>
     </row>
     <row r="85" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A85" s="710"/>
-      <c r="B85" s="711"/>
-      <c r="C85" s="713"/>
+      <c r="A85" s="740"/>
+      <c r="B85" s="719"/>
+      <c r="C85" s="717"/>
       <c r="D85" s="402"/>
       <c r="E85" s="123"/>
       <c r="F85" s="560"/>
@@ -32171,9 +32165,9 @@
       </c>
     </row>
     <row r="86" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A86" s="710"/>
-      <c r="B86" s="711"/>
-      <c r="C86" s="713"/>
+      <c r="A86" s="740"/>
+      <c r="B86" s="719"/>
+      <c r="C86" s="717"/>
       <c r="D86" s="402"/>
       <c r="E86" s="123"/>
       <c r="F86" s="560"/>
@@ -32196,9 +32190,9 @@
       </c>
     </row>
     <row r="87" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A87" s="710"/>
-      <c r="B87" s="711"/>
-      <c r="C87" s="713"/>
+      <c r="A87" s="740"/>
+      <c r="B87" s="719"/>
+      <c r="C87" s="717"/>
       <c r="D87" s="402"/>
       <c r="E87" s="123"/>
       <c r="F87" s="560"/>
@@ -32221,9 +32215,9 @@
       </c>
     </row>
     <row r="88" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A88" s="710"/>
-      <c r="B88" s="711"/>
-      <c r="C88" s="713"/>
+      <c r="A88" s="740"/>
+      <c r="B88" s="719"/>
+      <c r="C88" s="717"/>
       <c r="D88" s="402"/>
       <c r="E88" s="123"/>
       <c r="F88" s="560"/>
@@ -32246,9 +32240,9 @@
       </c>
     </row>
     <row r="89" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A89" s="710"/>
-      <c r="B89" s="711"/>
-      <c r="C89" s="713"/>
+      <c r="A89" s="740"/>
+      <c r="B89" s="719"/>
+      <c r="C89" s="717"/>
       <c r="D89" s="402"/>
       <c r="E89" s="123"/>
       <c r="F89" s="560"/>
@@ -32271,9 +32265,9 @@
       </c>
     </row>
     <row r="90" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A90" s="710"/>
-      <c r="B90" s="711"/>
-      <c r="C90" s="713"/>
+      <c r="A90" s="740"/>
+      <c r="B90" s="719"/>
+      <c r="C90" s="717"/>
       <c r="D90" s="402"/>
       <c r="E90" s="123"/>
       <c r="F90" s="560"/>
@@ -32296,9 +32290,9 @@
       </c>
     </row>
     <row r="91" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A91" s="710"/>
-      <c r="B91" s="711"/>
-      <c r="C91" s="713"/>
+      <c r="A91" s="740"/>
+      <c r="B91" s="719"/>
+      <c r="C91" s="717"/>
       <c r="D91" s="402"/>
       <c r="E91" s="123"/>
       <c r="F91" s="560"/>
@@ -32321,9 +32315,9 @@
       </c>
     </row>
     <row r="92" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A92" s="710"/>
-      <c r="B92" s="711"/>
-      <c r="C92" s="713"/>
+      <c r="A92" s="740"/>
+      <c r="B92" s="719"/>
+      <c r="C92" s="717"/>
       <c r="D92" s="402"/>
       <c r="E92" s="123"/>
       <c r="F92" s="560"/>
@@ -32346,9 +32340,9 @@
       </c>
     </row>
     <row r="93" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A93" s="710"/>
-      <c r="B93" s="711"/>
-      <c r="C93" s="713"/>
+      <c r="A93" s="740"/>
+      <c r="B93" s="719"/>
+      <c r="C93" s="717"/>
       <c r="D93" s="402"/>
       <c r="E93" s="123"/>
       <c r="F93" s="560"/>
@@ -32371,9 +32365,9 @@
       </c>
     </row>
     <row r="94" spans="1:17" s="26" customFormat="1" ht="72">
-      <c r="A94" s="710"/>
-      <c r="B94" s="711"/>
-      <c r="C94" s="713"/>
+      <c r="A94" s="740"/>
+      <c r="B94" s="719"/>
+      <c r="C94" s="717"/>
       <c r="D94" s="402" t="s">
         <v>1851</v>
       </c>
@@ -32416,9 +32410,9 @@
       </c>
     </row>
     <row r="95" spans="1:17" s="26" customFormat="1" ht="32">
-      <c r="A95" s="710"/>
-      <c r="B95" s="711"/>
-      <c r="C95" s="713"/>
+      <c r="A95" s="740"/>
+      <c r="B95" s="719"/>
+      <c r="C95" s="717"/>
       <c r="D95" s="402"/>
       <c r="E95" s="123"/>
       <c r="F95" s="560"/>
@@ -32441,9 +32435,9 @@
       </c>
     </row>
     <row r="96" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A96" s="710"/>
-      <c r="B96" s="711"/>
-      <c r="C96" s="713"/>
+      <c r="A96" s="740"/>
+      <c r="B96" s="719"/>
+      <c r="C96" s="717"/>
       <c r="D96" s="402"/>
       <c r="E96" s="123"/>
       <c r="F96" s="560"/>
@@ -32466,9 +32460,9 @@
       </c>
     </row>
     <row r="97" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A97" s="710"/>
-      <c r="B97" s="711"/>
-      <c r="C97" s="713"/>
+      <c r="A97" s="740"/>
+      <c r="B97" s="719"/>
+      <c r="C97" s="717"/>
       <c r="D97" s="402"/>
       <c r="E97" s="123"/>
       <c r="F97" s="560"/>
@@ -32491,9 +32485,9 @@
       </c>
     </row>
     <row r="98" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A98" s="710"/>
-      <c r="B98" s="711"/>
-      <c r="C98" s="713"/>
+      <c r="A98" s="740"/>
+      <c r="B98" s="719"/>
+      <c r="C98" s="717"/>
       <c r="D98" s="402"/>
       <c r="E98" s="123"/>
       <c r="F98" s="560"/>
@@ -32516,9 +32510,9 @@
       </c>
     </row>
     <row r="99" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A99" s="710"/>
-      <c r="B99" s="711"/>
-      <c r="C99" s="713"/>
+      <c r="A99" s="740"/>
+      <c r="B99" s="719"/>
+      <c r="C99" s="717"/>
       <c r="D99" s="402"/>
       <c r="E99" s="123"/>
       <c r="F99" s="560"/>
@@ -32541,9 +32535,9 @@
       </c>
     </row>
     <row r="100" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A100" s="710"/>
-      <c r="B100" s="711"/>
-      <c r="C100" s="713"/>
+      <c r="A100" s="740"/>
+      <c r="B100" s="719"/>
+      <c r="C100" s="717"/>
       <c r="D100" s="402"/>
       <c r="E100" s="123"/>
       <c r="F100" s="560"/>
@@ -32566,9 +32560,9 @@
       </c>
     </row>
     <row r="101" spans="1:17" s="26" customFormat="1" ht="72">
-      <c r="A101" s="710"/>
-      <c r="B101" s="711"/>
-      <c r="C101" s="713"/>
+      <c r="A101" s="740"/>
+      <c r="B101" s="719"/>
+      <c r="C101" s="717"/>
       <c r="D101" s="402" t="s">
         <v>1877</v>
       </c>
@@ -32609,9 +32603,9 @@
       </c>
     </row>
     <row r="102" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A102" s="710"/>
-      <c r="B102" s="711"/>
-      <c r="C102" s="713"/>
+      <c r="A102" s="740"/>
+      <c r="B102" s="719"/>
+      <c r="C102" s="717"/>
       <c r="D102" s="402"/>
       <c r="E102" s="123"/>
       <c r="F102" s="560"/>
@@ -32634,9 +32628,9 @@
       </c>
     </row>
     <row r="103" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A103" s="710"/>
-      <c r="B103" s="711"/>
-      <c r="C103" s="713"/>
+      <c r="A103" s="740"/>
+      <c r="B103" s="719"/>
+      <c r="C103" s="717"/>
       <c r="D103" s="402"/>
       <c r="E103" s="123"/>
       <c r="F103" s="560"/>
@@ -32659,9 +32653,9 @@
       </c>
     </row>
     <row r="104" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A104" s="710"/>
-      <c r="B104" s="711"/>
-      <c r="C104" s="713"/>
+      <c r="A104" s="740"/>
+      <c r="B104" s="719"/>
+      <c r="C104" s="717"/>
       <c r="D104" s="402"/>
       <c r="E104" s="123"/>
       <c r="F104" s="560"/>
@@ -32684,9 +32678,9 @@
       </c>
     </row>
     <row r="105" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A105" s="710"/>
-      <c r="B105" s="711"/>
-      <c r="C105" s="713"/>
+      <c r="A105" s="740"/>
+      <c r="B105" s="719"/>
+      <c r="C105" s="717"/>
       <c r="D105" s="402"/>
       <c r="E105" s="123"/>
       <c r="F105" s="560"/>
@@ -32709,9 +32703,9 @@
       </c>
     </row>
     <row r="106" spans="1:17" s="26" customFormat="1" ht="36">
-      <c r="A106" s="710"/>
-      <c r="B106" s="711"/>
-      <c r="C106" s="713"/>
+      <c r="A106" s="740"/>
+      <c r="B106" s="719"/>
+      <c r="C106" s="717"/>
       <c r="D106" s="402"/>
       <c r="E106" s="123"/>
       <c r="F106" s="560"/>
@@ -32734,9 +32728,9 @@
       </c>
     </row>
     <row r="107" spans="1:17" s="26" customFormat="1" ht="72">
-      <c r="A107" s="710"/>
-      <c r="B107" s="711"/>
-      <c r="C107" s="713"/>
+      <c r="A107" s="740"/>
+      <c r="B107" s="719"/>
+      <c r="C107" s="717"/>
       <c r="D107" s="402" t="s">
         <v>1898</v>
       </c>
@@ -32779,9 +32773,9 @@
       </c>
     </row>
     <row r="108" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A108" s="710"/>
-      <c r="B108" s="711"/>
-      <c r="C108" s="713"/>
+      <c r="A108" s="740"/>
+      <c r="B108" s="719"/>
+      <c r="C108" s="717"/>
       <c r="D108" s="402"/>
       <c r="E108" s="123"/>
       <c r="F108" s="560"/>
@@ -32804,9 +32798,9 @@
       </c>
     </row>
     <row r="109" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A109" s="710"/>
-      <c r="B109" s="711"/>
-      <c r="C109" s="713"/>
+      <c r="A109" s="740"/>
+      <c r="B109" s="719"/>
+      <c r="C109" s="717"/>
       <c r="D109" s="402"/>
       <c r="E109" s="123"/>
       <c r="F109" s="560"/>
@@ -32829,9 +32823,9 @@
       </c>
     </row>
     <row r="110" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A110" s="710"/>
-      <c r="B110" s="711"/>
-      <c r="C110" s="713"/>
+      <c r="A110" s="740"/>
+      <c r="B110" s="719"/>
+      <c r="C110" s="717"/>
       <c r="D110" s="402"/>
       <c r="E110" s="123"/>
       <c r="F110" s="560"/>
@@ -32854,9 +32848,9 @@
       </c>
     </row>
     <row r="111" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A111" s="710"/>
-      <c r="B111" s="711"/>
-      <c r="C111" s="713"/>
+      <c r="A111" s="740"/>
+      <c r="B111" s="719"/>
+      <c r="C111" s="717"/>
       <c r="D111" s="402"/>
       <c r="E111" s="123"/>
       <c r="F111" s="560"/>
@@ -32879,9 +32873,9 @@
       </c>
     </row>
     <row r="112" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A112" s="710"/>
-      <c r="B112" s="711"/>
-      <c r="C112" s="713"/>
+      <c r="A112" s="740"/>
+      <c r="B112" s="719"/>
+      <c r="C112" s="717"/>
       <c r="D112" s="402"/>
       <c r="E112" s="123"/>
       <c r="F112" s="560"/>
@@ -32904,9 +32898,9 @@
       </c>
     </row>
     <row r="113" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A113" s="710"/>
-      <c r="B113" s="711"/>
-      <c r="C113" s="713"/>
+      <c r="A113" s="740"/>
+      <c r="B113" s="719"/>
+      <c r="C113" s="717"/>
       <c r="D113" s="402"/>
       <c r="E113" s="123"/>
       <c r="F113" s="560"/>
@@ -32929,9 +32923,9 @@
       </c>
     </row>
     <row r="114" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A114" s="710"/>
-      <c r="B114" s="711"/>
-      <c r="C114" s="713"/>
+      <c r="A114" s="740"/>
+      <c r="B114" s="719"/>
+      <c r="C114" s="717"/>
       <c r="D114" s="402"/>
       <c r="E114" s="123"/>
       <c r="F114" s="560"/>
@@ -32954,9 +32948,9 @@
       </c>
     </row>
     <row r="115" spans="1:17" s="26" customFormat="1" ht="36">
-      <c r="A115" s="710"/>
-      <c r="B115" s="711"/>
-      <c r="C115" s="713"/>
+      <c r="A115" s="740"/>
+      <c r="B115" s="719"/>
+      <c r="C115" s="717"/>
       <c r="D115" s="402" t="s">
         <v>1923</v>
       </c>
@@ -32999,9 +32993,9 @@
       </c>
     </row>
     <row r="116" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A116" s="710"/>
-      <c r="B116" s="711"/>
-      <c r="C116" s="713"/>
+      <c r="A116" s="740"/>
+      <c r="B116" s="719"/>
+      <c r="C116" s="717"/>
       <c r="D116" s="402"/>
       <c r="E116" s="123"/>
       <c r="F116" s="560"/>
@@ -33024,9 +33018,9 @@
       </c>
     </row>
     <row r="117" spans="1:17" s="510" customFormat="1" ht="90">
-      <c r="A117" s="710"/>
-      <c r="B117" s="711"/>
-      <c r="C117" s="713"/>
+      <c r="A117" s="740"/>
+      <c r="B117" s="719"/>
+      <c r="C117" s="717"/>
       <c r="D117" s="402" t="s">
         <v>1934</v>
       </c>
@@ -33067,9 +33061,9 @@
       </c>
     </row>
     <row r="118" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A118" s="710"/>
-      <c r="B118" s="711"/>
-      <c r="C118" s="713"/>
+      <c r="A118" s="740"/>
+      <c r="B118" s="719"/>
+      <c r="C118" s="717"/>
       <c r="D118" s="402"/>
       <c r="E118" s="123"/>
       <c r="F118" s="123"/>
@@ -33092,9 +33086,9 @@
       </c>
     </row>
     <row r="119" spans="1:17" s="26" customFormat="1" ht="36">
-      <c r="A119" s="710"/>
-      <c r="B119" s="711"/>
-      <c r="C119" s="713"/>
+      <c r="A119" s="740"/>
+      <c r="B119" s="719"/>
+      <c r="C119" s="717"/>
       <c r="D119" s="402" t="s">
         <v>1941</v>
       </c>
@@ -33135,9 +33129,9 @@
       </c>
     </row>
     <row r="120" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A120" s="710"/>
-      <c r="B120" s="711"/>
-      <c r="C120" s="713"/>
+      <c r="A120" s="740"/>
+      <c r="B120" s="719"/>
+      <c r="C120" s="717"/>
       <c r="D120" s="402"/>
       <c r="E120" s="123"/>
       <c r="F120" s="560"/>
@@ -33160,9 +33154,9 @@
       </c>
     </row>
     <row r="121" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A121" s="710"/>
-      <c r="B121" s="711"/>
-      <c r="C121" s="713"/>
+      <c r="A121" s="740"/>
+      <c r="B121" s="719"/>
+      <c r="C121" s="717"/>
       <c r="D121" s="402"/>
       <c r="E121" s="123"/>
       <c r="F121" s="560"/>
@@ -33185,9 +33179,9 @@
       </c>
     </row>
     <row r="122" spans="1:17" s="26" customFormat="1" ht="108">
-      <c r="A122" s="710"/>
-      <c r="B122" s="711"/>
-      <c r="C122" s="713"/>
+      <c r="A122" s="740"/>
+      <c r="B122" s="719"/>
+      <c r="C122" s="717"/>
       <c r="D122" s="402" t="s">
         <v>1955</v>
       </c>
@@ -33228,9 +33222,9 @@
       </c>
     </row>
     <row r="123" spans="1:17" s="26" customFormat="1" ht="36">
-      <c r="A123" s="710"/>
-      <c r="B123" s="711"/>
-      <c r="C123" s="713"/>
+      <c r="A123" s="740"/>
+      <c r="B123" s="719"/>
+      <c r="C123" s="717"/>
       <c r="D123" s="402"/>
       <c r="E123" s="123"/>
       <c r="F123" s="560"/>
@@ -33253,9 +33247,9 @@
       </c>
     </row>
     <row r="124" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A124" s="710"/>
-      <c r="B124" s="711"/>
-      <c r="C124" s="713"/>
+      <c r="A124" s="740"/>
+      <c r="B124" s="719"/>
+      <c r="C124" s="717"/>
       <c r="D124" s="402"/>
       <c r="E124" s="123"/>
       <c r="F124" s="560"/>
@@ -33278,9 +33272,9 @@
       </c>
     </row>
     <row r="125" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A125" s="710"/>
-      <c r="B125" s="711"/>
-      <c r="C125" s="713"/>
+      <c r="A125" s="740"/>
+      <c r="B125" s="719"/>
+      <c r="C125" s="717"/>
       <c r="D125" s="402"/>
       <c r="E125" s="123"/>
       <c r="F125" s="560"/>
@@ -33303,9 +33297,9 @@
       </c>
     </row>
     <row r="126" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A126" s="710"/>
-      <c r="B126" s="711"/>
-      <c r="C126" s="713"/>
+      <c r="A126" s="740"/>
+      <c r="B126" s="719"/>
+      <c r="C126" s="717"/>
       <c r="D126" s="402"/>
       <c r="E126" s="123"/>
       <c r="F126" s="560"/>
@@ -33328,9 +33322,9 @@
       </c>
     </row>
     <row r="127" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A127" s="710"/>
-      <c r="B127" s="711"/>
-      <c r="C127" s="713"/>
+      <c r="A127" s="740"/>
+      <c r="B127" s="719"/>
+      <c r="C127" s="717"/>
       <c r="D127" s="402"/>
       <c r="E127" s="123"/>
       <c r="F127" s="560"/>
@@ -33353,9 +33347,9 @@
       </c>
     </row>
     <row r="128" spans="1:17" s="26" customFormat="1" ht="51" customHeight="1">
-      <c r="A128" s="710"/>
-      <c r="B128" s="711"/>
-      <c r="C128" s="713"/>
+      <c r="A128" s="740"/>
+      <c r="B128" s="719"/>
+      <c r="C128" s="717"/>
       <c r="D128" s="402"/>
       <c r="E128" s="123"/>
       <c r="F128" s="560"/>
@@ -33378,9 +33372,9 @@
       </c>
     </row>
     <row r="129" spans="1:17" s="26" customFormat="1" ht="45" customHeight="1">
-      <c r="A129" s="710"/>
-      <c r="B129" s="711"/>
-      <c r="C129" s="713"/>
+      <c r="A129" s="740"/>
+      <c r="B129" s="719"/>
+      <c r="C129" s="717"/>
       <c r="D129" s="402"/>
       <c r="E129" s="123"/>
       <c r="F129" s="560"/>
@@ -33403,9 +33397,9 @@
       </c>
     </row>
     <row r="130" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A130" s="710"/>
-      <c r="B130" s="711"/>
-      <c r="C130" s="713"/>
+      <c r="A130" s="740"/>
+      <c r="B130" s="719"/>
+      <c r="C130" s="717"/>
       <c r="D130" s="402"/>
       <c r="E130" s="123"/>
       <c r="F130" s="560"/>
@@ -33428,9 +33422,9 @@
       </c>
     </row>
     <row r="131" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A131" s="710"/>
-      <c r="B131" s="711"/>
-      <c r="C131" s="713"/>
+      <c r="A131" s="740"/>
+      <c r="B131" s="719"/>
+      <c r="C131" s="717"/>
       <c r="D131" s="402"/>
       <c r="E131" s="123"/>
       <c r="F131" s="560"/>
@@ -33453,9 +33447,9 @@
       </c>
     </row>
     <row r="132" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A132" s="710"/>
-      <c r="B132" s="711"/>
-      <c r="C132" s="713"/>
+      <c r="A132" s="740"/>
+      <c r="B132" s="719"/>
+      <c r="C132" s="717"/>
       <c r="D132" s="402"/>
       <c r="E132" s="123"/>
       <c r="F132" s="560"/>
@@ -33478,9 +33472,9 @@
       </c>
     </row>
     <row r="133" spans="1:17" s="26" customFormat="1" ht="72">
-      <c r="A133" s="710"/>
-      <c r="B133" s="711"/>
-      <c r="C133" s="713"/>
+      <c r="A133" s="740"/>
+      <c r="B133" s="719"/>
+      <c r="C133" s="717"/>
       <c r="D133" s="402" t="s">
         <v>1993</v>
       </c>
@@ -33523,9 +33517,9 @@
       </c>
     </row>
     <row r="134" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A134" s="710"/>
-      <c r="B134" s="711"/>
-      <c r="C134" s="713"/>
+      <c r="A134" s="740"/>
+      <c r="B134" s="719"/>
+      <c r="C134" s="717"/>
       <c r="D134" s="402"/>
       <c r="E134" s="122"/>
       <c r="F134" s="122"/>
@@ -33548,9 +33542,9 @@
       </c>
     </row>
     <row r="135" spans="1:17" s="26" customFormat="1" ht="108">
-      <c r="A135" s="710"/>
-      <c r="B135" s="711"/>
-      <c r="C135" s="713"/>
+      <c r="A135" s="740"/>
+      <c r="B135" s="719"/>
+      <c r="C135" s="717"/>
       <c r="D135" s="402" t="s">
         <v>1998</v>
       </c>
@@ -33591,9 +33585,9 @@
       </c>
     </row>
     <row r="136" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A136" s="710"/>
-      <c r="B136" s="711"/>
-      <c r="C136" s="713"/>
+      <c r="A136" s="740"/>
+      <c r="B136" s="719"/>
+      <c r="C136" s="717"/>
       <c r="D136" s="402"/>
       <c r="E136" s="123"/>
       <c r="F136" s="560"/>
@@ -33616,9 +33610,9 @@
       </c>
     </row>
     <row r="137" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A137" s="710"/>
-      <c r="B137" s="711"/>
-      <c r="C137" s="713"/>
+      <c r="A137" s="740"/>
+      <c r="B137" s="719"/>
+      <c r="C137" s="717"/>
       <c r="D137" s="402"/>
       <c r="E137" s="123"/>
       <c r="F137" s="560"/>
@@ -33641,9 +33635,9 @@
       </c>
     </row>
     <row r="138" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A138" s="710"/>
-      <c r="B138" s="711"/>
-      <c r="C138" s="713"/>
+      <c r="A138" s="740"/>
+      <c r="B138" s="719"/>
+      <c r="C138" s="717"/>
       <c r="D138" s="402"/>
       <c r="E138" s="123"/>
       <c r="F138" s="560"/>
@@ -33666,9 +33660,9 @@
       </c>
     </row>
     <row r="139" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A139" s="710"/>
-      <c r="B139" s="711"/>
-      <c r="C139" s="713"/>
+      <c r="A139" s="740"/>
+      <c r="B139" s="719"/>
+      <c r="C139" s="717"/>
       <c r="D139" s="402"/>
       <c r="E139" s="123"/>
       <c r="F139" s="560"/>
@@ -33691,9 +33685,9 @@
       </c>
     </row>
     <row r="140" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A140" s="710"/>
-      <c r="B140" s="711"/>
-      <c r="C140" s="713"/>
+      <c r="A140" s="740"/>
+      <c r="B140" s="719"/>
+      <c r="C140" s="717"/>
       <c r="D140" s="402"/>
       <c r="E140" s="123"/>
       <c r="F140" s="560"/>
@@ -33716,9 +33710,9 @@
       </c>
     </row>
     <row r="141" spans="1:17" s="26" customFormat="1" ht="108">
-      <c r="A141" s="710"/>
-      <c r="B141" s="711"/>
-      <c r="C141" s="713"/>
+      <c r="A141" s="740"/>
+      <c r="B141" s="719"/>
+      <c r="C141" s="717"/>
       <c r="D141" s="402" t="s">
         <v>2018</v>
       </c>
@@ -33761,9 +33755,9 @@
       </c>
     </row>
     <row r="142" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A142" s="710"/>
-      <c r="B142" s="711"/>
-      <c r="C142" s="713"/>
+      <c r="A142" s="740"/>
+      <c r="B142" s="719"/>
+      <c r="C142" s="717"/>
       <c r="D142" s="402"/>
       <c r="E142" s="123"/>
       <c r="F142" s="560"/>
@@ -33786,9 +33780,9 @@
       </c>
     </row>
     <row r="143" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A143" s="710"/>
-      <c r="B143" s="711"/>
-      <c r="C143" s="713"/>
+      <c r="A143" s="740"/>
+      <c r="B143" s="719"/>
+      <c r="C143" s="717"/>
       <c r="D143" s="402"/>
       <c r="E143" s="123"/>
       <c r="F143" s="560"/>
@@ -33811,9 +33805,9 @@
       </c>
     </row>
     <row r="144" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A144" s="710"/>
-      <c r="B144" s="711"/>
-      <c r="C144" s="713"/>
+      <c r="A144" s="740"/>
+      <c r="B144" s="719"/>
+      <c r="C144" s="717"/>
       <c r="D144" s="402"/>
       <c r="E144" s="123"/>
       <c r="F144" s="560"/>
@@ -33836,9 +33830,9 @@
       </c>
     </row>
     <row r="145" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A145" s="710"/>
-      <c r="B145" s="711"/>
-      <c r="C145" s="713"/>
+      <c r="A145" s="740"/>
+      <c r="B145" s="719"/>
+      <c r="C145" s="717"/>
       <c r="D145" s="402"/>
       <c r="E145" s="123"/>
       <c r="F145" s="560"/>
@@ -33861,9 +33855,9 @@
       </c>
     </row>
     <row r="146" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A146" s="710"/>
-      <c r="B146" s="711"/>
-      <c r="C146" s="713"/>
+      <c r="A146" s="740"/>
+      <c r="B146" s="719"/>
+      <c r="C146" s="717"/>
       <c r="D146" s="402"/>
       <c r="E146" s="123"/>
       <c r="F146" s="560"/>
@@ -33886,9 +33880,9 @@
       </c>
     </row>
     <row r="147" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A147" s="710"/>
-      <c r="B147" s="711"/>
-      <c r="C147" s="713"/>
+      <c r="A147" s="740"/>
+      <c r="B147" s="719"/>
+      <c r="C147" s="717"/>
       <c r="D147" s="402"/>
       <c r="E147" s="123"/>
       <c r="F147" s="560"/>
@@ -33911,9 +33905,9 @@
       </c>
     </row>
     <row r="148" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A148" s="710"/>
-      <c r="B148" s="711"/>
-      <c r="C148" s="713"/>
+      <c r="A148" s="740"/>
+      <c r="B148" s="719"/>
+      <c r="C148" s="717"/>
       <c r="D148" s="402"/>
       <c r="E148" s="123"/>
       <c r="F148" s="560"/>
@@ -33936,9 +33930,9 @@
       </c>
     </row>
     <row r="149" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A149" s="710"/>
-      <c r="B149" s="711"/>
-      <c r="C149" s="713"/>
+      <c r="A149" s="740"/>
+      <c r="B149" s="719"/>
+      <c r="C149" s="717"/>
       <c r="D149" s="402"/>
       <c r="E149" s="123"/>
       <c r="F149" s="560"/>
@@ -33961,9 +33955,9 @@
       </c>
     </row>
     <row r="150" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A150" s="710"/>
-      <c r="B150" s="711"/>
-      <c r="C150" s="713"/>
+      <c r="A150" s="740"/>
+      <c r="B150" s="719"/>
+      <c r="C150" s="717"/>
       <c r="D150" s="402"/>
       <c r="E150" s="123"/>
       <c r="F150" s="560"/>
@@ -33986,9 +33980,9 @@
       </c>
     </row>
     <row r="151" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A151" s="710"/>
-      <c r="B151" s="711"/>
-      <c r="C151" s="713"/>
+      <c r="A151" s="740"/>
+      <c r="B151" s="719"/>
+      <c r="C151" s="717"/>
       <c r="D151" s="402"/>
       <c r="E151" s="123"/>
       <c r="F151" s="560"/>
@@ -34011,9 +34005,9 @@
       </c>
     </row>
     <row r="152" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A152" s="710"/>
-      <c r="B152" s="711"/>
-      <c r="C152" s="713"/>
+      <c r="A152" s="740"/>
+      <c r="B152" s="719"/>
+      <c r="C152" s="717"/>
       <c r="D152" s="402"/>
       <c r="E152" s="123"/>
       <c r="F152" s="560"/>
@@ -34036,9 +34030,9 @@
       </c>
     </row>
     <row r="153" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A153" s="710"/>
-      <c r="B153" s="711"/>
-      <c r="C153" s="713"/>
+      <c r="A153" s="740"/>
+      <c r="B153" s="719"/>
+      <c r="C153" s="717"/>
       <c r="D153" s="402"/>
       <c r="E153" s="123"/>
       <c r="F153" s="560"/>
@@ -34061,9 +34055,9 @@
       </c>
     </row>
     <row r="154" spans="1:17" s="26" customFormat="1" ht="54">
-      <c r="A154" s="710"/>
-      <c r="B154" s="711"/>
-      <c r="C154" s="713"/>
+      <c r="A154" s="740"/>
+      <c r="B154" s="719"/>
+      <c r="C154" s="717"/>
       <c r="D154" s="402" t="s">
         <v>2063</v>
       </c>
@@ -34106,9 +34100,9 @@
       </c>
     </row>
     <row r="155" spans="1:17" s="26" customFormat="1" ht="36">
-      <c r="A155" s="710"/>
-      <c r="B155" s="711"/>
-      <c r="C155" s="713"/>
+      <c r="A155" s="740"/>
+      <c r="B155" s="719"/>
+      <c r="C155" s="717"/>
       <c r="D155" s="402"/>
       <c r="E155" s="123"/>
       <c r="F155" s="560"/>
@@ -34131,9 +34125,9 @@
       </c>
     </row>
     <row r="156" spans="1:17" s="26" customFormat="1" ht="18">
-      <c r="A156" s="710"/>
-      <c r="B156" s="711"/>
-      <c r="C156" s="713"/>
+      <c r="A156" s="740"/>
+      <c r="B156" s="719"/>
+      <c r="C156" s="717"/>
       <c r="D156" s="402"/>
       <c r="E156" s="123"/>
       <c r="F156" s="560"/>
@@ -34156,9 +34150,9 @@
       </c>
     </row>
     <row r="157" spans="1:17" s="26" customFormat="1" ht="36">
-      <c r="A157" s="710"/>
-      <c r="B157" s="711"/>
-      <c r="C157" s="713"/>
+      <c r="A157" s="740"/>
+      <c r="B157" s="719"/>
+      <c r="C157" s="717"/>
       <c r="D157" s="402"/>
       <c r="E157" s="123"/>
       <c r="F157" s="560"/>
@@ -34181,9 +34175,9 @@
       </c>
     </row>
     <row r="158" spans="1:17" s="26" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A158" s="710"/>
-      <c r="B158" s="711"/>
-      <c r="C158" s="713"/>
+      <c r="A158" s="740"/>
+      <c r="B158" s="719"/>
+      <c r="C158" s="717"/>
       <c r="D158" s="402"/>
       <c r="E158" s="123"/>
       <c r="F158" s="560"/>
@@ -34206,9 +34200,9 @@
       </c>
     </row>
     <row r="159" spans="1:17" s="26" customFormat="1" ht="54">
-      <c r="A159" s="710"/>
-      <c r="B159" s="711"/>
-      <c r="C159" s="713"/>
+      <c r="A159" s="740"/>
+      <c r="B159" s="719"/>
+      <c r="C159" s="717"/>
       <c r="D159" s="402" t="s">
         <v>2083</v>
       </c>
@@ -34251,9 +34245,9 @@
       </c>
     </row>
     <row r="160" spans="1:17" s="26" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A160" s="710"/>
-      <c r="B160" s="711"/>
-      <c r="C160" s="713"/>
+      <c r="A160" s="740"/>
+      <c r="B160" s="719"/>
+      <c r="C160" s="717"/>
       <c r="D160" s="402"/>
       <c r="E160" s="123"/>
       <c r="F160" s="560"/>
@@ -34276,9 +34270,9 @@
       </c>
     </row>
     <row r="161" spans="1:19" s="26" customFormat="1" ht="36">
-      <c r="A161" s="710"/>
-      <c r="B161" s="711"/>
-      <c r="C161" s="713"/>
+      <c r="A161" s="740"/>
+      <c r="B161" s="719"/>
+      <c r="C161" s="717"/>
       <c r="D161" s="402"/>
       <c r="E161" s="123"/>
       <c r="F161" s="560"/>
@@ -34301,9 +34295,9 @@
       </c>
     </row>
     <row r="162" spans="1:19" s="26" customFormat="1" ht="51" customHeight="1">
-      <c r="A162" s="710"/>
-      <c r="B162" s="711"/>
-      <c r="C162" s="713"/>
+      <c r="A162" s="740"/>
+      <c r="B162" s="719"/>
+      <c r="C162" s="717"/>
       <c r="D162" s="402"/>
       <c r="E162" s="123"/>
       <c r="F162" s="560"/>
@@ -34326,9 +34320,9 @@
       </c>
     </row>
     <row r="163" spans="1:19" s="26" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A163" s="710"/>
-      <c r="B163" s="711"/>
-      <c r="C163" s="713"/>
+      <c r="A163" s="740"/>
+      <c r="B163" s="719"/>
+      <c r="C163" s="717"/>
       <c r="D163" s="402"/>
       <c r="E163" s="123"/>
       <c r="F163" s="560"/>
@@ -34351,9 +34345,9 @@
       </c>
     </row>
     <row r="164" spans="1:19" s="26" customFormat="1" ht="21" customHeight="1">
-      <c r="A164" s="710"/>
-      <c r="B164" s="711"/>
-      <c r="C164" s="713"/>
+      <c r="A164" s="740"/>
+      <c r="B164" s="719"/>
+      <c r="C164" s="717"/>
       <c r="D164" s="402"/>
       <c r="E164" s="123"/>
       <c r="F164" s="560"/>
@@ -34376,9 +34370,9 @@
       </c>
     </row>
     <row r="165" spans="1:19" s="26" customFormat="1" ht="36">
-      <c r="A165" s="710"/>
-      <c r="B165" s="711"/>
-      <c r="C165" s="713"/>
+      <c r="A165" s="740"/>
+      <c r="B165" s="719"/>
+      <c r="C165" s="717"/>
       <c r="D165" s="402"/>
       <c r="E165" s="123"/>
       <c r="F165" s="560"/>
@@ -34401,9 +34395,9 @@
       </c>
     </row>
     <row r="166" spans="1:19" s="26" customFormat="1" ht="36">
-      <c r="A166" s="710"/>
-      <c r="B166" s="711"/>
-      <c r="C166" s="713"/>
+      <c r="A166" s="740"/>
+      <c r="B166" s="719"/>
+      <c r="C166" s="717"/>
       <c r="D166" s="402"/>
       <c r="E166" s="123"/>
       <c r="F166" s="560"/>
@@ -34426,9 +34420,9 @@
       </c>
     </row>
     <row r="167" spans="1:19" s="26" customFormat="1" ht="126">
-      <c r="A167" s="710"/>
-      <c r="B167" s="711"/>
-      <c r="C167" s="713"/>
+      <c r="A167" s="740"/>
+      <c r="B167" s="719"/>
+      <c r="C167" s="717"/>
       <c r="D167" s="402" t="s">
         <v>2111</v>
       </c>
@@ -34463,9 +34457,9 @@
       <c r="Q167" s="416"/>
     </row>
     <row r="168" spans="1:19" s="26" customFormat="1" ht="36">
-      <c r="A168" s="710"/>
-      <c r="B168" s="711"/>
-      <c r="C168" s="713"/>
+      <c r="A168" s="740"/>
+      <c r="B168" s="719"/>
+      <c r="C168" s="717"/>
       <c r="D168" s="402"/>
       <c r="E168" s="123"/>
       <c r="F168" s="560" t="s">
@@ -34487,9 +34481,9 @@
       <c r="Q168" s="416"/>
     </row>
     <row r="169" spans="1:19" s="26" customFormat="1" ht="210">
-      <c r="A169" s="710"/>
-      <c r="B169" s="711"/>
-      <c r="C169" s="713"/>
+      <c r="A169" s="740"/>
+      <c r="B169" s="719"/>
+      <c r="C169" s="717"/>
       <c r="D169" s="402" t="s">
         <v>2116</v>
       </c>
@@ -34524,13 +34518,13 @@
       <c r="Q169" s="416"/>
     </row>
     <row r="170" spans="1:19" s="106" customFormat="1" ht="72">
-      <c r="A170" s="724" t="s">
+      <c r="A170" s="711" t="s">
         <v>2122</v>
       </c>
-      <c r="B170" s="724" t="s">
+      <c r="B170" s="711" t="s">
         <v>2123</v>
       </c>
-      <c r="C170" s="726" t="s">
+      <c r="C170" s="713" t="s">
         <v>2124</v>
       </c>
       <c r="D170" s="292" t="s">
@@ -34569,9 +34563,9 @@
       <c r="S170" s="105"/>
     </row>
     <row r="171" spans="1:19" s="106" customFormat="1" ht="36">
-      <c r="A171" s="724"/>
-      <c r="B171" s="724"/>
-      <c r="C171" s="726"/>
+      <c r="A171" s="711"/>
+      <c r="B171" s="711"/>
+      <c r="C171" s="713"/>
       <c r="D171" s="292" t="s">
         <v>2131</v>
       </c>
@@ -34608,9 +34602,9 @@
       <c r="S171" s="103"/>
     </row>
     <row r="172" spans="1:19" s="111" customFormat="1" ht="54">
-      <c r="A172" s="725"/>
-      <c r="B172" s="725"/>
-      <c r="C172" s="727"/>
+      <c r="A172" s="712"/>
+      <c r="B172" s="712"/>
+      <c r="C172" s="714"/>
       <c r="D172" s="292" t="s">
         <v>2139</v>
       </c>
@@ -34752,6 +34746,17 @@
   </sheetData>
   <autoFilter ref="A1:Q176" xr:uid="{9A434DBB-F22E-4DC4-8501-8431E4DF328B}"/>
   <mergeCells count="27">
+    <mergeCell ref="A84:A169"/>
+    <mergeCell ref="B84:B169"/>
+    <mergeCell ref="C84:C169"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="B47:B54"/>
+    <mergeCell ref="C47:C54"/>
     <mergeCell ref="A170:A172"/>
     <mergeCell ref="B170:B172"/>
     <mergeCell ref="C170:C172"/>
@@ -34768,17 +34773,6 @@
     <mergeCell ref="B55:B70"/>
     <mergeCell ref="C55:C70"/>
     <mergeCell ref="A39:A46"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="B47:B54"/>
-    <mergeCell ref="C47:C54"/>
-    <mergeCell ref="A84:A169"/>
-    <mergeCell ref="B84:B169"/>
-    <mergeCell ref="C84:C169"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -36743,8 +36737,8 @@
   </sheetPr>
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="77" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView topLeftCell="D19" zoomScale="77" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -36823,11 +36817,11 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="613" customFormat="1" ht="72">
-      <c r="A2" s="742" t="s">
+      <c r="A2" s="743" t="s">
         <v>2529</v>
       </c>
-      <c r="B2" s="711"/>
-      <c r="C2" s="743" t="s">
+      <c r="B2" s="719"/>
+      <c r="C2" s="744" t="s">
         <v>2530</v>
       </c>
       <c r="D2" s="377" t="s">
@@ -36872,9 +36866,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="26" customFormat="1" ht="18">
-      <c r="A3" s="742"/>
-      <c r="B3" s="711"/>
-      <c r="C3" s="743"/>
+      <c r="A3" s="743"/>
+      <c r="B3" s="719"/>
+      <c r="C3" s="744"/>
       <c r="D3" s="377"/>
       <c r="E3" s="123"/>
       <c r="F3" s="372"/>
@@ -36898,9 +36892,9 @@
       <c r="R3" s="29"/>
     </row>
     <row r="4" spans="1:18" s="26" customFormat="1" ht="18">
-      <c r="A4" s="742"/>
-      <c r="B4" s="711"/>
-      <c r="C4" s="743"/>
+      <c r="A4" s="743"/>
+      <c r="B4" s="719"/>
+      <c r="C4" s="744"/>
       <c r="D4" s="377"/>
       <c r="E4" s="123"/>
       <c r="F4" s="372"/>
@@ -36924,9 +36918,9 @@
       <c r="R4" s="29"/>
     </row>
     <row r="5" spans="1:18" s="26" customFormat="1" ht="18">
-      <c r="A5" s="742"/>
-      <c r="B5" s="711"/>
-      <c r="C5" s="743"/>
+      <c r="A5" s="743"/>
+      <c r="B5" s="719"/>
+      <c r="C5" s="744"/>
       <c r="D5" s="377"/>
       <c r="E5" s="123"/>
       <c r="F5" s="372"/>
@@ -36950,9 +36944,9 @@
       <c r="R5" s="29"/>
     </row>
     <row r="6" spans="1:18" s="26" customFormat="1" ht="18">
-      <c r="A6" s="742"/>
-      <c r="B6" s="711"/>
-      <c r="C6" s="743"/>
+      <c r="A6" s="743"/>
+      <c r="B6" s="719"/>
+      <c r="C6" s="744"/>
       <c r="D6" s="377"/>
       <c r="E6" s="123"/>
       <c r="F6" s="372"/>
@@ -36976,9 +36970,9 @@
       <c r="R6" s="29"/>
     </row>
     <row r="7" spans="1:18" s="26" customFormat="1" ht="18">
-      <c r="A7" s="742"/>
-      <c r="B7" s="711"/>
-      <c r="C7" s="743"/>
+      <c r="A7" s="743"/>
+      <c r="B7" s="719"/>
+      <c r="C7" s="744"/>
       <c r="D7" s="377"/>
       <c r="E7" s="123"/>
       <c r="F7" s="372"/>
@@ -37002,9 +36996,9 @@
       <c r="R7" s="29"/>
     </row>
     <row r="8" spans="1:18" s="26" customFormat="1" ht="18">
-      <c r="A8" s="742"/>
-      <c r="B8" s="711"/>
-      <c r="C8" s="743"/>
+      <c r="A8" s="743"/>
+      <c r="B8" s="719"/>
+      <c r="C8" s="744"/>
       <c r="D8" s="377"/>
       <c r="E8" s="123"/>
       <c r="F8" s="372"/>
@@ -37028,9 +37022,9 @@
       <c r="R8" s="29"/>
     </row>
     <row r="9" spans="1:18" s="26" customFormat="1" ht="18">
-      <c r="A9" s="742"/>
-      <c r="B9" s="711"/>
-      <c r="C9" s="743"/>
+      <c r="A9" s="743"/>
+      <c r="B9" s="719"/>
+      <c r="C9" s="744"/>
       <c r="D9" s="377"/>
       <c r="E9" s="123"/>
       <c r="F9" s="372"/>
@@ -37054,9 +37048,9 @@
       <c r="R9" s="29"/>
     </row>
     <row r="10" spans="1:18" s="26" customFormat="1" ht="18">
-      <c r="A10" s="742"/>
-      <c r="B10" s="711"/>
-      <c r="C10" s="743"/>
+      <c r="A10" s="743"/>
+      <c r="B10" s="719"/>
+      <c r="C10" s="744"/>
       <c r="D10" s="377"/>
       <c r="E10" s="123"/>
       <c r="F10" s="372"/>
@@ -37080,9 +37074,9 @@
       <c r="R10" s="29"/>
     </row>
     <row r="11" spans="1:18" s="26" customFormat="1" ht="18">
-      <c r="A11" s="742"/>
-      <c r="B11" s="711"/>
-      <c r="C11" s="743"/>
+      <c r="A11" s="743"/>
+      <c r="B11" s="719"/>
+      <c r="C11" s="744"/>
       <c r="D11" s="377"/>
       <c r="E11" s="123"/>
       <c r="F11" s="372"/>
@@ -37106,9 +37100,9 @@
       <c r="R11" s="29"/>
     </row>
     <row r="12" spans="1:18" s="26" customFormat="1" ht="18">
-      <c r="A12" s="742"/>
-      <c r="B12" s="711"/>
-      <c r="C12" s="743"/>
+      <c r="A12" s="743"/>
+      <c r="B12" s="719"/>
+      <c r="C12" s="744"/>
       <c r="D12" s="377"/>
       <c r="E12" s="123"/>
       <c r="F12" s="372"/>
@@ -37132,9 +37126,9 @@
       <c r="R12" s="29"/>
     </row>
     <row r="13" spans="1:18" s="26" customFormat="1" ht="18">
-      <c r="A13" s="742"/>
-      <c r="B13" s="711"/>
-      <c r="C13" s="743"/>
+      <c r="A13" s="743"/>
+      <c r="B13" s="719"/>
+      <c r="C13" s="744"/>
       <c r="D13" s="377"/>
       <c r="E13" s="123"/>
       <c r="F13" s="372"/>
@@ -37158,9 +37152,9 @@
       <c r="R13" s="29"/>
     </row>
     <row r="14" spans="1:18" s="26" customFormat="1" ht="108">
-      <c r="A14" s="742"/>
-      <c r="B14" s="711"/>
-      <c r="C14" s="743"/>
+      <c r="A14" s="743"/>
+      <c r="B14" s="719"/>
+      <c r="C14" s="744"/>
       <c r="D14" s="377" t="s">
         <v>2573</v>
       </c>
@@ -37196,9 +37190,9 @@
       <c r="R14" s="29"/>
     </row>
     <row r="15" spans="1:18" s="26" customFormat="1" ht="36">
-      <c r="A15" s="742"/>
-      <c r="B15" s="711"/>
-      <c r="C15" s="743"/>
+      <c r="A15" s="743"/>
+      <c r="B15" s="719"/>
+      <c r="C15" s="744"/>
       <c r="D15" s="377"/>
       <c r="E15" s="123"/>
       <c r="F15" s="372" t="s">
@@ -37220,9 +37214,9 @@
       <c r="R15" s="29"/>
     </row>
     <row r="16" spans="1:18" s="342" customFormat="1" ht="64">
-      <c r="A16" s="742"/>
-      <c r="B16" s="711"/>
-      <c r="C16" s="743"/>
+      <c r="A16" s="743"/>
+      <c r="B16" s="719"/>
+      <c r="C16" s="744"/>
       <c r="D16" s="377" t="s">
         <v>2575</v>
       </c>
@@ -37257,9 +37251,9 @@
       </c>
     </row>
     <row r="17" spans="1:17" s="342" customFormat="1" ht="18">
-      <c r="A17" s="742"/>
-      <c r="B17" s="711"/>
-      <c r="C17" s="743"/>
+      <c r="A17" s="743"/>
+      <c r="B17" s="719"/>
+      <c r="C17" s="744"/>
       <c r="D17" s="377"/>
       <c r="E17" s="374"/>
       <c r="F17" s="373"/>
@@ -37282,9 +37276,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" s="342" customFormat="1" ht="36">
-      <c r="A18" s="742"/>
-      <c r="B18" s="711"/>
-      <c r="C18" s="743"/>
+      <c r="A18" s="743"/>
+      <c r="B18" s="719"/>
+      <c r="C18" s="744"/>
       <c r="D18" s="377" t="s">
         <v>2581</v>
       </c>
@@ -37769,13 +37763,13 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="90">
-      <c r="A37" s="744" t="s">
+      <c r="A37" s="745" t="s">
         <v>2589</v>
       </c>
-      <c r="B37" s="746" t="s">
+      <c r="B37" s="747" t="s">
         <v>2590</v>
       </c>
-      <c r="C37" s="747" t="s">
+      <c r="C37" s="748" t="s">
         <v>2591</v>
       </c>
       <c r="D37" s="291" t="s">
@@ -37803,7 +37797,7 @@
         <v>2597</v>
       </c>
       <c r="L37" s="80"/>
-      <c r="M37" s="748" t="s">
+      <c r="M37" s="682" t="s">
         <v>2642</v>
       </c>
       <c r="N37" s="81" t="s">
@@ -37820,9 +37814,9 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="18">
-      <c r="A38" s="745"/>
-      <c r="B38" s="746"/>
-      <c r="C38" s="747"/>
+      <c r="A38" s="746"/>
+      <c r="B38" s="747"/>
+      <c r="C38" s="748"/>
       <c r="D38" s="291"/>
       <c r="E38" s="90"/>
       <c r="F38" s="47"/>
@@ -37845,9 +37839,9 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="72">
-      <c r="A39" s="745"/>
-      <c r="B39" s="746"/>
-      <c r="C39" s="747"/>
+      <c r="A39" s="746"/>
+      <c r="B39" s="747"/>
+      <c r="C39" s="748"/>
       <c r="D39" s="291" t="s">
         <v>2599</v>
       </c>
@@ -37873,7 +37867,7 @@
         <v>2606</v>
       </c>
       <c r="L39" s="101"/>
-      <c r="M39" s="748" t="s">
+      <c r="M39" s="682" t="s">
         <v>872</v>
       </c>
       <c r="N39" s="81"/>
@@ -37888,9 +37882,9 @@
       </c>
     </row>
     <row r="40" spans="1:17" ht="18">
-      <c r="A40" s="745"/>
-      <c r="B40" s="746"/>
-      <c r="C40" s="747"/>
+      <c r="A40" s="746"/>
+      <c r="B40" s="747"/>
+      <c r="C40" s="748"/>
       <c r="D40" s="291"/>
       <c r="E40" s="99"/>
       <c r="F40" s="88"/>
@@ -37913,9 +37907,9 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="18">
-      <c r="A41" s="745"/>
-      <c r="B41" s="746"/>
-      <c r="C41" s="747"/>
+      <c r="A41" s="746"/>
+      <c r="B41" s="747"/>
+      <c r="C41" s="748"/>
       <c r="D41" s="291"/>
       <c r="E41" s="99"/>
       <c r="F41" s="88"/>
@@ -37938,9 +37932,9 @@
       </c>
     </row>
     <row r="42" spans="1:17" ht="18">
-      <c r="A42" s="745"/>
-      <c r="B42" s="746"/>
-      <c r="C42" s="747"/>
+      <c r="A42" s="746"/>
+      <c r="B42" s="747"/>
+      <c r="C42" s="748"/>
       <c r="D42" s="291"/>
       <c r="E42" s="99"/>
       <c r="F42" s="88"/>
@@ -37963,9 +37957,9 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="18">
-      <c r="A43" s="745"/>
-      <c r="B43" s="746"/>
-      <c r="C43" s="747"/>
+      <c r="A43" s="746"/>
+      <c r="B43" s="747"/>
+      <c r="C43" s="748"/>
       <c r="D43" s="291"/>
       <c r="E43" s="99"/>
       <c r="F43" s="88"/>
@@ -37988,9 +37982,9 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="18">
-      <c r="A44" s="745"/>
-      <c r="B44" s="746"/>
-      <c r="C44" s="747"/>
+      <c r="A44" s="746"/>
+      <c r="B44" s="747"/>
+      <c r="C44" s="748"/>
       <c r="D44" s="291"/>
       <c r="E44" s="99"/>
       <c r="F44" s="88"/>
@@ -38013,9 +38007,9 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="34">
-      <c r="A45" s="745"/>
-      <c r="B45" s="746"/>
-      <c r="C45" s="747"/>
+      <c r="A45" s="746"/>
+      <c r="B45" s="747"/>
+      <c r="C45" s="748"/>
       <c r="D45" s="291"/>
       <c r="E45" s="99"/>
       <c r="F45" s="88"/>
@@ -38038,9 +38032,9 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="18">
-      <c r="A46" s="745"/>
-      <c r="B46" s="746"/>
-      <c r="C46" s="747"/>
+      <c r="A46" s="746"/>
+      <c r="B46" s="747"/>
+      <c r="C46" s="748"/>
       <c r="D46" s="291"/>
       <c r="E46" s="99"/>
       <c r="F46" s="88"/>
@@ -38063,9 +38057,9 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="18">
-      <c r="A47" s="745"/>
-      <c r="B47" s="746"/>
-      <c r="C47" s="747"/>
+      <c r="A47" s="746"/>
+      <c r="B47" s="747"/>
+      <c r="C47" s="748"/>
       <c r="D47" s="291"/>
       <c r="E47" s="99"/>
       <c r="F47" s="88"/>
@@ -38088,9 +38082,9 @@
       </c>
     </row>
     <row r="48" spans="1:17" ht="18">
-      <c r="A48" s="745"/>
-      <c r="B48" s="746"/>
-      <c r="C48" s="747"/>
+      <c r="A48" s="746"/>
+      <c r="B48" s="747"/>
+      <c r="C48" s="748"/>
       <c r="D48" s="291"/>
       <c r="E48" s="99"/>
       <c r="F48" s="88"/>
@@ -38113,9 +38107,9 @@
       </c>
     </row>
     <row r="49" spans="1:17" ht="18">
-      <c r="A49" s="745"/>
-      <c r="B49" s="746"/>
-      <c r="C49" s="747"/>
+      <c r="A49" s="746"/>
+      <c r="B49" s="747"/>
+      <c r="C49" s="748"/>
       <c r="D49" s="291"/>
       <c r="E49" s="99"/>
       <c r="F49" s="88"/>
@@ -38138,9 +38132,9 @@
       </c>
     </row>
     <row r="50" spans="1:17" ht="18">
-      <c r="A50" s="745"/>
-      <c r="B50" s="746"/>
-      <c r="C50" s="747"/>
+      <c r="A50" s="746"/>
+      <c r="B50" s="747"/>
+      <c r="C50" s="748"/>
       <c r="D50" s="291"/>
       <c r="E50" s="99"/>
       <c r="F50" s="88"/>
@@ -38163,9 +38157,9 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="18">
-      <c r="A51" s="745"/>
-      <c r="B51" s="746"/>
-      <c r="C51" s="747"/>
+      <c r="A51" s="746"/>
+      <c r="B51" s="747"/>
+      <c r="C51" s="748"/>
       <c r="D51" s="291"/>
       <c r="E51" s="99"/>
       <c r="F51" s="88"/>
@@ -38188,9 +38182,9 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="18">
-      <c r="A52" s="745"/>
-      <c r="B52" s="746"/>
-      <c r="C52" s="747"/>
+      <c r="A52" s="746"/>
+      <c r="B52" s="747"/>
+      <c r="C52" s="748"/>
       <c r="D52" s="291"/>
       <c r="E52" s="99"/>
       <c r="F52" s="88"/>
@@ -38213,9 +38207,9 @@
       </c>
     </row>
     <row r="53" spans="1:17" ht="18">
-      <c r="A53" s="745"/>
-      <c r="B53" s="746"/>
-      <c r="C53" s="747"/>
+      <c r="A53" s="746"/>
+      <c r="B53" s="747"/>
+      <c r="C53" s="748"/>
       <c r="D53" s="291"/>
       <c r="E53" s="99"/>
       <c r="F53" s="88"/>
@@ -38238,9 +38232,9 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="18">
-      <c r="A54" s="745"/>
-      <c r="B54" s="746"/>
-      <c r="C54" s="747"/>
+      <c r="A54" s="746"/>
+      <c r="B54" s="747"/>
+      <c r="C54" s="748"/>
       <c r="D54" s="291"/>
       <c r="E54" s="99"/>
       <c r="F54" s="88"/>
@@ -38308,17 +38302,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A595C2436754DD4192B3BEE0FFE1ED0A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93ba19257e65125414350f132367e985">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00591925-1995-4bf8-8d28-1f7cbeda4924" xmlns:ns3="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2a6491f746e84da8ae5f2642b9bcf21" ns2:_="" ns3:_="">
     <xsd:import namespace="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
@@ -38547,6 +38530,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00591925-1995-4bf8-8d28-1f7cbeda4924">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FAF7A7-D9AD-4A85-9EE8-33F1ACC4911B}">
   <ds:schemaRefs>
@@ -38556,17 +38550,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
-    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B4B015-2F19-4BB0-A14D-E91581C50494}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38583,4 +38566,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{319AAEED-380C-474B-BD5E-BD614C666CFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bdbedefb-8a5a-49d5-aad5-33b2c71b0a4d"/>
+    <ds:schemaRef ds:uri="00591925-1995-4bf8-8d28-1f7cbeda4924"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>